--- a/analysis/op_art_analysis.xlsx
+++ b/analysis/op_art_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hettysymes/Documents/op_art_generator/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9444C5-8438-0C43-A8F2-F40252113A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C366286D-B188-224D-86B9-714A0CC2A1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28400" windowHeight="15680" xr2:uid="{F32E88F0-E047-FC4B-8F82-E7C145B1565C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{F32E88F0-E047-FC4B-8F82-E7C145B1565C}"/>
   </bookViews>
   <sheets>
     <sheet name="Cantus Firmus" sheetId="8" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="96">
   <si>
     <t>Index</t>
   </si>
@@ -308,9 +308,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>Fill</t>
-  </si>
-  <si>
     <t>green</t>
   </si>
   <si>
@@ -327,6 +324,9 @@
   </si>
   <si>
     <t>white</t>
+  </si>
+  <si>
+    <t>unnorm_x</t>
   </si>
   <si>
     <t>Colour</t>
@@ -444,7 +444,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="48">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -794,11 +797,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cantus Firmus'!$B$1</c:f>
+              <c:f>'Cantus Firmus'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>x</c:v>
+                  <c:v>unnorm_x</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -827,881 +830,442 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Cantus Firmus'!$A$2:$A$145</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="144"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>143</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>'Cantus Firmus'!#REF!</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Cantus Firmus'!$B$2:$B$145</c:f>
+              <c:f>'Cantus Firmus'!$A$2:$A$144</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="144"/>
+                <c:ptCount val="143"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1</c:v>
+                  <c:v>4.0599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0599999999999996</c:v>
+                  <c:v>10.73</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.73</c:v>
+                  <c:v>12.68</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.68</c:v>
+                  <c:v>14.15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.15</c:v>
+                  <c:v>15.66</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.66</c:v>
+                  <c:v>20.38</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20.38</c:v>
+                  <c:v>21.79</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.79</c:v>
+                  <c:v>23.14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23.14</c:v>
+                  <c:v>25.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25.2</c:v>
+                  <c:v>30.13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30.13</c:v>
+                  <c:v>32.090000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32.090000000000003</c:v>
+                  <c:v>33.71</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>33.71</c:v>
+                  <c:v>35.01</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35.01</c:v>
+                  <c:v>41.24</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>41.24</c:v>
+                  <c:v>42.87</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42.87</c:v>
+                  <c:v>44.39</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44.39</c:v>
+                  <c:v>46.45</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>46.45</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>51</c:v>
+                  <c:v>53.22</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>53.22</c:v>
+                  <c:v>54.79</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>54.79</c:v>
+                  <c:v>56.15</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>56.15</c:v>
+                  <c:v>60.7</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>60.7</c:v>
+                  <c:v>62.33</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>62.33</c:v>
+                  <c:v>63.9</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>63.9</c:v>
+                  <c:v>65.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>65.900000000000006</c:v>
+                  <c:v>72.14</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>72.14</c:v>
+                  <c:v>73.930000000000007</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>73.930000000000007</c:v>
+                  <c:v>75.61</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>75.61</c:v>
+                  <c:v>77.12</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>77.12</c:v>
+                  <c:v>81.84</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>81.84</c:v>
+                  <c:v>83.46</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>83.46</c:v>
+                  <c:v>85.1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>85.1</c:v>
+                  <c:v>87.01</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>87.01</c:v>
+                  <c:v>91.91</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>91.91</c:v>
+                  <c:v>93.77</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>93.77</c:v>
+                  <c:v>95.45</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>95.45</c:v>
+                  <c:v>96.73</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>96.73</c:v>
+                  <c:v>103.11</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>103.11</c:v>
+                  <c:v>104.7</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>104.7</c:v>
+                  <c:v>106.22</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>106.22</c:v>
+                  <c:v>108.12</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>108.12</c:v>
+                  <c:v>112.86</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>112.86</c:v>
+                  <c:v>114.85</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>114.85</c:v>
+                  <c:v>116.4</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>116.4</c:v>
+                  <c:v>117.92</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>117.92</c:v>
+                  <c:v>122.66</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>122.66</c:v>
+                  <c:v>123.94</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>123.94</c:v>
+                  <c:v>125.38</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>125.38</c:v>
+                  <c:v>127.48</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>127.48</c:v>
+                  <c:v>134.09</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>134.09</c:v>
+                  <c:v>135.84</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>135.84</c:v>
+                  <c:v>137.47</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>137.47</c:v>
+                  <c:v>138.94999999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>138.94999999999999</c:v>
+                  <c:v>143.54</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>143.54</c:v>
+                  <c:v>144.94</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>144.94</c:v>
+                  <c:v>146.49</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>146.49</c:v>
+                  <c:v>148.55000000000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>148.55000000000001</c:v>
+                  <c:v>153.34</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>153.34</c:v>
+                  <c:v>155.44</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>155.44</c:v>
+                  <c:v>156.74</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>156.74</c:v>
+                  <c:v>158.18</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>158.18</c:v>
+                  <c:v>164.76</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>164.76</c:v>
+                  <c:v>166.08</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>166.08</c:v>
+                  <c:v>167.65</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>167.65</c:v>
+                  <c:v>169.58</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>169.58</c:v>
+                  <c:v>174.44</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>174.44</c:v>
+                  <c:v>176.25</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>176.25</c:v>
+                  <c:v>177.94</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>177.94</c:v>
+                  <c:v>179.26</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>179.26</c:v>
+                  <c:v>184.03</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>184.03</c:v>
+                  <c:v>185.51</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>185.51</c:v>
+                  <c:v>187.12</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>187.12</c:v>
+                  <c:v>189.01</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>189.01</c:v>
+                  <c:v>195.35</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>195.35</c:v>
+                  <c:v>197.21</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>197.21</c:v>
+                  <c:v>198.81</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>198.81</c:v>
+                  <c:v>200.17</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>200.17</c:v>
+                  <c:v>204.91</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>204.91</c:v>
+                  <c:v>206.39</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>206.39</c:v>
+                  <c:v>207.83</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>207.83</c:v>
+                  <c:v>209.93</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>209.93</c:v>
+                  <c:v>214.75</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>214.75</c:v>
+                  <c:v>216.52</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>216.52</c:v>
+                  <c:v>218.08</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>218.08</c:v>
+                  <c:v>219.52</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>219.52</c:v>
+                  <c:v>226.03</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>226.03</c:v>
+                  <c:v>227.38</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>227.38</c:v>
+                  <c:v>228.99</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>228.99</c:v>
+                  <c:v>230.84</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>230.84</c:v>
+                  <c:v>235.68</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>235.68</c:v>
+                  <c:v>237.64</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>237.64</c:v>
+                  <c:v>239.26</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>239.26</c:v>
+                  <c:v>240.7</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>240.7</c:v>
+                  <c:v>245.51</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>245.51</c:v>
+                  <c:v>246.91</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>246.91</c:v>
+                  <c:v>248.32</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>248.32</c:v>
+                  <c:v>250.35</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>250.35</c:v>
+                  <c:v>254.95</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>254.95</c:v>
+                  <c:v>257.08999999999997</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>257.08999999999997</c:v>
+                  <c:v>258.63</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>258.63</c:v>
+                  <c:v>260.04000000000002</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>260.04000000000002</c:v>
+                  <c:v>266.47000000000003</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>266.47000000000003</c:v>
+                  <c:v>267.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>267.89999999999998</c:v>
+                  <c:v>269.52999999999997</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>269.52999999999997</c:v>
+                  <c:v>271.33999999999997</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>271.33999999999997</c:v>
+                  <c:v>276.10000000000002</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>276.10000000000002</c:v>
+                  <c:v>278.06</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>278.06</c:v>
+                  <c:v>279.73</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>279.73</c:v>
+                  <c:v>281.02999999999997</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>281.02999999999997</c:v>
+                  <c:v>285.62</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>285.62</c:v>
+                  <c:v>287.27</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>287.27</c:v>
+                  <c:v>288.76</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>288.76</c:v>
+                  <c:v>290.66000000000003</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>290.66000000000003</c:v>
+                  <c:v>297.12</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>297.12</c:v>
+                  <c:v>298.91000000000003</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>298.91000000000003</c:v>
+                  <c:v>300.67</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>300.67</c:v>
+                  <c:v>302.10000000000002</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>302.10000000000002</c:v>
+                  <c:v>306.86</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>306.86</c:v>
+                  <c:v>308.07</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>308.07</c:v>
+                  <c:v>309.69</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>309.69</c:v>
+                  <c:v>311.62</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>311.62</c:v>
+                  <c:v>316.35000000000002</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>316.35000000000002</c:v>
+                  <c:v>318.25</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>318.25</c:v>
+                  <c:v>320.07</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>320.07</c:v>
+                  <c:v>321.39</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>321.39</c:v>
+                  <c:v>327.79</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>327.79</c:v>
+                  <c:v>329.15</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>329.15</c:v>
+                  <c:v>330.69</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>330.69</c:v>
+                  <c:v>332.75</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>332.75</c:v>
+                  <c:v>337.63</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>337.63</c:v>
+                  <c:v>339.29</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>339.29</c:v>
+                  <c:v>340.91</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>340.91</c:v>
+                  <c:v>342.41</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>342.41</c:v>
+                  <c:v>347.18</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>347.18</c:v>
+                  <c:v>348.63</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>348.63</c:v>
+                  <c:v>350.24</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>350.24</c:v>
+                  <c:v>352.11</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>352.11</c:v>
+                  <c:v>358.47</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>358.47</c:v>
+                  <c:v>360.25</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>360.25</c:v>
+                  <c:v>361.91</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>361.91</c:v>
-                </c:pt>
-                <c:pt idx="143">
                   <c:v>363.27</c:v>
                 </c:pt>
               </c:numCache>
@@ -7546,7 +7110,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Cantus Firmus'!$E$1</c:f>
+              <c:f>'Cantus Firmus'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7633,438 +7197,438 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Cantus Firmus'!$E$3:$E$145</c:f>
+              <c:f>'Cantus Firmus'!$D$2:$D$144</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="143"/>
                 <c:pt idx="0">
-                  <c:v>0.76</c:v>
+                  <c:v>2.0920000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.34</c:v>
+                  <c:v>3.6887163817546178E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9599999999999995</c:v>
+                  <c:v>5.395435901670932E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6700000000000008</c:v>
+                  <c:v>1.8360998706196494E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9499999999999993</c:v>
+                  <c:v>5.3679081674787334E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4700000000000006</c:v>
+                  <c:v>4.0465769262532023E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5099999999999998</c:v>
+                  <c:v>4.1566878630219933E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.7199999999999989</c:v>
+                  <c:v>1.2993090538717757E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4100000000000001</c:v>
+                  <c:v>3.8814105211000122E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3500000000000014</c:v>
+                  <c:v>3.7162441159468151E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0599999999999987</c:v>
+                  <c:v>5.6707132435929175E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.93</c:v>
+                  <c:v>1.3571172956753932E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.9600000000000044</c:v>
+                  <c:v>5.3954359016709502E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6199999999999974</c:v>
+                  <c:v>4.4594929391361671E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.2999999999999972</c:v>
+                  <c:v>3.5786054449858107E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.230000000000004</c:v>
+                  <c:v>1.7149778401739771E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6299999999999955</c:v>
+                  <c:v>4.4870206733283596E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.5200000000000031</c:v>
+                  <c:v>4.1842155972142137E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.0600000000000023</c:v>
+                  <c:v>5.6707132435929314E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.5499999999999972</c:v>
+                  <c:v>1.2525119057450351E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.2199999999999989</c:v>
+                  <c:v>6.1111569906681096E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.5700000000000003</c:v>
+                  <c:v>4.3218542681751904E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.3599999999999994</c:v>
+                  <c:v>3.7437718501390216E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.5500000000000043</c:v>
+                  <c:v>1.2525119057450379E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.6299999999999955</c:v>
+                  <c:v>4.4870206733283735E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.5700000000000003</c:v>
+                  <c:v>4.3218542681751904E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.0000000000000071</c:v>
+                  <c:v>5.5055468384397344E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.2399999999999949</c:v>
+                  <c:v>1.7177306135931936E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.7900000000000063</c:v>
+                  <c:v>4.9274644204035933E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.6799999999999926</c:v>
+                  <c:v>4.6246593442893502E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.5100000000000051</c:v>
+                  <c:v>4.1566878630220072E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.7199999999999989</c:v>
+                  <c:v>1.299309053871775E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.6199999999999903</c:v>
+                  <c:v>4.4594929391361393E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.6400000000000006</c:v>
+                  <c:v>4.51454840752058E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.9100000000000108</c:v>
+                  <c:v>5.2577972307099874E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.8999999999999915</c:v>
+                  <c:v>1.3488589754177327E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.8599999999999994</c:v>
+                  <c:v>5.1201585597488997E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.6800000000000068</c:v>
+                  <c:v>4.6246593442894057E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.2800000000000011</c:v>
+                  <c:v>3.5235499766014255E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.3799999999999955</c:v>
+                  <c:v>1.7562694414622715E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.5900000000000034</c:v>
+                  <c:v>4.376909736559631E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.519999999999996</c:v>
+                  <c:v>4.1842155972141581E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.9000000000000057</c:v>
+                  <c:v>5.2302694965177809E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.7399999999999949</c:v>
+                  <c:v>1.3048146007102135E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.9899999999999949</c:v>
+                  <c:v>5.4780191042475002E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.5500000000000114</c:v>
+                  <c:v>4.2667987997908052E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.519999999999996</c:v>
+                  <c:v>4.1842155972142137E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.7399999999999949</c:v>
+                  <c:v>1.3048146007102135E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.2800000000000011</c:v>
+                  <c:v>3.5235499766014255E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.4399999999999977</c:v>
+                  <c:v>3.9639937236766176E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.1000000000000085</c:v>
+                  <c:v>5.7808241803617433E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.6099999999999994</c:v>
+                  <c:v>1.8195832301043269E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.75</c:v>
+                  <c:v>4.8173534836347676E-3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.6299999999999955</c:v>
+                  <c:v>4.4870206733283458E-3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.4799999999999898</c:v>
+                  <c:v>4.0741046604453879E-3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.5900000000000034</c:v>
+                  <c:v>1.2635229994219177E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.4000000000000057</c:v>
+                  <c:v>3.8538827869078474E-3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.5500000000000114</c:v>
+                  <c:v>4.2667987997908052E-3</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.0600000000000023</c:v>
+                  <c:v>5.6707132435929175E-3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.789999999999992</c:v>
+                  <c:v>1.3185784678063139E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.0999999999999943</c:v>
+                  <c:v>5.7808241803616878E-3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.3000000000000114</c:v>
+                  <c:v>3.5786054449858939E-3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.4399999999999977</c:v>
+                  <c:v>3.9639937236765621E-3</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6.5799999999999841</c:v>
+                  <c:v>1.8113249098466677E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.3200000000000216</c:v>
+                  <c:v>3.6336609133702513E-3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.5699999999999932</c:v>
+                  <c:v>4.3218542681752181E-3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.9300000000000068</c:v>
+                  <c:v>5.312852699094317E-3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4.8599999999999852</c:v>
+                  <c:v>1.3378478817408501E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.8100000000000023</c:v>
+                  <c:v>4.9825198887879507E-3</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.6899999999999977</c:v>
+                  <c:v>4.6521870784815844E-3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.3199999999999932</c:v>
+                  <c:v>3.6336609133701958E-3</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>4.7700000000000102</c:v>
+                  <c:v>1.3130729209678782E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.4799999999999898</c:v>
+                  <c:v>4.0741046604453324E-3</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.6100000000000136</c:v>
+                  <c:v>4.4319652049440439E-3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.8899999999999864</c:v>
+                  <c:v>5.2027417623254912E-3</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>6.3400000000000034</c:v>
+                  <c:v>1.7452583477853945E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.8600000000000136</c:v>
+                  <c:v>5.1201585597490107E-3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.5999999999999943</c:v>
+                  <c:v>4.4044374707518097E-3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.3599999999999852</c:v>
+                  <c:v>3.7437718501389661E-3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.7400000000000091</c:v>
+                  <c:v>1.3048146007102135E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.4799999999999898</c:v>
+                  <c:v>4.0741046604454434E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.4400000000000261</c:v>
+                  <c:v>3.9639937236766176E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.0999999999999943</c:v>
+                  <c:v>5.7808241803617433E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>4.8199999999999932</c:v>
+                  <c:v>1.3268367880639675E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.7700000000000102</c:v>
+                  <c:v>4.872408952019236E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.5600000000000023</c:v>
+                  <c:v>4.2943265339829839E-3</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.4399999999999977</c:v>
+                  <c:v>3.9639937236766176E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>6.5099999999999909</c:v>
+                  <c:v>1.792055495912126E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.3499999999999943</c:v>
+                  <c:v>3.7162441159468429E-3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.6100000000000136</c:v>
+                  <c:v>4.4319652049439329E-3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.8499999999999943</c:v>
+                  <c:v>5.0926308255567765E-3</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4.8400000000000034</c:v>
+                  <c:v>1.3323423349024144E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.9599999999999795</c:v>
+                  <c:v>5.3954359016709086E-3</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.6200000000000045</c:v>
+                  <c:v>4.4594929391361671E-3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.4399999999999977</c:v>
+                  <c:v>3.9639937236766176E-3</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.8100000000000023</c:v>
+                  <c:v>1.3240840146447552E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.4000000000000057</c:v>
+                  <c:v>3.8538827869077918E-3</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.4099999999999966</c:v>
+                  <c:v>3.881410521100026E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.0300000000000011</c:v>
+                  <c:v>5.5881300410163259E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.5999999999999943</c:v>
+                  <c:v>1.26627577284113E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.1399999999999864</c:v>
+                  <c:v>5.890935117130458E-3</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.5400000000000205</c:v>
+                  <c:v>4.2392710655987376E-3</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1.410000000000025</c:v>
+                  <c:v>3.881410521100026E-3</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>6.4300000000000068</c:v>
+                  <c:v>1.7700333085583719E-2</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1.42999999999995</c:v>
+                  <c:v>3.9364659894842724E-3</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.6299999999999955</c:v>
+                  <c:v>4.4870206733284013E-3</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1.8100000000000023</c:v>
+                  <c:v>4.9825198887879507E-3</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>4.7600000000000477</c:v>
+                  <c:v>1.3103201475486714E-2</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1.9599999999999795</c:v>
+                  <c:v>5.3954359016709086E-3</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1.6700000000000159</c:v>
+                  <c:v>4.597131610097116E-3</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.2999999999999545</c:v>
+                  <c:v>3.5786054449857829E-3</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>4.5900000000000318</c:v>
+                  <c:v>1.2635229994219177E-2</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1.6499999999999773</c:v>
+                  <c:v>4.5420761417127586E-3</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.4900000000000091</c:v>
+                  <c:v>4.1016323946376776E-3</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.9000000000000341</c:v>
+                  <c:v>5.2302694965178365E-3</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>6.4599999999999795</c:v>
+                  <c:v>1.77829162881602E-2</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1.7900000000000205</c:v>
+                  <c:v>4.9274644204035933E-3</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1.7599999999999909</c:v>
+                  <c:v>4.8448812178270018E-3</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1.4300000000000068</c:v>
+                  <c:v>3.9364659894843834E-3</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>4.7599999999999909</c:v>
+                  <c:v>1.3103201475486492E-2</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1.2099999999999795</c:v>
+                  <c:v>3.3308558372560082E-3</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1.6200000000000045</c:v>
+                  <c:v>4.4594929391361671E-3</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1.9300000000000068</c:v>
+                  <c:v>5.312852699094428E-3</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>4.7300000000000182</c:v>
+                  <c:v>1.3020618272910012E-2</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1.8999999999999773</c:v>
+                  <c:v>5.2302694965176144E-3</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1.8199999999999932</c:v>
+                  <c:v>5.0100476229801849E-3</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1.3199999999999932</c:v>
+                  <c:v>3.6336609133701403E-3</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>6.4000000000000341</c:v>
+                  <c:v>1.7617749883007239E-2</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1.3599999999999568</c:v>
+                  <c:v>3.7437718501389661E-3</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1.5400000000000205</c:v>
+                  <c:v>4.2392710655986265E-3</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2.0600000000000023</c:v>
+                  <c:v>5.6707132435929175E-3</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>4.8799999999999955</c:v>
+                  <c:v>1.343353428579297E-2</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1.660000000000025</c:v>
+                  <c:v>4.5696038759049928E-3</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1.6200000000000045</c:v>
+                  <c:v>4.4594929391361671E-3</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1.5</c:v>
+                  <c:v>4.1291601288298008E-3</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>4.7699999999999818</c:v>
+                  <c:v>1.3130729209678726E-2</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>1.4499999999999886</c:v>
+                  <c:v>3.9915214578687408E-3</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1.6100000000000136</c:v>
+                  <c:v>4.4319652049440439E-3</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>1.8700000000000045</c:v>
+                  <c:v>5.1476862939411339E-3</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>6.3600000000000136</c:v>
+                  <c:v>1.7507638946238413E-2</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>1.7799999999999727</c:v>
+                  <c:v>4.8999366862112481E-3</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>1.660000000000025</c:v>
+                  <c:v>4.5696038759051039E-3</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>1.3599999999999568</c:v>
+                  <c:v>3.7437718501388551E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20984,15 +20548,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>3176</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>72072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>63</xdr:col>
+      <xdr:col>62</xdr:col>
       <xdr:colOff>134303</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>194310</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -21020,15 +20584,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>648230</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>496093</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -21655,16 +21219,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1D7D9E80-8FAF-5141-8AC5-FB6F7F573140}" name="Table9" displayName="Table9" ref="A1:E1048576" totalsRowShown="0">
-  <autoFilter ref="A1:E1048576" xr:uid="{1D7D9E80-8FAF-5141-8AC5-FB6F7F573140}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{17F283F3-2425-3D49-95CE-7253C7FB77A8}" name="Index">
-      <calculatedColumnFormula>A1+1</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1D7D9E80-8FAF-5141-8AC5-FB6F7F573140}" name="Table9" displayName="Table9" ref="A1:D144" totalsRowShown="0">
+  <autoFilter ref="A1:D144" xr:uid="{1D7D9E80-8FAF-5141-8AC5-FB6F7F573140}"/>
+  <tableColumns count="4">
+    <tableColumn id="2" xr3:uid="{799F7FB1-EE95-C24B-ADED-2AB979F13372}" name="unnorm_x"/>
+    <tableColumn id="1" xr3:uid="{C2E477BD-1F78-3745-921B-6D8509540A13}" name="x" dataDxfId="47">
+      <calculatedColumnFormula>Table9[[#This Row],[unnorm_x]]/$A$144</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{799F7FB1-EE95-C24B-ADED-2AB979F13372}" name="x"/>
     <tableColumn id="3" xr3:uid="{E5892D18-A190-FE46-99A6-CE2205838599}" name="Colour"/>
-    <tableColumn id="4" xr3:uid="{77A891CA-18D9-7543-B53F-5B861CBBF1B6}" name="Fill"/>
-    <tableColumn id="5" xr3:uid="{0BEF3B22-D75A-DE42-9DBA-FCB0C1D2324D}" name="Width" dataDxfId="46">
+    <tableColumn id="5" xr3:uid="{0BEF3B22-D75A-DE42-9DBA-FCB0C1D2324D}" name="Width" dataDxfId="0">
       <calculatedColumnFormula>Table9[[#This Row],[x]]-B1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -21702,19 +21265,19 @@
     <tableColumn id="4" xr3:uid="{C1C8414F-B74C-9649-A1E0-5FFF7148BF09}" name="diff">
       <calculatedColumnFormula>C20-C19</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{14900C00-7693-AE41-B20A-3D15A262E9C6}" name="black x" dataDxfId="45">
+    <tableColumn id="5" xr3:uid="{14900C00-7693-AE41-B20A-3D15A262E9C6}" name="black x" dataDxfId="46">
       <calculatedColumnFormula>E8/$H$1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{65CE1D17-FACA-9F4C-B034-89DB0F2E7085}" name="white x" dataDxfId="44">
+    <tableColumn id="6" xr3:uid="{65CE1D17-FACA-9F4C-B034-89DB0F2E7085}" name="white x" dataDxfId="45">
       <calculatedColumnFormula>F8/$H$1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{67FD90AA-CA65-E845-A028-3A5EC1236255}" name="black diff" dataDxfId="43">
+    <tableColumn id="7" xr3:uid="{67FD90AA-CA65-E845-A028-3A5EC1236255}" name="black diff" dataDxfId="44">
       <calculatedColumnFormula>ABS(Table8[[#This Row],[black x]]-E19)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{E5C86B23-7B30-8346-9099-D87BE2E12F36}" name="white diff" dataDxfId="42">
+    <tableColumn id="8" xr3:uid="{E5C86B23-7B30-8346-9099-D87BE2E12F36}" name="white diff" dataDxfId="43">
       <calculatedColumnFormula>ABS(Table8[[#This Row],[white x]]-F19)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{02C24204-45A8-5B41-A8B9-C8395A95F06E}" name="diff diff" dataDxfId="41">
+    <tableColumn id="9" xr3:uid="{02C24204-45A8-5B41-A8B9-C8395A95F06E}" name="diff diff" dataDxfId="42">
       <calculatedColumnFormula>Table8[[#This Row],[white diff]]-Table8[[#This Row],[black diff]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -21728,10 +21291,10 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0AE83E98-B580-4DD8-8F27-E8E2E03D1C01}" name="Index"/>
     <tableColumn id="2" xr3:uid="{F9D49BEA-B225-47C2-BECB-F61B19BF4F06}" name="x coord"/>
-    <tableColumn id="4" xr3:uid="{32EC3548-475C-4C3E-83E6-D07D5C5D4800}" name="N_index" dataDxfId="40">
+    <tableColumn id="4" xr3:uid="{32EC3548-475C-4C3E-83E6-D07D5C5D4800}" name="N_index" dataDxfId="41">
       <calculatedColumnFormula>Table5[[#This Row],[Index]]/$A$29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{11E47D72-2A9F-47C4-B9EC-A1EFEB97700F}" name="N_x_coord" dataDxfId="39">
+    <tableColumn id="5" xr3:uid="{11E47D72-2A9F-47C4-B9EC-A1EFEB97700F}" name="N_x_coord" dataDxfId="40">
       <calculatedColumnFormula>Table5[[#This Row],[x coord]]/$N$1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -21740,18 +21303,18 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{FC587121-58E8-4093-A7EB-DAB7062D1EB3}" name="Table6" displayName="Table6" ref="F1:J43" totalsRowShown="0" tableBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{FC587121-58E8-4093-A7EB-DAB7062D1EB3}" name="Table6" displayName="Table6" ref="F1:J43" totalsRowShown="0" tableBorderDxfId="39">
   <autoFilter ref="F1:J43" xr:uid="{FC587121-58E8-4093-A7EB-DAB7062D1EB3}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7F5E0AB4-362A-464B-8581-323DD4AC0F33}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{B65CDFF2-48E0-4B4C-BE8B-126D6E4DA403}" name="y coord" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{E11A1173-A980-4EEE-BD80-93A840341053}" name="N_index" dataDxfId="36">
+    <tableColumn id="2" xr3:uid="{B65CDFF2-48E0-4B4C-BE8B-126D6E4DA403}" name="y coord" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{E11A1173-A980-4EEE-BD80-93A840341053}" name="N_index" dataDxfId="37">
       <calculatedColumnFormula>Table6[[#This Row],[Index]]/$F$43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{34AD6BFB-8AC2-4601-8024-3404372E73AF}" name="N_y_coord" dataDxfId="35">
+    <tableColumn id="5" xr3:uid="{34AD6BFB-8AC2-4601-8024-3404372E73AF}" name="N_y_coord" dataDxfId="36">
       <calculatedColumnFormula>Table6[[#This Row],[y coord]]/$N$2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E906CC99-232D-6F4C-8B66-7A8A9EDF710F}" name="Diff" dataDxfId="34">
+    <tableColumn id="4" xr3:uid="{E906CC99-232D-6F4C-8B66-7A8A9EDF710F}" name="Diff" dataDxfId="35">
       <calculatedColumnFormula>Table6[[#This Row],[N_y_coord]]-I1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -21780,25 +21343,25 @@
     <tableColumn id="7" xr3:uid="{E26E6331-D34F-3145-8E97-0A648A1F2B8F}" name="Normalised cy">
       <calculatedColumnFormula>(D2-$B$17)/$B$15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{DFED5905-F988-8F4C-B699-BDDBC0FA0152}" name="Normalised r" dataDxfId="33">
+    <tableColumn id="8" xr3:uid="{DFED5905-F988-8F4C-B699-BDDBC0FA0152}" name="Normalised r" dataDxfId="34">
       <calculatedColumnFormula>Table4[[#This Row],[r]]/$B$14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{21842F81-7318-4F2F-A987-99DB911BB622}" name="Normalised point x" dataDxfId="32">
+    <tableColumn id="11" xr3:uid="{21842F81-7318-4F2F-A987-99DB911BB622}" name="Normalised point x" dataDxfId="33">
       <calculatedColumnFormula>(F2-$B$16)/$B$14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{2F0C8D18-AC21-4BFA-8634-0EF83E1B31C4}" name="Normalised point y" dataDxfId="31">
+    <tableColumn id="12" xr3:uid="{2F0C8D18-AC21-4BFA-8634-0EF83E1B31C4}" name="Normalised point y" dataDxfId="32">
       <calculatedColumnFormula>(G2-$B$17)/$B$15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{CF3DAEC9-B770-E04B-9BA2-DF1956F330F2}" name="Vector x" dataDxfId="30">
+    <tableColumn id="13" xr3:uid="{CF3DAEC9-B770-E04B-9BA2-DF1956F330F2}" name="Vector x" dataDxfId="31">
       <calculatedColumnFormula>Table4[[#This Row],[Point x]]-Table4[[#This Row],[cx]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{B437D90B-3874-5B40-B826-B04344334107}" name="Vector y" dataDxfId="29">
+    <tableColumn id="14" xr3:uid="{B437D90B-3874-5B40-B826-B04344334107}" name="Vector y" dataDxfId="30">
       <calculatedColumnFormula>Table4[[#This Row],[Point y]]-Table4[[#This Row],[cy]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{4BAAE237-808A-EC40-BC29-D90C3BB6DB7E}" name="Angle" dataDxfId="28">
+    <tableColumn id="15" xr3:uid="{4BAAE237-808A-EC40-BC29-D90C3BB6DB7E}" name="Angle" dataDxfId="29">
       <calculatedColumnFormula>ATAN2(Table4[[#This Row],[Vector x]], Table4[[#This Row],[Vector y]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{6F748C24-4614-F74E-B4AF-493832427E92}" name="Diff" dataDxfId="27">
+    <tableColumn id="16" xr3:uid="{6F748C24-4614-F74E-B4AF-493832427E92}" name="Diff" dataDxfId="28">
       <calculatedColumnFormula>Table4[[#This Row],[Angle]]-O1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -21811,40 +21374,40 @@
   <autoFilter ref="A1:O31" xr:uid="{040F2602-18DC-4828-BDBB-3983CF959EF0}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{44957AC2-150E-4D54-8DFF-47C6DE4837E1}" name="Index"/>
-    <tableColumn id="11" xr3:uid="{D37A6657-5F7A-44CF-BB14-0492B6727EED}" name="Normalised index" dataDxfId="26">
+    <tableColumn id="11" xr3:uid="{D37A6657-5F7A-44CF-BB14-0492B6727EED}" name="Normalised index" dataDxfId="27">
       <calculatedColumnFormula>Table2[[#This Row],[Index]]/29</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{981E9B40-AB01-4170-9457-2F8450494A45}" name="Peak x"/>
-    <tableColumn id="12" xr3:uid="{D234EE7A-C91F-4307-A7C9-B59ED7E9FD14}" name="Normalised peak x" dataDxfId="25">
+    <tableColumn id="12" xr3:uid="{D234EE7A-C91F-4307-A7C9-B59ED7E9FD14}" name="Normalised peak x" dataDxfId="26">
       <calculatedColumnFormula>Table2[[#This Row],[Peak x]]/215.9</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{EBED7C4B-D300-4A26-BB9A-9EF58228FD03}" name="Peak y"/>
-    <tableColumn id="7" xr3:uid="{3615D777-450C-438B-AC7A-5D219E4472EF}" name="Phase diff" dataDxfId="24">
+    <tableColumn id="7" xr3:uid="{3615D777-450C-438B-AC7A-5D219E4472EF}" name="Phase diff" dataDxfId="25">
       <calculatedColumnFormula>((Table2[[#This Row],[Peak y]]-$E$2)/(Table2[[#Totals],[Normalised Time period]]*215.9))*2*PI()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F55E4E03-14FC-45F0-B207-C142C9DA0C80}" name="Normalised phase diff" dataDxfId="23">
+    <tableColumn id="8" xr3:uid="{F55E4E03-14FC-45F0-B207-C142C9DA0C80}" name="Normalised phase diff" dataDxfId="24">
       <calculatedColumnFormula>MOD(Table2[[#This Row],[Phase diff]] + PI(), 2*PI())-PI()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A4692EB8-CC59-443E-9174-A83F5E14B7C5}" name="Trough x" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{FB6AB5F6-49C5-4F20-8435-137A1BE63134}" name="Normalised trough x" dataDxfId="21">
+    <tableColumn id="5" xr3:uid="{A4692EB8-CC59-443E-9174-A83F5E14B7C5}" name="Trough x" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{FB6AB5F6-49C5-4F20-8435-137A1BE63134}" name="Normalised trough x" dataDxfId="22">
       <calculatedColumnFormula>Table2[[#This Row],[Trough x]]/215.9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1069BC11-54D8-6E48-B963-16162F3E9205}" name="Amplitude" totalsRowFunction="custom" dataDxfId="20">
+    <tableColumn id="4" xr3:uid="{1069BC11-54D8-6E48-B963-16162F3E9205}" name="Amplitude" totalsRowFunction="custom" dataDxfId="21">
       <calculatedColumnFormula>(Table2[[#This Row],[Normalised peak x]]-Table2[[#This Row],[Normalised trough x]])/2</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(Table2[Amplitude])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{EDA54898-A45C-4046-A157-AF456FF9FD7F}" name="Second peak y" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{2076063F-7B8F-404B-BA8D-29040976D0DA}" name="Normalised Time period" totalsRowFunction="custom" dataDxfId="18">
+    <tableColumn id="9" xr3:uid="{EDA54898-A45C-4046-A157-AF456FF9FD7F}" name="Second peak y" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{2076063F-7B8F-404B-BA8D-29040976D0DA}" name="Normalised Time period" totalsRowFunction="custom" dataDxfId="19">
       <calculatedColumnFormula>ABS(Table2[[#This Row],[Second peak y]]-Table2[[#This Row],[Peak y]])/215.9</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(Table2[Normalised Time period])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{821CB24A-F0FE-FC40-88CF-9EDE12C531AB}" name="Column1" dataDxfId="17">
+    <tableColumn id="22" xr3:uid="{821CB24A-F0FE-FC40-88CF-9EDE12C531AB}" name="Column1" dataDxfId="18">
       <calculatedColumnFormula>2*PI()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{7A41A7E4-CDF7-C742-AE54-75B692938063}" name="Phase diffs shifted" dataDxfId="16">
+    <tableColumn id="20" xr3:uid="{7A41A7E4-CDF7-C742-AE54-75B692938063}" name="Phase diffs shifted" dataDxfId="17">
       <calculatedColumnFormula>Table2[[#This Row],[Normalised phase diff]]+Table2[[#This Row],[Column1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{A62CB5B6-6E76-CC44-9A30-22297DD974B8}" name="Estimate" dataDxfId="15">
+    <tableColumn id="23" xr3:uid="{A62CB5B6-6E76-CC44-9A30-22297DD974B8}" name="Estimate" dataDxfId="16">
       <calculatedColumnFormula>$W$14-ABS($W$15*Table2[[#This Row],[Normalised index]] - $W$14)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -21858,50 +21421,50 @@
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{6554079B-A375-4D4F-9D66-7BB129CC3170}" name="UB"/>
     <tableColumn id="2" xr3:uid="{28C91AC0-2938-AE42-94E8-D67032B41CF6}" name="LB"/>
-    <tableColumn id="10" xr3:uid="{B791D2C5-4765-4441-8A12-D5D64BB1C0B3}" name="Normalised UB" dataDxfId="14">
+    <tableColumn id="10" xr3:uid="{B791D2C5-4765-4441-8A12-D5D64BB1C0B3}" name="Normalised UB" dataDxfId="15">
       <calculatedColumnFormula>Table24[[#This Row],[UB]]/197</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{94CD11FC-3723-3546-B210-35B1B4BF2C09}" name="Normalised LB" dataDxfId="13">
+    <tableColumn id="11" xr3:uid="{94CD11FC-3723-3546-B210-35B1B4BF2C09}" name="Normalised LB" dataDxfId="14">
       <calculatedColumnFormula>Table24[[#This Row],[LB]]/197</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D58D9134-60FB-5745-8EC6-1A1070215B1D}" name="Height" dataDxfId="12">
+    <tableColumn id="3" xr3:uid="{D58D9134-60FB-5745-8EC6-1A1070215B1D}" name="Height" dataDxfId="13">
       <calculatedColumnFormula>ABS(D2-C2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2F98C45A-E818-7440-9EAF-A97EC07ABC50}" name="ry" dataDxfId="11">
+    <tableColumn id="4" xr3:uid="{2F98C45A-E818-7440-9EAF-A97EC07ABC50}" name="ry" dataDxfId="12">
       <calculatedColumnFormula>Table24[[#This Row],[Height]]/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{044AA7A7-C606-8B48-9808-A9AA3ED11334}" name="ry_est" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{044AA7A7-C606-8B48-9808-A9AA3ED11334}" name="ry_est" dataDxfId="11">
       <calculatedColumnFormula>MIN($Q$2*ABS((Table24[[#This Row],[Normalised Index]]+$S$5))+$Q$5, $T$1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{C6EF6CFA-8152-BB40-BA90-80141A88792F}" name="Normalised Index" dataDxfId="9">
+    <tableColumn id="12" xr3:uid="{C6EF6CFA-8152-BB40-BA90-80141A88792F}" name="Normalised Index" dataDxfId="10">
       <calculatedColumnFormula>Table24[[#This Row],[index]]/36</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{D0C4002B-E25C-974F-99AC-8E6D390FA996}" name="index"/>
-    <tableColumn id="7" xr3:uid="{49F16935-6843-B14A-9A06-1612AD4AEF88}" name="gap" dataDxfId="8">
+    <tableColumn id="7" xr3:uid="{49F16935-6843-B14A-9A06-1612AD4AEF88}" name="gap" dataDxfId="9">
       <calculatedColumnFormula>ABS(A3-Table24[[#This Row],[LB]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{771981F4-9B94-204A-BE09-F313AE83ABCD}" name="est_ub" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{771981F4-9B94-204A-BE09-F313AE83ABCD}" name="est_ub" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8D37312-8839-0941-86C0-D9CE4CAF9E9F}" name="Table1" displayName="Table1" ref="A1:F33" totalsRowShown="0" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8D37312-8839-0941-86C0-D9CE4CAF9E9F}" name="Table1" displayName="Table1" ref="A1:F33" totalsRowShown="0" dataDxfId="7">
   <autoFilter ref="A1:F33" xr:uid="{C8D37312-8839-0941-86C0-D9CE4CAF9E9F}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B87A1C0B-7882-3E49-8D76-EC95789CACBF}" name="Square boundaries" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{BA36DE9F-39FC-8946-9F32-B2D7A653793A}" name="NormBounds" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{B87A1C0B-7882-3E49-8D76-EC95789CACBF}" name="Square boundaries" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{BA36DE9F-39FC-8946-9F32-B2D7A653793A}" name="NormBounds" dataDxfId="5">
       <calculatedColumnFormula>Table1[[#This Row],[Square boundaries]]/123</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F565D984-41B2-8542-8055-12DC8BBD0804}" name="Width" dataDxfId="3">
+    <tableColumn id="2" xr3:uid="{F565D984-41B2-8542-8055-12DC8BBD0804}" name="Width" dataDxfId="4">
       <calculatedColumnFormula>Table1[[#This Row],[NormBounds]]-A1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2ACC5A59-A55B-CB46-8F44-47411D1B0DD5}" name="Matthew" dataDxfId="2">
+    <tableColumn id="3" xr3:uid="{2ACC5A59-A55B-CB46-8F44-47411D1B0DD5}" name="Matthew" dataDxfId="3">
       <calculatedColumnFormula>(3.2206*POWER(Table1[[#This Row],[NormIndex]], 3) - 5.4091*POWER(Table1[[#This Row],[NormIndex]], 2) + 3.1979*Table1[[#This Row],[NormIndex]])/1.0094</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7C336364-6A4B-DE42-A11E-2B65FA70EB7A}" name="Index" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{ACD77800-9688-064B-A25F-49E175F39DAE}" name="NormIndex" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{7C336364-6A4B-DE42-A11E-2B65FA70EB7A}" name="Index" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{ACD77800-9688-064B-A25F-49E175F39DAE}" name="NormIndex" dataDxfId="1">
       <calculatedColumnFormula>Table1[[#This Row],[Index]]/31</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -22226,10 +21789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBD11D3-C52D-2E44-9DCD-36B6FFFDB589}">
-  <dimension ref="A1:E145"/>
+  <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="86" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H149" sqref="H149"/>
+    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22238,9 +21801,9 @@
     <col min="3" max="3" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
         <v>87</v>
@@ -22249,2310 +21812,2294 @@
         <v>95</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.76</v>
+      </c>
+      <c r="B2">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>2.0921077986070969E-3</v>
+      </c>
+      <c r="C2" t="s">
         <v>88</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="e">
-        <f>Table9[[#This Row],[x]]-B1</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>2.0920000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <f>A2+1</f>
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="B3">
-        <v>0.76</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>5.7808241803617147E-3</v>
       </c>
       <c r="C3" t="s">
         <v>89</v>
       </c>
-      <c r="E3">
+      <c r="D3">
         <f>Table9[[#This Row],[x]]-B2</f>
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.6887163817546178E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <f>A3+1</f>
-        <v>2</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="B4">
-        <v>2.1</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>1.1176260082032647E-2</v>
       </c>
       <c r="C4" t="s">
         <v>90</v>
       </c>
-      <c r="E4">
+      <c r="D4">
         <f>Table9[[#This Row],[x]]-B3</f>
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5.395435901670932E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <f t="shared" ref="A5:A68" si="0">A4+1</f>
-        <v>3</v>
+        <v>10.73</v>
       </c>
       <c r="B5">
-        <v>4.0599999999999996</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>2.9537258788229142E-2</v>
       </c>
       <c r="C5" t="s">
         <v>91</v>
       </c>
-      <c r="E5">
+      <c r="D5">
         <f>Table9[[#This Row],[x]]-B4</f>
-        <v>1.9599999999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.8360998706196494E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>12.68</v>
       </c>
       <c r="B6">
-        <v>10.73</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>3.4905166955707875E-2</v>
       </c>
       <c r="C6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6">
+        <f>Table9[[#This Row],[x]]-B5</f>
+        <v>5.3679081674787334E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>14.15</v>
+      </c>
+      <c r="B7">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>3.8951743881961078E-2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7">
+        <f>Table9[[#This Row],[x]]-B6</f>
+        <v>4.0465769262532023E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>15.66</v>
+      </c>
+      <c r="B8">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>4.3108431744983071E-2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8">
+        <f>Table9[[#This Row],[x]]-B7</f>
+        <v>4.1566878630219933E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>20.38</v>
+      </c>
+      <c r="B9">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>5.6101522283700828E-2</v>
+      </c>
+      <c r="C9" t="s">
         <v>92</v>
       </c>
-      <c r="E6">
-        <f>Table9[[#This Row],[x]]-B5</f>
-        <v>6.6700000000000008</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>12.68</v>
-      </c>
-      <c r="C7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7">
-        <f>Table9[[#This Row],[x]]-B6</f>
-        <v>1.9499999999999993</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>14.15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8">
-        <f>Table9[[#This Row],[x]]-B7</f>
-        <v>1.4700000000000006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>15.66</v>
-      </c>
-      <c r="C9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9">
+      <c r="D9">
         <f>Table9[[#This Row],[x]]-B8</f>
-        <v>1.5099999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.2993090538717757E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>21.79</v>
       </c>
       <c r="B10">
-        <v>20.38</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>5.998293280480084E-2</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10">
+        <v>88</v>
+      </c>
+      <c r="D10">
         <f>Table9[[#This Row],[x]]-B9</f>
-        <v>4.7199999999999989</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.8814105211000122E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <v>23.14</v>
       </c>
       <c r="B11">
-        <v>21.79</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>6.3699176920747655E-2</v>
       </c>
       <c r="C11" t="s">
         <v>89</v>
       </c>
-      <c r="E11">
+      <c r="D11">
         <f>Table9[[#This Row],[x]]-B10</f>
-        <v>1.4100000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.7162441159468151E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <v>25.2</v>
       </c>
       <c r="B12">
-        <v>23.14</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>6.9369890164340572E-2</v>
       </c>
       <c r="C12" t="s">
         <v>90</v>
       </c>
-      <c r="E12">
+      <c r="D12">
         <f>Table9[[#This Row],[x]]-B11</f>
-        <v>1.3500000000000014</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5.6707132435929175E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <v>30.13</v>
       </c>
       <c r="B13">
-        <v>25.2</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>8.2941063121094505E-2</v>
       </c>
       <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13">
+        <f>Table9[[#This Row],[x]]-B12</f>
+        <v>1.3571172956753932E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>32.090000000000003</v>
+      </c>
+      <c r="B14">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>8.8336499022765455E-2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14">
+        <f>Table9[[#This Row],[x]]-B13</f>
+        <v>5.3954359016709502E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>33.71</v>
+      </c>
+      <c r="B15">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>9.2795991961901622E-2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15">
+        <f>Table9[[#This Row],[x]]-B14</f>
+        <v>4.4594929391361671E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>35.01</v>
+      </c>
+      <c r="B16">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>9.6374597406887433E-2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16">
+        <f>Table9[[#This Row],[x]]-B15</f>
+        <v>3.5786054449858107E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>41.24</v>
+      </c>
+      <c r="B17">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.1135243758086272</v>
+      </c>
+      <c r="C17" t="s">
         <v>91</v>
       </c>
-      <c r="E13">
-        <f>Table9[[#This Row],[x]]-B12</f>
-        <v>2.0599999999999987</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>30.13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14">
-        <f>Table9[[#This Row],[x]]-B13</f>
-        <v>4.93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>32.090000000000003</v>
-      </c>
-      <c r="C15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15">
-        <f>Table9[[#This Row],[x]]-B14</f>
-        <v>1.9600000000000044</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>33.71</v>
-      </c>
-      <c r="C16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16">
-        <f>Table9[[#This Row],[x]]-B15</f>
-        <v>1.6199999999999974</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>35.01</v>
-      </c>
-      <c r="C17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17">
+      <c r="D17">
         <f>Table9[[#This Row],[x]]-B16</f>
-        <v>1.2999999999999972</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.7149778401739771E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <v>42.87</v>
       </c>
       <c r="B18">
-        <v>41.24</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.11801139648195556</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18">
+        <v>88</v>
+      </c>
+      <c r="D18">
         <f>Table9[[#This Row],[x]]-B17</f>
-        <v>6.230000000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.4870206733283596E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <v>44.39</v>
       </c>
       <c r="B19">
-        <v>42.87</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.12219561207916978</v>
       </c>
       <c r="C19" t="s">
         <v>89</v>
       </c>
-      <c r="E19">
+      <c r="D19">
         <f>Table9[[#This Row],[x]]-B18</f>
-        <v>1.6299999999999955</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.1842155972142137E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <v>46.45</v>
       </c>
       <c r="B20">
-        <v>44.39</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.12786632532276271</v>
       </c>
       <c r="C20" t="s">
         <v>90</v>
       </c>
-      <c r="E20">
+      <c r="D20">
         <f>Table9[[#This Row],[x]]-B19</f>
-        <v>1.5200000000000031</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5.6707132435929314E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B21">
-        <v>46.45</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.14039144438021306</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21">
+        <v>92</v>
+      </c>
+      <c r="D21">
         <f>Table9[[#This Row],[x]]-B20</f>
-        <v>2.0600000000000023</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.2525119057450351E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <v>53.22</v>
       </c>
       <c r="B22">
-        <v>51</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.14650260137088117</v>
       </c>
       <c r="C22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22">
+        <f>Table9[[#This Row],[x]]-B21</f>
+        <v>6.1111569906681096E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>54.79</v>
+      </c>
+      <c r="B23">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.15082445563905636</v>
+      </c>
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23">
+        <f>Table9[[#This Row],[x]]-B22</f>
+        <v>4.3218542681751904E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>56.15</v>
+      </c>
+      <c r="B24">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.15456822748919538</v>
+      </c>
+      <c r="C24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24">
+        <f>Table9[[#This Row],[x]]-B23</f>
+        <v>3.7437718501390216E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>60.7</v>
+      </c>
+      <c r="B25">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.16709334654664576</v>
+      </c>
+      <c r="C25" t="s">
         <v>93</v>
       </c>
-      <c r="E22">
-        <f>Table9[[#This Row],[x]]-B21</f>
-        <v>4.5499999999999972</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>53.22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23">
-        <f>Table9[[#This Row],[x]]-B22</f>
-        <v>2.2199999999999989</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>54.79</v>
-      </c>
-      <c r="C24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24">
-        <f>Table9[[#This Row],[x]]-B23</f>
-        <v>1.5700000000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>56.15</v>
-      </c>
-      <c r="C25" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25">
+      <c r="D25">
         <f>Table9[[#This Row],[x]]-B24</f>
-        <v>1.3599999999999994</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.2525119057450379E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <v>62.33</v>
       </c>
       <c r="B26">
-        <v>60.7</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.17158036721997413</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26">
+        <v>88</v>
+      </c>
+      <c r="D26">
         <f>Table9[[#This Row],[x]]-B25</f>
-        <v>4.5500000000000043</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.4870206733283735E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>63.9</v>
       </c>
       <c r="B27">
-        <v>62.33</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.17590222148814932</v>
       </c>
       <c r="C27" t="s">
         <v>89</v>
       </c>
-      <c r="E27">
+      <c r="D27">
         <f>Table9[[#This Row],[x]]-B26</f>
-        <v>1.6299999999999955</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.3218542681751904E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <v>65.900000000000006</v>
       </c>
       <c r="B28">
-        <v>63.9</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.18140776832658906</v>
       </c>
       <c r="C28" t="s">
         <v>90</v>
       </c>
-      <c r="E28">
+      <c r="D28">
         <f>Table9[[#This Row],[x]]-B27</f>
-        <v>1.5700000000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5.5055468384397344E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <v>72.14</v>
       </c>
       <c r="B29">
-        <v>65.900000000000006</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.19858507446252099</v>
       </c>
       <c r="C29" t="s">
         <v>91</v>
       </c>
-      <c r="E29">
+      <c r="D29">
         <f>Table9[[#This Row],[x]]-B28</f>
-        <v>2.0000000000000071</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.7177306135931936E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <v>73.930000000000007</v>
       </c>
       <c r="B30">
-        <v>72.14</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.20351253888292459</v>
       </c>
       <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30">
+        <f>Table9[[#This Row],[x]]-B29</f>
+        <v>4.9274644204035933E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>75.61</v>
+      </c>
+      <c r="B31">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.20813719822721394</v>
+      </c>
+      <c r="C31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31">
+        <f>Table9[[#This Row],[x]]-B30</f>
+        <v>4.6246593442893502E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>77.12</v>
+      </c>
+      <c r="B32">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.21229388609023594</v>
+      </c>
+      <c r="C32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32">
+        <f>Table9[[#This Row],[x]]-B31</f>
+        <v>4.1566878630220072E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>81.84</v>
+      </c>
+      <c r="B33">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.22528697662895369</v>
+      </c>
+      <c r="C33" t="s">
         <v>92</v>
       </c>
-      <c r="E30">
-        <f>Table9[[#This Row],[x]]-B29</f>
-        <v>6.2399999999999949</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>73.930000000000007</v>
-      </c>
-      <c r="C31" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31">
-        <f>Table9[[#This Row],[x]]-B30</f>
-        <v>1.7900000000000063</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>75.61</v>
-      </c>
-      <c r="C32" t="s">
-        <v>90</v>
-      </c>
-      <c r="E32">
-        <f>Table9[[#This Row],[x]]-B31</f>
-        <v>1.6799999999999926</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>77.12</v>
-      </c>
-      <c r="C33" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33">
+      <c r="D33">
         <f>Table9[[#This Row],[x]]-B32</f>
-        <v>1.5100000000000051</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.299309053871775E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <v>83.46</v>
       </c>
       <c r="B34">
-        <v>81.84</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.22974646956808983</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34">
+        <v>88</v>
+      </c>
+      <c r="D34">
         <f>Table9[[#This Row],[x]]-B33</f>
-        <v>4.7199999999999989</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.4594929391361393E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <v>85.1</v>
       </c>
       <c r="B35">
-        <v>83.46</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.23426101797561041</v>
       </c>
       <c r="C35" t="s">
         <v>89</v>
       </c>
-      <c r="E35">
+      <c r="D35">
         <f>Table9[[#This Row],[x]]-B34</f>
-        <v>1.6199999999999903</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.51454840752058E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f t="shared" si="0"/>
-        <v>34</v>
+        <v>87.01</v>
       </c>
       <c r="B36">
-        <v>85.1</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.2395188152063204</v>
       </c>
       <c r="C36" t="s">
         <v>90</v>
       </c>
-      <c r="E36">
+      <c r="D36">
         <f>Table9[[#This Row],[x]]-B35</f>
-        <v>1.6400000000000006</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5.2577972307099874E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <v>91.91</v>
       </c>
       <c r="B37">
-        <v>87.01</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.25300740496049773</v>
       </c>
       <c r="C37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37">
+        <f>Table9[[#This Row],[x]]-B36</f>
+        <v>1.3488589754177327E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>93.77</v>
+      </c>
+      <c r="B38">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.25812756352024663</v>
+      </c>
+      <c r="C38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38">
+        <f>Table9[[#This Row],[x]]-B37</f>
+        <v>5.1201585597488997E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>95.45</v>
+      </c>
+      <c r="B39">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.26275222286453603</v>
+      </c>
+      <c r="C39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39">
+        <f>Table9[[#This Row],[x]]-B38</f>
+        <v>4.6246593442894057E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>96.73</v>
+      </c>
+      <c r="B40">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.26627577284113746</v>
+      </c>
+      <c r="C40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40">
+        <f>Table9[[#This Row],[x]]-B39</f>
+        <v>3.5235499766014255E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>103.11</v>
+      </c>
+      <c r="B41">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.28383846725576017</v>
+      </c>
+      <c r="C41" t="s">
         <v>91</v>
       </c>
-      <c r="E37">
-        <f>Table9[[#This Row],[x]]-B36</f>
-        <v>1.9100000000000108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>91.91</v>
-      </c>
-      <c r="C38" t="s">
-        <v>94</v>
-      </c>
-      <c r="E38">
-        <f>Table9[[#This Row],[x]]-B37</f>
-        <v>4.8999999999999915</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>93.77</v>
-      </c>
-      <c r="C39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E39">
-        <f>Table9[[#This Row],[x]]-B38</f>
-        <v>1.8599999999999994</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>95.45</v>
-      </c>
-      <c r="C40" t="s">
-        <v>90</v>
-      </c>
-      <c r="E40">
-        <f>Table9[[#This Row],[x]]-B39</f>
-        <v>1.6800000000000068</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>96.73</v>
-      </c>
-      <c r="C41" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41">
+      <c r="D41">
         <f>Table9[[#This Row],[x]]-B40</f>
-        <v>1.2800000000000011</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.7562694414622715E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <v>104.7</v>
       </c>
       <c r="B42">
-        <v>103.11</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.28821537699231981</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
-      </c>
-      <c r="E42">
+        <v>88</v>
+      </c>
+      <c r="D42">
         <f>Table9[[#This Row],[x]]-B41</f>
-        <v>6.3799999999999955</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.376909736559631E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
-        <f t="shared" si="0"/>
-        <v>41</v>
+        <v>106.22</v>
       </c>
       <c r="B43">
-        <v>104.7</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.29239959258953396</v>
       </c>
       <c r="C43" t="s">
         <v>89</v>
       </c>
-      <c r="E43">
+      <c r="D43">
         <f>Table9[[#This Row],[x]]-B42</f>
-        <v>1.5900000000000034</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.1842155972141581E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
-        <f t="shared" si="0"/>
-        <v>42</v>
+        <v>108.12</v>
       </c>
       <c r="B44">
-        <v>106.22</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.29762986208605174</v>
       </c>
       <c r="C44" t="s">
         <v>90</v>
       </c>
-      <c r="E44">
+      <c r="D44">
         <f>Table9[[#This Row],[x]]-B43</f>
-        <v>1.519999999999996</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5.2302694965177809E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <v>112.86</v>
       </c>
       <c r="B45">
-        <v>108.12</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.31067800809315388</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
-      </c>
-      <c r="E45">
+        <v>92</v>
+      </c>
+      <c r="D45">
         <f>Table9[[#This Row],[x]]-B44</f>
-        <v>1.9000000000000057</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.3048146007102135E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <v>114.85</v>
       </c>
       <c r="B46">
-        <v>112.86</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.31615602719740138</v>
       </c>
       <c r="C46" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46">
+        <f>Table9[[#This Row],[x]]-B45</f>
+        <v>5.4780191042475002E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>116.4</v>
+      </c>
+      <c r="B47">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.32042282599719218</v>
+      </c>
+      <c r="C47" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47">
+        <f>Table9[[#This Row],[x]]-B46</f>
+        <v>4.2667987997908052E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>117.92</v>
+      </c>
+      <c r="B48">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.3246070415944064</v>
+      </c>
+      <c r="C48" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48">
+        <f>Table9[[#This Row],[x]]-B47</f>
+        <v>4.1842155972142137E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>122.66</v>
+      </c>
+      <c r="B49">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.33765518760150853</v>
+      </c>
+      <c r="C49" t="s">
         <v>93</v>
       </c>
-      <c r="E46">
-        <f>Table9[[#This Row],[x]]-B45</f>
-        <v>4.7399999999999949</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>114.85</v>
-      </c>
-      <c r="C47" t="s">
-        <v>91</v>
-      </c>
-      <c r="E47">
-        <f>Table9[[#This Row],[x]]-B46</f>
-        <v>1.9899999999999949</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>116.4</v>
-      </c>
-      <c r="C48" t="s">
-        <v>90</v>
-      </c>
-      <c r="E48">
-        <f>Table9[[#This Row],[x]]-B47</f>
-        <v>1.5500000000000114</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>117.92</v>
-      </c>
-      <c r="C49" t="s">
-        <v>89</v>
-      </c>
-      <c r="E49">
+      <c r="D49">
         <f>Table9[[#This Row],[x]]-B48</f>
-        <v>1.519999999999996</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.3048146007102135E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
-        <f t="shared" si="0"/>
-        <v>48</v>
+        <v>123.94</v>
       </c>
       <c r="B50">
-        <v>122.66</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.34117873757810996</v>
       </c>
       <c r="C50" t="s">
-        <v>94</v>
-      </c>
-      <c r="E50">
+        <v>88</v>
+      </c>
+      <c r="D50">
         <f>Table9[[#This Row],[x]]-B49</f>
-        <v>4.7399999999999949</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.5235499766014255E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
-        <f t="shared" si="0"/>
-        <v>49</v>
+        <v>125.38</v>
       </c>
       <c r="B51">
-        <v>123.94</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.34514273130178658</v>
       </c>
       <c r="C51" t="s">
         <v>89</v>
       </c>
-      <c r="E51">
+      <c r="D51">
         <f>Table9[[#This Row],[x]]-B50</f>
-        <v>1.2800000000000011</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.9639937236766176E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <v>127.48</v>
       </c>
       <c r="B52">
-        <v>125.38</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.35092355548214832</v>
       </c>
       <c r="C52" t="s">
         <v>90</v>
       </c>
-      <c r="E52">
+      <c r="D52">
         <f>Table9[[#This Row],[x]]-B51</f>
-        <v>1.4399999999999977</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5.7808241803617433E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
-        <f t="shared" si="0"/>
-        <v>51</v>
+        <v>134.09</v>
       </c>
       <c r="B53">
-        <v>127.48</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.36911938778319159</v>
       </c>
       <c r="C53" t="s">
         <v>91</v>
       </c>
-      <c r="E53">
+      <c r="D53">
         <f>Table9[[#This Row],[x]]-B52</f>
-        <v>2.1000000000000085</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.8195832301043269E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
-        <f t="shared" si="0"/>
-        <v>52</v>
+        <v>135.84</v>
       </c>
       <c r="B54">
-        <v>134.09</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.37393674126682636</v>
       </c>
       <c r="C54" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54">
+        <f>Table9[[#This Row],[x]]-B53</f>
+        <v>4.8173534836347676E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>137.47</v>
+      </c>
+      <c r="B55">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.3784237619401547</v>
+      </c>
+      <c r="C55" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55">
+        <f>Table9[[#This Row],[x]]-B54</f>
+        <v>4.4870206733283458E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>138.94999999999999</v>
+      </c>
+      <c r="B56">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.38249786660060009</v>
+      </c>
+      <c r="C56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D56">
+        <f>Table9[[#This Row],[x]]-B55</f>
+        <v>4.0741046604453879E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>143.54</v>
+      </c>
+      <c r="B57">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.39513309659481927</v>
+      </c>
+      <c r="C57" t="s">
         <v>92</v>
       </c>
-      <c r="E54">
-        <f>Table9[[#This Row],[x]]-B53</f>
-        <v>6.6099999999999994</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>135.84</v>
-      </c>
-      <c r="C55" t="s">
-        <v>91</v>
-      </c>
-      <c r="E55">
-        <f>Table9[[#This Row],[x]]-B54</f>
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>137.47</v>
-      </c>
-      <c r="C56" t="s">
-        <v>90</v>
-      </c>
-      <c r="E56">
-        <f>Table9[[#This Row],[x]]-B55</f>
-        <v>1.6299999999999955</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>138.94999999999999</v>
-      </c>
-      <c r="C57" t="s">
-        <v>89</v>
-      </c>
-      <c r="E57">
+      <c r="D57">
         <f>Table9[[#This Row],[x]]-B56</f>
-        <v>1.4799999999999898</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.2635229994219177E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
-        <f t="shared" si="0"/>
-        <v>56</v>
+        <v>144.94</v>
       </c>
       <c r="B58">
-        <v>143.54</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.39898697938172711</v>
       </c>
       <c r="C58" t="s">
-        <v>93</v>
-      </c>
-      <c r="E58">
+        <v>88</v>
+      </c>
+      <c r="D58">
         <f>Table9[[#This Row],[x]]-B57</f>
-        <v>4.5900000000000034</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.8538827869078474E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
-        <f t="shared" si="0"/>
-        <v>57</v>
+        <v>146.49</v>
       </c>
       <c r="B59">
-        <v>144.94</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.40325377818151792</v>
       </c>
       <c r="C59" t="s">
         <v>89</v>
       </c>
-      <c r="E59">
+      <c r="D59">
         <f>Table9[[#This Row],[x]]-B58</f>
-        <v>1.4000000000000057</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.2667987997908052E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
-        <f t="shared" si="0"/>
-        <v>58</v>
+        <v>148.55000000000001</v>
       </c>
       <c r="B60">
-        <v>146.49</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.40892449142511084</v>
       </c>
       <c r="C60" t="s">
         <v>90</v>
       </c>
-      <c r="E60">
+      <c r="D60">
         <f>Table9[[#This Row],[x]]-B59</f>
-        <v>1.5500000000000114</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5.6707132435929175E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
-        <f t="shared" si="0"/>
-        <v>59</v>
+        <v>153.34</v>
       </c>
       <c r="B61">
-        <v>148.55000000000001</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.42211027610317398</v>
       </c>
       <c r="C61" t="s">
+        <v>93</v>
+      </c>
+      <c r="D61">
+        <f>Table9[[#This Row],[x]]-B60</f>
+        <v>1.3185784678063139E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>155.44</v>
+      </c>
+      <c r="B62">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.42789110028353566</v>
+      </c>
+      <c r="C62" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62">
+        <f>Table9[[#This Row],[x]]-B61</f>
+        <v>5.7808241803616878E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>156.74</v>
+      </c>
+      <c r="B63">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.43146970572852156</v>
+      </c>
+      <c r="C63" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63">
+        <f>Table9[[#This Row],[x]]-B62</f>
+        <v>3.5786054449858939E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>158.18</v>
+      </c>
+      <c r="B64">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.43543369945219812</v>
+      </c>
+      <c r="C64" t="s">
+        <v>88</v>
+      </c>
+      <c r="D64">
+        <f>Table9[[#This Row],[x]]-B63</f>
+        <v>3.9639937236765621E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>164.76</v>
+      </c>
+      <c r="B65">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.4535469485506648</v>
+      </c>
+      <c r="C65" t="s">
         <v>91</v>
       </c>
-      <c r="E61">
-        <f>Table9[[#This Row],[x]]-B60</f>
-        <v>2.0600000000000023</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>153.34</v>
-      </c>
-      <c r="C62" t="s">
-        <v>94</v>
-      </c>
-      <c r="E62">
-        <f>Table9[[#This Row],[x]]-B61</f>
-        <v>4.789999999999992</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="B63">
-        <v>155.44</v>
-      </c>
-      <c r="C63" t="s">
-        <v>91</v>
-      </c>
-      <c r="E63">
-        <f>Table9[[#This Row],[x]]-B62</f>
-        <v>2.0999999999999943</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="B64">
-        <v>156.74</v>
-      </c>
-      <c r="C64" t="s">
-        <v>90</v>
-      </c>
-      <c r="E64">
-        <f>Table9[[#This Row],[x]]-B63</f>
-        <v>1.3000000000000114</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="B65">
-        <v>158.18</v>
-      </c>
-      <c r="C65" t="s">
-        <v>89</v>
-      </c>
-      <c r="E65">
+      <c r="D65">
         <f>Table9[[#This Row],[x]]-B64</f>
-        <v>1.4399999999999977</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.8113249098466677E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
-        <f t="shared" si="0"/>
-        <v>64</v>
+        <v>166.08</v>
       </c>
       <c r="B66">
-        <v>164.76</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.45718060946403505</v>
       </c>
       <c r="C66" t="s">
-        <v>92</v>
-      </c>
-      <c r="E66">
+        <v>88</v>
+      </c>
+      <c r="D66">
         <f>Table9[[#This Row],[x]]-B65</f>
-        <v>6.5799999999999841</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.6336609133702513E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
-        <f t="shared" si="0"/>
-        <v>65</v>
+        <v>167.65</v>
       </c>
       <c r="B67">
-        <v>166.08</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.46150246373221027</v>
       </c>
       <c r="C67" t="s">
         <v>89</v>
       </c>
-      <c r="E67">
+      <c r="D67">
         <f>Table9[[#This Row],[x]]-B66</f>
-        <v>1.3200000000000216</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.3218542681752181E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
-        <f t="shared" si="0"/>
-        <v>66</v>
+        <v>169.58</v>
       </c>
       <c r="B68">
-        <v>167.65</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.46681531643130458</v>
       </c>
       <c r="C68" t="s">
         <v>90</v>
       </c>
-      <c r="E68">
+      <c r="D68">
         <f>Table9[[#This Row],[x]]-B67</f>
-        <v>1.5699999999999932</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5.312852699094317E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
-        <f t="shared" ref="A69:A132" si="1">A68+1</f>
-        <v>67</v>
+        <v>174.44</v>
       </c>
       <c r="B69">
-        <v>169.58</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.48019379524871308</v>
       </c>
       <c r="C69" t="s">
-        <v>91</v>
-      </c>
-      <c r="E69">
+        <v>92</v>
+      </c>
+      <c r="D69">
         <f>Table9[[#This Row],[x]]-B68</f>
-        <v>1.9300000000000068</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.3378478817408501E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
-        <f t="shared" si="1"/>
-        <v>68</v>
+        <v>176.25</v>
       </c>
       <c r="B70">
-        <v>174.44</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.48517631513750104</v>
       </c>
       <c r="C70" t="s">
+        <v>90</v>
+      </c>
+      <c r="D70">
+        <f>Table9[[#This Row],[x]]-B69</f>
+        <v>4.9825198887879507E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>177.94</v>
+      </c>
+      <c r="B71">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.48982850221598262</v>
+      </c>
+      <c r="C71" t="s">
+        <v>89</v>
+      </c>
+      <c r="D71">
+        <f>Table9[[#This Row],[x]]-B70</f>
+        <v>4.6521870784815844E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>179.26</v>
+      </c>
+      <c r="B72">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.49346216312935282</v>
+      </c>
+      <c r="C72" t="s">
+        <v>88</v>
+      </c>
+      <c r="D72">
+        <f>Table9[[#This Row],[x]]-B71</f>
+        <v>3.6336609133701958E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>184.03</v>
+      </c>
+      <c r="B73">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.5065928923390316</v>
+      </c>
+      <c r="C73" t="s">
         <v>93</v>
       </c>
-      <c r="E70">
-        <f>Table9[[#This Row],[x]]-B69</f>
-        <v>4.8599999999999852</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="B71">
-        <v>176.25</v>
-      </c>
-      <c r="C71" t="s">
-        <v>91</v>
-      </c>
-      <c r="E71">
-        <f>Table9[[#This Row],[x]]-B70</f>
-        <v>1.8100000000000023</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="B72">
-        <v>177.94</v>
-      </c>
-      <c r="C72" t="s">
-        <v>90</v>
-      </c>
-      <c r="E72">
-        <f>Table9[[#This Row],[x]]-B71</f>
-        <v>1.6899999999999977</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <f t="shared" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="B73">
-        <v>179.26</v>
-      </c>
-      <c r="C73" t="s">
-        <v>89</v>
-      </c>
-      <c r="E73">
+      <c r="D73">
         <f>Table9[[#This Row],[x]]-B72</f>
-        <v>1.3199999999999932</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.3130729209678782E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
-        <f t="shared" si="1"/>
-        <v>72</v>
+        <v>185.51</v>
       </c>
       <c r="B74">
-        <v>184.03</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.51066699699947693</v>
       </c>
       <c r="C74" t="s">
-        <v>94</v>
-      </c>
-      <c r="E74">
+        <v>88</v>
+      </c>
+      <c r="D74">
         <f>Table9[[#This Row],[x]]-B73</f>
-        <v>4.7700000000000102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.0741046604453324E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
-        <f t="shared" si="1"/>
-        <v>73</v>
+        <v>187.12</v>
       </c>
       <c r="B75">
-        <v>185.51</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.51509896220442097</v>
       </c>
       <c r="C75" t="s">
         <v>89</v>
       </c>
-      <c r="E75">
+      <c r="D75">
         <f>Table9[[#This Row],[x]]-B74</f>
-        <v>1.4799999999999898</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.4319652049440439E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
-        <f t="shared" si="1"/>
-        <v>74</v>
+        <v>189.01</v>
       </c>
       <c r="B76">
-        <v>187.12</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.52030170396674646</v>
       </c>
       <c r="C76" t="s">
         <v>90</v>
       </c>
-      <c r="E76">
+      <c r="D76">
         <f>Table9[[#This Row],[x]]-B75</f>
-        <v>1.6100000000000136</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5.2027417623254912E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
-        <f t="shared" si="1"/>
-        <v>75</v>
+        <v>195.35</v>
       </c>
       <c r="B77">
-        <v>189.01</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.53775428744460041</v>
       </c>
       <c r="C77" t="s">
         <v>91</v>
       </c>
-      <c r="E77">
+      <c r="D77">
         <f>Table9[[#This Row],[x]]-B76</f>
-        <v>1.8899999999999864</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.7452583477853945E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
-        <f t="shared" si="1"/>
-        <v>76</v>
+        <v>197.21</v>
       </c>
       <c r="B78">
-        <v>195.35</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.54287444600434942</v>
       </c>
       <c r="C78" t="s">
+        <v>90</v>
+      </c>
+      <c r="D78">
+        <f>Table9[[#This Row],[x]]-B77</f>
+        <v>5.1201585597490107E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>198.81</v>
+      </c>
+      <c r="B79">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.54727888347510123</v>
+      </c>
+      <c r="C79" t="s">
+        <v>89</v>
+      </c>
+      <c r="D79">
+        <f>Table9[[#This Row],[x]]-B78</f>
+        <v>4.4044374707518097E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>200.17</v>
+      </c>
+      <c r="B80">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.5510226553252402</v>
+      </c>
+      <c r="C80" t="s">
+        <v>88</v>
+      </c>
+      <c r="D80">
+        <f>Table9[[#This Row],[x]]-B79</f>
+        <v>3.7437718501389661E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>204.91</v>
+      </c>
+      <c r="B81">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.56407080133234233</v>
+      </c>
+      <c r="C81" t="s">
         <v>92</v>
       </c>
-      <c r="E78">
-        <f>Table9[[#This Row],[x]]-B77</f>
-        <v>6.3400000000000034</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="B79">
-        <v>197.21</v>
-      </c>
-      <c r="C79" t="s">
-        <v>91</v>
-      </c>
-      <c r="E79">
-        <f>Table9[[#This Row],[x]]-B78</f>
-        <v>1.8600000000000136</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <f t="shared" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="B80">
-        <v>198.81</v>
-      </c>
-      <c r="C80" t="s">
-        <v>90</v>
-      </c>
-      <c r="E80">
-        <f>Table9[[#This Row],[x]]-B79</f>
-        <v>1.5999999999999943</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="B81">
-        <v>200.17</v>
-      </c>
-      <c r="C81" t="s">
-        <v>89</v>
-      </c>
-      <c r="E81">
+      <c r="D81">
         <f>Table9[[#This Row],[x]]-B80</f>
-        <v>1.3599999999999852</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.3048146007102135E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <v>206.39</v>
       </c>
       <c r="B82">
-        <v>204.91</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.56814490599278777</v>
       </c>
       <c r="C82" t="s">
-        <v>93</v>
-      </c>
-      <c r="E82">
+        <v>88</v>
+      </c>
+      <c r="D82">
         <f>Table9[[#This Row],[x]]-B81</f>
-        <v>4.7400000000000091</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.0741046604454434E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
-        <f t="shared" si="1"/>
-        <v>81</v>
+        <v>207.83</v>
       </c>
       <c r="B83">
-        <v>206.39</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.57210889971646439</v>
       </c>
       <c r="C83" t="s">
         <v>89</v>
       </c>
-      <c r="E83">
+      <c r="D83">
         <f>Table9[[#This Row],[x]]-B82</f>
-        <v>1.4799999999999898</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.9639937236766176E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
-        <f t="shared" si="1"/>
-        <v>82</v>
+        <v>209.93</v>
       </c>
       <c r="B84">
-        <v>207.83</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.57788972389682614</v>
       </c>
       <c r="C84" t="s">
         <v>90</v>
       </c>
-      <c r="E84">
+      <c r="D84">
         <f>Table9[[#This Row],[x]]-B83</f>
-        <v>1.4400000000000261</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5.7808241803617433E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
-        <f t="shared" si="1"/>
-        <v>83</v>
+        <v>214.75</v>
       </c>
       <c r="B85">
-        <v>209.93</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.59115809177746581</v>
       </c>
       <c r="C85" t="s">
+        <v>93</v>
+      </c>
+      <c r="D85">
+        <f>Table9[[#This Row],[x]]-B84</f>
+        <v>1.3268367880639675E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>216.52</v>
+      </c>
+      <c r="B86">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.59603050072948505</v>
+      </c>
+      <c r="C86" t="s">
+        <v>90</v>
+      </c>
+      <c r="D86">
+        <f>Table9[[#This Row],[x]]-B85</f>
+        <v>4.872408952019236E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>218.08</v>
+      </c>
+      <c r="B87">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.60032482726346803</v>
+      </c>
+      <c r="C87" t="s">
+        <v>89</v>
+      </c>
+      <c r="D87">
+        <f>Table9[[#This Row],[x]]-B86</f>
+        <v>4.2943265339829839E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>219.52</v>
+      </c>
+      <c r="B88">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.60428882098714465</v>
+      </c>
+      <c r="C88" t="s">
+        <v>88</v>
+      </c>
+      <c r="D88">
+        <f>Table9[[#This Row],[x]]-B87</f>
+        <v>3.9639937236766176E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>226.03</v>
+      </c>
+      <c r="B89">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.62220937594626591</v>
+      </c>
+      <c r="C89" t="s">
         <v>91</v>
       </c>
-      <c r="E85">
-        <f>Table9[[#This Row],[x]]-B84</f>
-        <v>2.0999999999999943</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-      <c r="B86">
-        <v>214.75</v>
-      </c>
-      <c r="C86" t="s">
-        <v>94</v>
-      </c>
-      <c r="E86">
-        <f>Table9[[#This Row],[x]]-B85</f>
-        <v>4.8199999999999932</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="B87">
-        <v>216.52</v>
-      </c>
-      <c r="C87" t="s">
-        <v>91</v>
-      </c>
-      <c r="E87">
-        <f>Table9[[#This Row],[x]]-B86</f>
-        <v>1.7700000000000102</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="B88">
-        <v>218.08</v>
-      </c>
-      <c r="C88" t="s">
-        <v>90</v>
-      </c>
-      <c r="E88">
-        <f>Table9[[#This Row],[x]]-B87</f>
-        <v>1.5600000000000023</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-      <c r="B89">
-        <v>219.52</v>
-      </c>
-      <c r="C89" t="s">
-        <v>89</v>
-      </c>
-      <c r="E89">
+      <c r="D89">
         <f>Table9[[#This Row],[x]]-B88</f>
-        <v>1.4399999999999977</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.792055495912126E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
-        <f t="shared" si="1"/>
+        <v>227.38</v>
+      </c>
+      <c r="B90">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.62592562006221275</v>
+      </c>
+      <c r="C90" t="s">
         <v>88</v>
       </c>
-      <c r="B90">
-        <v>226.03</v>
-      </c>
-      <c r="C90" t="s">
-        <v>92</v>
-      </c>
-      <c r="E90">
+      <c r="D90">
         <f>Table9[[#This Row],[x]]-B89</f>
-        <v>6.5099999999999909</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.7162441159468429E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
-        <f t="shared" si="1"/>
-        <v>89</v>
+        <v>228.99</v>
       </c>
       <c r="B91">
-        <v>227.38</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.63035758526715668</v>
       </c>
       <c r="C91" t="s">
         <v>89</v>
       </c>
-      <c r="E91">
+      <c r="D91">
         <f>Table9[[#This Row],[x]]-B90</f>
-        <v>1.3499999999999943</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.4319652049439329E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
-        <f t="shared" si="1"/>
-        <v>90</v>
+        <v>230.84</v>
       </c>
       <c r="B92">
-        <v>228.99</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.63545021609271346</v>
       </c>
       <c r="C92" t="s">
         <v>90</v>
       </c>
-      <c r="E92">
+      <c r="D92">
         <f>Table9[[#This Row],[x]]-B91</f>
-        <v>1.6100000000000136</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5.0926308255567765E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
-        <f t="shared" si="1"/>
-        <v>91</v>
+        <v>235.68</v>
       </c>
       <c r="B93">
-        <v>230.84</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.6487736394417376</v>
       </c>
       <c r="C93" t="s">
-        <v>91</v>
-      </c>
-      <c r="E93">
+        <v>92</v>
+      </c>
+      <c r="D93">
         <f>Table9[[#This Row],[x]]-B92</f>
-        <v>1.8499999999999943</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.3323423349024144E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
-        <f t="shared" si="1"/>
-        <v>92</v>
+        <v>237.64</v>
       </c>
       <c r="B94">
-        <v>235.68</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.65416907534340851</v>
       </c>
       <c r="C94" t="s">
+        <v>90</v>
+      </c>
+      <c r="D94">
+        <f>Table9[[#This Row],[x]]-B93</f>
+        <v>5.3954359016709086E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>239.26</v>
+      </c>
+      <c r="B95">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.65862856828254468</v>
+      </c>
+      <c r="C95" t="s">
+        <v>89</v>
+      </c>
+      <c r="D95">
+        <f>Table9[[#This Row],[x]]-B94</f>
+        <v>4.4594929391361671E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>240.7</v>
+      </c>
+      <c r="B96">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.6625925620062213</v>
+      </c>
+      <c r="C96" t="s">
+        <v>88</v>
+      </c>
+      <c r="D96">
+        <f>Table9[[#This Row],[x]]-B95</f>
+        <v>3.9639937236766176E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>245.51</v>
+      </c>
+      <c r="B97">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.67583340215266885</v>
+      </c>
+      <c r="C97" t="s">
         <v>93</v>
       </c>
-      <c r="E94">
-        <f>Table9[[#This Row],[x]]-B93</f>
-        <v>4.8400000000000034</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <f t="shared" si="1"/>
-        <v>93</v>
-      </c>
-      <c r="B95">
-        <v>237.64</v>
-      </c>
-      <c r="C95" t="s">
-        <v>91</v>
-      </c>
-      <c r="E95">
-        <f>Table9[[#This Row],[x]]-B94</f>
-        <v>1.9599999999999795</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>239.26</v>
-      </c>
-      <c r="C96" t="s">
-        <v>90</v>
-      </c>
-      <c r="E96">
-        <f>Table9[[#This Row],[x]]-B95</f>
-        <v>1.6200000000000045</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <f t="shared" si="1"/>
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>240.7</v>
-      </c>
-      <c r="C97" t="s">
-        <v>89</v>
-      </c>
-      <c r="E97">
+      <c r="D97">
         <f>Table9[[#This Row],[x]]-B96</f>
-        <v>1.4399999999999977</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.3240840146447552E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
-        <f t="shared" si="1"/>
-        <v>96</v>
+        <v>246.91</v>
       </c>
       <c r="B98">
-        <v>245.51</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.67968728493957664</v>
       </c>
       <c r="C98" t="s">
-        <v>94</v>
-      </c>
-      <c r="E98">
+        <v>88</v>
+      </c>
+      <c r="D98">
         <f>Table9[[#This Row],[x]]-B97</f>
-        <v>4.8100000000000023</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.8538827869077918E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
-        <f t="shared" si="1"/>
-        <v>97</v>
+        <v>248.32</v>
       </c>
       <c r="B99">
-        <v>246.91</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.68356869546067667</v>
       </c>
       <c r="C99" t="s">
         <v>89</v>
       </c>
-      <c r="E99">
+      <c r="D99">
         <f>Table9[[#This Row],[x]]-B98</f>
-        <v>1.4000000000000057</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.881410521100026E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
-        <f t="shared" si="1"/>
-        <v>98</v>
+        <v>250.35</v>
       </c>
       <c r="B100">
-        <v>248.32</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.68915682550169299</v>
       </c>
       <c r="C100" t="s">
         <v>90</v>
       </c>
-      <c r="E100">
+      <c r="D100">
         <f>Table9[[#This Row],[x]]-B99</f>
-        <v>1.4099999999999966</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5.5881300410163259E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
-        <f t="shared" si="1"/>
-        <v>99</v>
+        <v>254.95</v>
       </c>
       <c r="B101">
-        <v>250.35</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.70181958323010429</v>
       </c>
       <c r="C101" t="s">
+        <v>92</v>
+      </c>
+      <c r="D101">
+        <f>Table9[[#This Row],[x]]-B100</f>
+        <v>1.26627577284113E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>257.08999999999997</v>
+      </c>
+      <c r="B102">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.70771051834723475</v>
+      </c>
+      <c r="C102" t="s">
+        <v>90</v>
+      </c>
+      <c r="D102">
+        <f>Table9[[#This Row],[x]]-B101</f>
+        <v>5.890935117130458E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>258.63</v>
+      </c>
+      <c r="B103">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.71194978941283349</v>
+      </c>
+      <c r="C103" t="s">
+        <v>89</v>
+      </c>
+      <c r="D103">
+        <f>Table9[[#This Row],[x]]-B102</f>
+        <v>4.2392710655987376E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>260.04000000000002</v>
+      </c>
+      <c r="B104">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.71583119993393352</v>
+      </c>
+      <c r="C104" t="s">
+        <v>88</v>
+      </c>
+      <c r="D104">
+        <f>Table9[[#This Row],[x]]-B103</f>
+        <v>3.881410521100026E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>266.47000000000003</v>
+      </c>
+      <c r="B105">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.73353153301951723</v>
+      </c>
+      <c r="C105" t="s">
         <v>91</v>
       </c>
-      <c r="E101">
-        <f>Table9[[#This Row],[x]]-B100</f>
-        <v>2.0300000000000011</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="B102">
-        <v>254.95</v>
-      </c>
-      <c r="C102" t="s">
-        <v>93</v>
-      </c>
-      <c r="E102">
-        <f>Table9[[#This Row],[x]]-B101</f>
-        <v>4.5999999999999943</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <f t="shared" si="1"/>
-        <v>101</v>
-      </c>
-      <c r="B103">
-        <v>257.08999999999997</v>
-      </c>
-      <c r="C103" t="s">
-        <v>91</v>
-      </c>
-      <c r="E103">
-        <f>Table9[[#This Row],[x]]-B102</f>
-        <v>2.1399999999999864</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <f t="shared" si="1"/>
-        <v>102</v>
-      </c>
-      <c r="B104">
-        <v>258.63</v>
-      </c>
-      <c r="C104" t="s">
-        <v>90</v>
-      </c>
-      <c r="E104">
-        <f>Table9[[#This Row],[x]]-B103</f>
-        <v>1.5400000000000205</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <f t="shared" si="1"/>
-        <v>103</v>
-      </c>
-      <c r="B105">
-        <v>260.04000000000002</v>
-      </c>
-      <c r="C105" t="s">
-        <v>89</v>
-      </c>
-      <c r="E105">
+      <c r="D105">
         <f>Table9[[#This Row],[x]]-B104</f>
-        <v>1.410000000000025</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.7700333085583719E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
-        <f t="shared" si="1"/>
-        <v>104</v>
+        <v>267.89999999999998</v>
       </c>
       <c r="B106">
-        <v>266.47000000000003</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.73746799900900151</v>
       </c>
       <c r="C106" t="s">
-        <v>92</v>
-      </c>
-      <c r="E106">
+        <v>88</v>
+      </c>
+      <c r="D106">
         <f>Table9[[#This Row],[x]]-B105</f>
-        <v>6.4300000000000068</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.9364659894842724E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
-        <f t="shared" si="1"/>
-        <v>105</v>
+        <v>269.52999999999997</v>
       </c>
       <c r="B107">
-        <v>267.89999999999998</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.74195501968232991</v>
       </c>
       <c r="C107" t="s">
         <v>89</v>
       </c>
-      <c r="E107">
+      <c r="D107">
         <f>Table9[[#This Row],[x]]-B106</f>
-        <v>1.42999999999995</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.4870206733284013E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
-        <f t="shared" si="1"/>
-        <v>106</v>
+        <v>271.33999999999997</v>
       </c>
       <c r="B108">
-        <v>269.52999999999997</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.74693753957111786</v>
       </c>
       <c r="C108" t="s">
         <v>90</v>
       </c>
-      <c r="E108">
+      <c r="D108">
         <f>Table9[[#This Row],[x]]-B107</f>
-        <v>1.6299999999999955</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.9825198887879507E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
-        <f t="shared" si="1"/>
-        <v>107</v>
+        <v>276.10000000000002</v>
       </c>
       <c r="B109">
-        <v>271.33999999999997</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.76004074104660457</v>
       </c>
       <c r="C109" t="s">
-        <v>91</v>
-      </c>
-      <c r="E109">
+        <v>93</v>
+      </c>
+      <c r="D109">
         <f>Table9[[#This Row],[x]]-B108</f>
-        <v>1.8100000000000023</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.3103201475486714E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
-        <f t="shared" si="1"/>
-        <v>108</v>
+        <v>278.06</v>
       </c>
       <c r="B110">
-        <v>276.10000000000002</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.76543617694827548</v>
       </c>
       <c r="C110" t="s">
-        <v>94</v>
-      </c>
-      <c r="E110">
+        <v>90</v>
+      </c>
+      <c r="D110">
         <f>Table9[[#This Row],[x]]-B109</f>
-        <v>4.7600000000000477</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5.3954359016709086E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
-        <f t="shared" si="1"/>
-        <v>109</v>
+        <v>279.73</v>
       </c>
       <c r="B111">
-        <v>278.06</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.7700333085583726</v>
       </c>
       <c r="C111" t="s">
-        <v>91</v>
-      </c>
-      <c r="E111">
+        <v>89</v>
+      </c>
+      <c r="D111">
         <f>Table9[[#This Row],[x]]-B110</f>
-        <v>1.9599999999999795</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.597131610097116E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
-        <f t="shared" si="1"/>
-        <v>110</v>
+        <v>281.02999999999997</v>
       </c>
       <c r="B112">
-        <v>279.73</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.77361191400335838</v>
       </c>
       <c r="C112" t="s">
-        <v>90</v>
-      </c>
-      <c r="E112">
+        <v>88</v>
+      </c>
+      <c r="D112">
         <f>Table9[[#This Row],[x]]-B111</f>
-        <v>1.6700000000000159</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.5786054449857829E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
-        <f t="shared" si="1"/>
-        <v>111</v>
+        <v>285.62</v>
       </c>
       <c r="B113">
-        <v>281.02999999999997</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.78624714399757756</v>
       </c>
       <c r="C113" t="s">
-        <v>89</v>
-      </c>
-      <c r="E113">
+        <v>92</v>
+      </c>
+      <c r="D113">
         <f>Table9[[#This Row],[x]]-B112</f>
-        <v>1.2999999999999545</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.2635229994219177E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
-        <f t="shared" si="1"/>
-        <v>112</v>
+        <v>287.27</v>
       </c>
       <c r="B114">
-        <v>285.62</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.79078922013929032</v>
       </c>
       <c r="C114" t="s">
-        <v>93</v>
-      </c>
-      <c r="E114">
+        <v>88</v>
+      </c>
+      <c r="D114">
         <f>Table9[[#This Row],[x]]-B113</f>
-        <v>4.5900000000000318</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.5420761417127586E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
-        <f t="shared" si="1"/>
-        <v>113</v>
+        <v>288.76</v>
       </c>
       <c r="B115">
-        <v>287.27</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.79489085253392799</v>
       </c>
       <c r="C115" t="s">
         <v>89</v>
       </c>
-      <c r="E115">
+      <c r="D115">
         <f>Table9[[#This Row],[x]]-B114</f>
-        <v>1.6499999999999773</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.1016323946376776E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
-        <f t="shared" si="1"/>
-        <v>114</v>
+        <v>290.66000000000003</v>
       </c>
       <c r="B116">
-        <v>288.76</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.80012112203044583</v>
       </c>
       <c r="C116" t="s">
         <v>90</v>
       </c>
-      <c r="E116">
+      <c r="D116">
         <f>Table9[[#This Row],[x]]-B115</f>
-        <v>1.4900000000000091</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5.2302694965178365E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
-        <f t="shared" si="1"/>
-        <v>115</v>
+        <v>297.12</v>
       </c>
       <c r="B117">
-        <v>290.66000000000003</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.81790403831860603</v>
       </c>
       <c r="C117" t="s">
         <v>91</v>
       </c>
-      <c r="E117">
+      <c r="D117">
         <f>Table9[[#This Row],[x]]-B116</f>
-        <v>1.9000000000000341</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.77829162881602E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
-        <f t="shared" si="1"/>
-        <v>116</v>
+        <v>298.91000000000003</v>
       </c>
       <c r="B118">
-        <v>297.12</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.82283150273900962</v>
       </c>
       <c r="C118" t="s">
-        <v>92</v>
-      </c>
-      <c r="E118">
+        <v>90</v>
+      </c>
+      <c r="D118">
         <f>Table9[[#This Row],[x]]-B117</f>
-        <v>6.4599999999999795</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.9274644204035933E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
-        <f t="shared" si="1"/>
-        <v>117</v>
+        <v>300.67</v>
       </c>
       <c r="B119">
-        <v>298.91000000000003</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.82767638395683663</v>
       </c>
       <c r="C119" t="s">
-        <v>91</v>
-      </c>
-      <c r="E119">
+        <v>89</v>
+      </c>
+      <c r="D119">
         <f>Table9[[#This Row],[x]]-B118</f>
-        <v>1.7900000000000205</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.8448812178270018E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
-        <f t="shared" si="1"/>
-        <v>118</v>
+        <v>302.10000000000002</v>
       </c>
       <c r="B120">
-        <v>300.67</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.83161284994632101</v>
       </c>
       <c r="C120" t="s">
-        <v>90</v>
-      </c>
-      <c r="E120">
+        <v>88</v>
+      </c>
+      <c r="D120">
         <f>Table9[[#This Row],[x]]-B119</f>
-        <v>1.7599999999999909</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.9364659894843834E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
-        <f t="shared" si="1"/>
-        <v>119</v>
+        <v>306.86</v>
       </c>
       <c r="B121">
-        <v>302.10000000000002</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.8447160514218075</v>
       </c>
       <c r="C121" t="s">
-        <v>89</v>
-      </c>
-      <c r="E121">
+        <v>93</v>
+      </c>
+      <c r="D121">
         <f>Table9[[#This Row],[x]]-B120</f>
-        <v>1.4300000000000068</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.3103201475486492E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
-        <f t="shared" si="1"/>
-        <v>120</v>
+        <v>308.07</v>
       </c>
       <c r="B122">
-        <v>306.86</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.84804690725906351</v>
       </c>
       <c r="C122" t="s">
-        <v>94</v>
-      </c>
-      <c r="E122">
+        <v>88</v>
+      </c>
+      <c r="D122">
         <f>Table9[[#This Row],[x]]-B121</f>
-        <v>4.7599999999999909</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.3308558372560082E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
-        <f t="shared" si="1"/>
-        <v>121</v>
+        <v>309.69</v>
       </c>
       <c r="B123">
-        <v>308.07</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.85250640019819968</v>
       </c>
       <c r="C123" t="s">
         <v>89</v>
       </c>
-      <c r="E123">
+      <c r="D123">
         <f>Table9[[#This Row],[x]]-B122</f>
-        <v>1.2099999999999795</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.4594929391361671E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
-        <f t="shared" si="1"/>
-        <v>122</v>
+        <v>311.62</v>
       </c>
       <c r="B124">
-        <v>309.69</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.8578192528972941</v>
       </c>
       <c r="C124" t="s">
         <v>90</v>
       </c>
-      <c r="E124">
+      <c r="D124">
         <f>Table9[[#This Row],[x]]-B123</f>
-        <v>1.6200000000000045</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5.312852699094428E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
-        <f t="shared" si="1"/>
-        <v>123</v>
+        <v>316.35000000000002</v>
       </c>
       <c r="B125">
-        <v>311.62</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.87083987117020412</v>
       </c>
       <c r="C125" t="s">
+        <v>92</v>
+      </c>
+      <c r="D125">
+        <f>Table9[[#This Row],[x]]-B124</f>
+        <v>1.3020618272910012E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>318.25</v>
+      </c>
+      <c r="B126">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.87607014066672173</v>
+      </c>
+      <c r="C126" t="s">
+        <v>90</v>
+      </c>
+      <c r="D126">
+        <f>Table9[[#This Row],[x]]-B125</f>
+        <v>5.2302694965176144E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>320.07</v>
+      </c>
+      <c r="B127">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.88108018828970192</v>
+      </c>
+      <c r="C127" t="s">
+        <v>89</v>
+      </c>
+      <c r="D127">
+        <f>Table9[[#This Row],[x]]-B126</f>
+        <v>5.0100476229801849E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>321.39</v>
+      </c>
+      <c r="B128">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.88471384920307206</v>
+      </c>
+      <c r="C128" t="s">
+        <v>88</v>
+      </c>
+      <c r="D128">
+        <f>Table9[[#This Row],[x]]-B127</f>
+        <v>3.6336609133701403E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>327.79</v>
+      </c>
+      <c r="B129">
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.90233159908607929</v>
+      </c>
+      <c r="C129" t="s">
         <v>91</v>
       </c>
-      <c r="E125">
-        <f>Table9[[#This Row],[x]]-B124</f>
-        <v>1.9300000000000068</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <f t="shared" si="1"/>
-        <v>124</v>
-      </c>
-      <c r="B126">
-        <v>316.35000000000002</v>
-      </c>
-      <c r="C126" t="s">
-        <v>93</v>
-      </c>
-      <c r="E126">
-        <f>Table9[[#This Row],[x]]-B125</f>
-        <v>4.7300000000000182</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="B127">
-        <v>318.25</v>
-      </c>
-      <c r="C127" t="s">
-        <v>91</v>
-      </c>
-      <c r="E127">
-        <f>Table9[[#This Row],[x]]-B126</f>
-        <v>1.8999999999999773</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <f t="shared" si="1"/>
-        <v>126</v>
-      </c>
-      <c r="B128">
-        <v>320.07</v>
-      </c>
-      <c r="C128" t="s">
-        <v>90</v>
-      </c>
-      <c r="E128">
-        <f>Table9[[#This Row],[x]]-B127</f>
-        <v>1.8199999999999932</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <f t="shared" si="1"/>
-        <v>127</v>
-      </c>
-      <c r="B129">
-        <v>321.39</v>
-      </c>
-      <c r="C129" t="s">
-        <v>89</v>
-      </c>
-      <c r="E129">
+      <c r="D129">
         <f>Table9[[#This Row],[x]]-B128</f>
-        <v>1.3199999999999932</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.7617749883007239E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
-        <f t="shared" si="1"/>
-        <v>128</v>
+        <v>329.15</v>
       </c>
       <c r="B130">
-        <v>327.79</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.90607537093621826</v>
       </c>
       <c r="C130" t="s">
-        <v>92</v>
-      </c>
-      <c r="E130">
+        <v>88</v>
+      </c>
+      <c r="D130">
         <f>Table9[[#This Row],[x]]-B129</f>
-        <v>6.4000000000000341</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.7437718501389661E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
-        <f t="shared" si="1"/>
-        <v>129</v>
+        <v>330.69</v>
       </c>
       <c r="B131">
-        <v>329.15</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.91031464200181689</v>
       </c>
       <c r="C131" t="s">
         <v>89</v>
       </c>
-      <c r="E131">
+      <c r="D131">
         <f>Table9[[#This Row],[x]]-B130</f>
-        <v>1.3599999999999568</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.2392710655986265E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
-        <f t="shared" si="1"/>
-        <v>130</v>
+        <v>332.75</v>
       </c>
       <c r="B132">
-        <v>330.69</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.9159853552454098</v>
       </c>
       <c r="C132" t="s">
         <v>90</v>
       </c>
-      <c r="E132">
+      <c r="D132">
         <f>Table9[[#This Row],[x]]-B131</f>
-        <v>1.5400000000000205</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5.6707132435929175E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
-        <f t="shared" ref="A133:A145" si="2">A132+1</f>
-        <v>131</v>
+        <v>337.63</v>
       </c>
       <c r="B133">
-        <v>332.75</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.92941888953120277</v>
       </c>
       <c r="C133" t="s">
-        <v>91</v>
-      </c>
-      <c r="E133">
+        <v>93</v>
+      </c>
+      <c r="D133">
         <f>Table9[[#This Row],[x]]-B132</f>
-        <v>2.0600000000000023</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.343353428579297E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
-        <f t="shared" si="2"/>
-        <v>132</v>
+        <v>339.29</v>
       </c>
       <c r="B134">
-        <v>337.63</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.93398849340710777</v>
       </c>
       <c r="C134" t="s">
-        <v>94</v>
-      </c>
-      <c r="E134">
+        <v>90</v>
+      </c>
+      <c r="D134">
         <f>Table9[[#This Row],[x]]-B133</f>
-        <v>4.8799999999999955</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.5696038759049928E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
-        <f t="shared" si="2"/>
-        <v>133</v>
+        <v>340.91</v>
       </c>
       <c r="B135">
-        <v>339.29</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.93844798634624393</v>
       </c>
       <c r="C135" t="s">
-        <v>91</v>
-      </c>
-      <c r="E135">
+        <v>89</v>
+      </c>
+      <c r="D135">
         <f>Table9[[#This Row],[x]]-B134</f>
-        <v>1.660000000000025</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.4594929391361671E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
-        <f t="shared" si="2"/>
-        <v>134</v>
+        <v>342.41</v>
       </c>
       <c r="B136">
-        <v>340.91</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.94257714647507373</v>
       </c>
       <c r="C136" t="s">
-        <v>90</v>
-      </c>
-      <c r="E136">
+        <v>88</v>
+      </c>
+      <c r="D136">
         <f>Table9[[#This Row],[x]]-B135</f>
-        <v>1.6200000000000045</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.1291601288298008E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
-        <f t="shared" si="2"/>
-        <v>135</v>
+        <v>347.18</v>
       </c>
       <c r="B137">
-        <v>342.41</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.95570787568475246</v>
       </c>
       <c r="C137" t="s">
-        <v>89</v>
-      </c>
-      <c r="E137">
+        <v>92</v>
+      </c>
+      <c r="D137">
         <f>Table9[[#This Row],[x]]-B136</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.3130729209678726E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
-        <f t="shared" si="2"/>
-        <v>136</v>
+        <v>348.63</v>
       </c>
       <c r="B138">
-        <v>347.18</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.9596993971426212</v>
       </c>
       <c r="C138" t="s">
-        <v>93</v>
-      </c>
-      <c r="E138">
+        <v>88</v>
+      </c>
+      <c r="D138">
         <f>Table9[[#This Row],[x]]-B137</f>
-        <v>4.7699999999999818</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.9915214578687408E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
-        <f t="shared" si="2"/>
-        <v>137</v>
+        <v>350.24</v>
       </c>
       <c r="B139">
-        <v>348.63</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.96413136234756525</v>
       </c>
       <c r="C139" t="s">
         <v>89</v>
       </c>
-      <c r="E139">
+      <c r="D139">
         <f>Table9[[#This Row],[x]]-B138</f>
-        <v>1.4499999999999886</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.4319652049440439E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
-        <f t="shared" si="2"/>
-        <v>138</v>
+        <v>352.11</v>
       </c>
       <c r="B140">
-        <v>350.24</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.96927904864150638</v>
       </c>
       <c r="C140" t="s">
         <v>90</v>
       </c>
-      <c r="E140">
+      <c r="D140">
         <f>Table9[[#This Row],[x]]-B139</f>
-        <v>1.6100000000000136</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+        <v>5.1476862939411339E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
-        <f t="shared" si="2"/>
-        <v>139</v>
+        <v>358.47</v>
       </c>
       <c r="B141">
-        <v>352.11</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.98678668758774479</v>
       </c>
       <c r="C141" t="s">
         <v>91</v>
       </c>
-      <c r="E141">
+      <c r="D141">
         <f>Table9[[#This Row],[x]]-B140</f>
-        <v>1.8700000000000045</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.7507638946238413E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
-        <f t="shared" si="2"/>
-        <v>140</v>
+        <v>360.25</v>
       </c>
       <c r="B142">
-        <v>358.47</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.99168662427395604</v>
       </c>
       <c r="C142" t="s">
-        <v>92</v>
-      </c>
-      <c r="E142">
+        <v>90</v>
+      </c>
+      <c r="D142">
         <f>Table9[[#This Row],[x]]-B141</f>
-        <v>6.3600000000000136</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.8999366862112481E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
-        <f t="shared" si="2"/>
-        <v>141</v>
+        <v>361.91</v>
       </c>
       <c r="B143">
-        <v>360.25</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>0.99625622814986114</v>
       </c>
       <c r="C143" t="s">
-        <v>91</v>
-      </c>
-      <c r="E143">
+        <v>89</v>
+      </c>
+      <c r="D143">
         <f>Table9[[#This Row],[x]]-B142</f>
-        <v>1.7799999999999727</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.5696038759051039E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
-        <f t="shared" si="2"/>
-        <v>142</v>
+        <v>363.27</v>
       </c>
       <c r="B144">
-        <v>361.91</v>
+        <f>Table9[[#This Row],[unnorm_x]]/$A$144</f>
+        <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>90</v>
-      </c>
-      <c r="E144">
+        <v>88</v>
+      </c>
+      <c r="D144">
         <f>Table9[[#This Row],[x]]-B143</f>
-        <v>1.660000000000025</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145">
-        <f t="shared" si="2"/>
-        <v>143</v>
-      </c>
-      <c r="B145">
-        <v>363.27</v>
-      </c>
-      <c r="C145" t="s">
-        <v>89</v>
-      </c>
-      <c r="E145">
-        <f>Table9[[#This Row],[x]]-B144</f>
-        <v>1.3599999999999568</v>
+        <v>3.7437718501388551E-3</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/op_art_analysis.xlsx
+++ b/analysis/op_art_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hettysymes/Documents/op_art_generator/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C366286D-B188-224D-86B9-714A0CC2A1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E863989-69C7-8F49-8FA8-2B5CB0DE669B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{F32E88F0-E047-FC4B-8F82-E7C145B1565C}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="102">
   <si>
     <t>Index</t>
   </si>
@@ -320,9 +320,6 @@
     <t>black</t>
   </si>
   <si>
-    <t>grey</t>
-  </si>
-  <si>
     <t>white</t>
   </si>
   <si>
@@ -330,6 +327,27 @@
   </si>
   <si>
     <t>Colour</t>
+  </si>
+  <si>
+    <t>grey0</t>
+  </si>
+  <si>
+    <t>grey1</t>
+  </si>
+  <si>
+    <t>grey2</t>
+  </si>
+  <si>
+    <t>grey3</t>
+  </si>
+  <si>
+    <t>grey4</t>
+  </si>
+  <si>
+    <t>grey5</t>
+  </si>
+  <si>
+    <t>grey6</t>
   </si>
 </sst>
 </file>
@@ -445,9 +463,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="48">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -704,6 +719,9 @@
           <color theme="4" tint="0.39997558519241921"/>
         </right>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -21227,7 +21245,7 @@
       <calculatedColumnFormula>Table9[[#This Row],[unnorm_x]]/$A$144</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{E5892D18-A190-FE46-99A6-CE2205838599}" name="Colour"/>
-    <tableColumn id="5" xr3:uid="{0BEF3B22-D75A-DE42-9DBA-FCB0C1D2324D}" name="Width" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{0BEF3B22-D75A-DE42-9DBA-FCB0C1D2324D}" name="Width" dataDxfId="46">
       <calculatedColumnFormula>Table9[[#This Row],[x]]-B1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -21265,19 +21283,19 @@
     <tableColumn id="4" xr3:uid="{C1C8414F-B74C-9649-A1E0-5FFF7148BF09}" name="diff">
       <calculatedColumnFormula>C20-C19</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{14900C00-7693-AE41-B20A-3D15A262E9C6}" name="black x" dataDxfId="46">
+    <tableColumn id="5" xr3:uid="{14900C00-7693-AE41-B20A-3D15A262E9C6}" name="black x" dataDxfId="45">
       <calculatedColumnFormula>E8/$H$1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{65CE1D17-FACA-9F4C-B034-89DB0F2E7085}" name="white x" dataDxfId="45">
+    <tableColumn id="6" xr3:uid="{65CE1D17-FACA-9F4C-B034-89DB0F2E7085}" name="white x" dataDxfId="44">
       <calculatedColumnFormula>F8/$H$1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{67FD90AA-CA65-E845-A028-3A5EC1236255}" name="black diff" dataDxfId="44">
+    <tableColumn id="7" xr3:uid="{67FD90AA-CA65-E845-A028-3A5EC1236255}" name="black diff" dataDxfId="43">
       <calculatedColumnFormula>ABS(Table8[[#This Row],[black x]]-E19)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{E5C86B23-7B30-8346-9099-D87BE2E12F36}" name="white diff" dataDxfId="43">
+    <tableColumn id="8" xr3:uid="{E5C86B23-7B30-8346-9099-D87BE2E12F36}" name="white diff" dataDxfId="42">
       <calculatedColumnFormula>ABS(Table8[[#This Row],[white x]]-F19)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{02C24204-45A8-5B41-A8B9-C8395A95F06E}" name="diff diff" dataDxfId="42">
+    <tableColumn id="9" xr3:uid="{02C24204-45A8-5B41-A8B9-C8395A95F06E}" name="diff diff" dataDxfId="41">
       <calculatedColumnFormula>Table8[[#This Row],[white diff]]-Table8[[#This Row],[black diff]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -21291,10 +21309,10 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0AE83E98-B580-4DD8-8F27-E8E2E03D1C01}" name="Index"/>
     <tableColumn id="2" xr3:uid="{F9D49BEA-B225-47C2-BECB-F61B19BF4F06}" name="x coord"/>
-    <tableColumn id="4" xr3:uid="{32EC3548-475C-4C3E-83E6-D07D5C5D4800}" name="N_index" dataDxfId="41">
+    <tableColumn id="4" xr3:uid="{32EC3548-475C-4C3E-83E6-D07D5C5D4800}" name="N_index" dataDxfId="40">
       <calculatedColumnFormula>Table5[[#This Row],[Index]]/$A$29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{11E47D72-2A9F-47C4-B9EC-A1EFEB97700F}" name="N_x_coord" dataDxfId="40">
+    <tableColumn id="5" xr3:uid="{11E47D72-2A9F-47C4-B9EC-A1EFEB97700F}" name="N_x_coord" dataDxfId="39">
       <calculatedColumnFormula>Table5[[#This Row],[x coord]]/$N$1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -21303,18 +21321,18 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{FC587121-58E8-4093-A7EB-DAB7062D1EB3}" name="Table6" displayName="Table6" ref="F1:J43" totalsRowShown="0" tableBorderDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{FC587121-58E8-4093-A7EB-DAB7062D1EB3}" name="Table6" displayName="Table6" ref="F1:J43" totalsRowShown="0" tableBorderDxfId="38">
   <autoFilter ref="F1:J43" xr:uid="{FC587121-58E8-4093-A7EB-DAB7062D1EB3}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7F5E0AB4-362A-464B-8581-323DD4AC0F33}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{B65CDFF2-48E0-4B4C-BE8B-126D6E4DA403}" name="y coord" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{E11A1173-A980-4EEE-BD80-93A840341053}" name="N_index" dataDxfId="37">
+    <tableColumn id="2" xr3:uid="{B65CDFF2-48E0-4B4C-BE8B-126D6E4DA403}" name="y coord" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{E11A1173-A980-4EEE-BD80-93A840341053}" name="N_index" dataDxfId="36">
       <calculatedColumnFormula>Table6[[#This Row],[Index]]/$F$43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{34AD6BFB-8AC2-4601-8024-3404372E73AF}" name="N_y_coord" dataDxfId="36">
+    <tableColumn id="5" xr3:uid="{34AD6BFB-8AC2-4601-8024-3404372E73AF}" name="N_y_coord" dataDxfId="35">
       <calculatedColumnFormula>Table6[[#This Row],[y coord]]/$N$2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E906CC99-232D-6F4C-8B66-7A8A9EDF710F}" name="Diff" dataDxfId="35">
+    <tableColumn id="4" xr3:uid="{E906CC99-232D-6F4C-8B66-7A8A9EDF710F}" name="Diff" dataDxfId="34">
       <calculatedColumnFormula>Table6[[#This Row],[N_y_coord]]-I1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -21343,25 +21361,25 @@
     <tableColumn id="7" xr3:uid="{E26E6331-D34F-3145-8E97-0A648A1F2B8F}" name="Normalised cy">
       <calculatedColumnFormula>(D2-$B$17)/$B$15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{DFED5905-F988-8F4C-B699-BDDBC0FA0152}" name="Normalised r" dataDxfId="34">
+    <tableColumn id="8" xr3:uid="{DFED5905-F988-8F4C-B699-BDDBC0FA0152}" name="Normalised r" dataDxfId="33">
       <calculatedColumnFormula>Table4[[#This Row],[r]]/$B$14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{21842F81-7318-4F2F-A987-99DB911BB622}" name="Normalised point x" dataDxfId="33">
+    <tableColumn id="11" xr3:uid="{21842F81-7318-4F2F-A987-99DB911BB622}" name="Normalised point x" dataDxfId="32">
       <calculatedColumnFormula>(F2-$B$16)/$B$14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{2F0C8D18-AC21-4BFA-8634-0EF83E1B31C4}" name="Normalised point y" dataDxfId="32">
+    <tableColumn id="12" xr3:uid="{2F0C8D18-AC21-4BFA-8634-0EF83E1B31C4}" name="Normalised point y" dataDxfId="31">
       <calculatedColumnFormula>(G2-$B$17)/$B$15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{CF3DAEC9-B770-E04B-9BA2-DF1956F330F2}" name="Vector x" dataDxfId="31">
+    <tableColumn id="13" xr3:uid="{CF3DAEC9-B770-E04B-9BA2-DF1956F330F2}" name="Vector x" dataDxfId="30">
       <calculatedColumnFormula>Table4[[#This Row],[Point x]]-Table4[[#This Row],[cx]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{B437D90B-3874-5B40-B826-B04344334107}" name="Vector y" dataDxfId="30">
+    <tableColumn id="14" xr3:uid="{B437D90B-3874-5B40-B826-B04344334107}" name="Vector y" dataDxfId="29">
       <calculatedColumnFormula>Table4[[#This Row],[Point y]]-Table4[[#This Row],[cy]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{4BAAE237-808A-EC40-BC29-D90C3BB6DB7E}" name="Angle" dataDxfId="29">
+    <tableColumn id="15" xr3:uid="{4BAAE237-808A-EC40-BC29-D90C3BB6DB7E}" name="Angle" dataDxfId="28">
       <calculatedColumnFormula>ATAN2(Table4[[#This Row],[Vector x]], Table4[[#This Row],[Vector y]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{6F748C24-4614-F74E-B4AF-493832427E92}" name="Diff" dataDxfId="28">
+    <tableColumn id="16" xr3:uid="{6F748C24-4614-F74E-B4AF-493832427E92}" name="Diff" dataDxfId="27">
       <calculatedColumnFormula>Table4[[#This Row],[Angle]]-O1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -21374,40 +21392,40 @@
   <autoFilter ref="A1:O31" xr:uid="{040F2602-18DC-4828-BDBB-3983CF959EF0}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{44957AC2-150E-4D54-8DFF-47C6DE4837E1}" name="Index"/>
-    <tableColumn id="11" xr3:uid="{D37A6657-5F7A-44CF-BB14-0492B6727EED}" name="Normalised index" dataDxfId="27">
+    <tableColumn id="11" xr3:uid="{D37A6657-5F7A-44CF-BB14-0492B6727EED}" name="Normalised index" dataDxfId="26">
       <calculatedColumnFormula>Table2[[#This Row],[Index]]/29</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{981E9B40-AB01-4170-9457-2F8450494A45}" name="Peak x"/>
-    <tableColumn id="12" xr3:uid="{D234EE7A-C91F-4307-A7C9-B59ED7E9FD14}" name="Normalised peak x" dataDxfId="26">
+    <tableColumn id="12" xr3:uid="{D234EE7A-C91F-4307-A7C9-B59ED7E9FD14}" name="Normalised peak x" dataDxfId="25">
       <calculatedColumnFormula>Table2[[#This Row],[Peak x]]/215.9</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{EBED7C4B-D300-4A26-BB9A-9EF58228FD03}" name="Peak y"/>
-    <tableColumn id="7" xr3:uid="{3615D777-450C-438B-AC7A-5D219E4472EF}" name="Phase diff" dataDxfId="25">
+    <tableColumn id="7" xr3:uid="{3615D777-450C-438B-AC7A-5D219E4472EF}" name="Phase diff" dataDxfId="24">
       <calculatedColumnFormula>((Table2[[#This Row],[Peak y]]-$E$2)/(Table2[[#Totals],[Normalised Time period]]*215.9))*2*PI()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{F55E4E03-14FC-45F0-B207-C142C9DA0C80}" name="Normalised phase diff" dataDxfId="24">
+    <tableColumn id="8" xr3:uid="{F55E4E03-14FC-45F0-B207-C142C9DA0C80}" name="Normalised phase diff" dataDxfId="23">
       <calculatedColumnFormula>MOD(Table2[[#This Row],[Phase diff]] + PI(), 2*PI())-PI()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A4692EB8-CC59-443E-9174-A83F5E14B7C5}" name="Trough x" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{FB6AB5F6-49C5-4F20-8435-137A1BE63134}" name="Normalised trough x" dataDxfId="22">
+    <tableColumn id="5" xr3:uid="{A4692EB8-CC59-443E-9174-A83F5E14B7C5}" name="Trough x" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{FB6AB5F6-49C5-4F20-8435-137A1BE63134}" name="Normalised trough x" dataDxfId="21">
       <calculatedColumnFormula>Table2[[#This Row],[Trough x]]/215.9</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1069BC11-54D8-6E48-B963-16162F3E9205}" name="Amplitude" totalsRowFunction="custom" dataDxfId="21">
+    <tableColumn id="4" xr3:uid="{1069BC11-54D8-6E48-B963-16162F3E9205}" name="Amplitude" totalsRowFunction="custom" dataDxfId="20">
       <calculatedColumnFormula>(Table2[[#This Row],[Normalised peak x]]-Table2[[#This Row],[Normalised trough x]])/2</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(Table2[Amplitude])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{EDA54898-A45C-4046-A157-AF456FF9FD7F}" name="Second peak y" dataDxfId="20"/>
-    <tableColumn id="10" xr3:uid="{2076063F-7B8F-404B-BA8D-29040976D0DA}" name="Normalised Time period" totalsRowFunction="custom" dataDxfId="19">
+    <tableColumn id="9" xr3:uid="{EDA54898-A45C-4046-A157-AF456FF9FD7F}" name="Second peak y" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{2076063F-7B8F-404B-BA8D-29040976D0DA}" name="Normalised Time period" totalsRowFunction="custom" dataDxfId="18">
       <calculatedColumnFormula>ABS(Table2[[#This Row],[Second peak y]]-Table2[[#This Row],[Peak y]])/215.9</calculatedColumnFormula>
       <totalsRowFormula>AVERAGE(Table2[Normalised Time period])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{821CB24A-F0FE-FC40-88CF-9EDE12C531AB}" name="Column1" dataDxfId="18">
+    <tableColumn id="22" xr3:uid="{821CB24A-F0FE-FC40-88CF-9EDE12C531AB}" name="Column1" dataDxfId="17">
       <calculatedColumnFormula>2*PI()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{7A41A7E4-CDF7-C742-AE54-75B692938063}" name="Phase diffs shifted" dataDxfId="17">
+    <tableColumn id="20" xr3:uid="{7A41A7E4-CDF7-C742-AE54-75B692938063}" name="Phase diffs shifted" dataDxfId="16">
       <calculatedColumnFormula>Table2[[#This Row],[Normalised phase diff]]+Table2[[#This Row],[Column1]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{A62CB5B6-6E76-CC44-9A30-22297DD974B8}" name="Estimate" dataDxfId="16">
+    <tableColumn id="23" xr3:uid="{A62CB5B6-6E76-CC44-9A30-22297DD974B8}" name="Estimate" dataDxfId="15">
       <calculatedColumnFormula>$W$14-ABS($W$15*Table2[[#This Row],[Normalised index]] - $W$14)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -21421,50 +21439,50 @@
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{6554079B-A375-4D4F-9D66-7BB129CC3170}" name="UB"/>
     <tableColumn id="2" xr3:uid="{28C91AC0-2938-AE42-94E8-D67032B41CF6}" name="LB"/>
-    <tableColumn id="10" xr3:uid="{B791D2C5-4765-4441-8A12-D5D64BB1C0B3}" name="Normalised UB" dataDxfId="15">
+    <tableColumn id="10" xr3:uid="{B791D2C5-4765-4441-8A12-D5D64BB1C0B3}" name="Normalised UB" dataDxfId="14">
       <calculatedColumnFormula>Table24[[#This Row],[UB]]/197</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{94CD11FC-3723-3546-B210-35B1B4BF2C09}" name="Normalised LB" dataDxfId="14">
+    <tableColumn id="11" xr3:uid="{94CD11FC-3723-3546-B210-35B1B4BF2C09}" name="Normalised LB" dataDxfId="13">
       <calculatedColumnFormula>Table24[[#This Row],[LB]]/197</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D58D9134-60FB-5745-8EC6-1A1070215B1D}" name="Height" dataDxfId="13">
+    <tableColumn id="3" xr3:uid="{D58D9134-60FB-5745-8EC6-1A1070215B1D}" name="Height" dataDxfId="12">
       <calculatedColumnFormula>ABS(D2-C2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2F98C45A-E818-7440-9EAF-A97EC07ABC50}" name="ry" dataDxfId="12">
+    <tableColumn id="4" xr3:uid="{2F98C45A-E818-7440-9EAF-A97EC07ABC50}" name="ry" dataDxfId="11">
       <calculatedColumnFormula>Table24[[#This Row],[Height]]/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{044AA7A7-C606-8B48-9808-A9AA3ED11334}" name="ry_est" dataDxfId="11">
+    <tableColumn id="5" xr3:uid="{044AA7A7-C606-8B48-9808-A9AA3ED11334}" name="ry_est" dataDxfId="10">
       <calculatedColumnFormula>MIN($Q$2*ABS((Table24[[#This Row],[Normalised Index]]+$S$5))+$Q$5, $T$1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{C6EF6CFA-8152-BB40-BA90-80141A88792F}" name="Normalised Index" dataDxfId="10">
+    <tableColumn id="12" xr3:uid="{C6EF6CFA-8152-BB40-BA90-80141A88792F}" name="Normalised Index" dataDxfId="9">
       <calculatedColumnFormula>Table24[[#This Row],[index]]/36</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{D0C4002B-E25C-974F-99AC-8E6D390FA996}" name="index"/>
-    <tableColumn id="7" xr3:uid="{49F16935-6843-B14A-9A06-1612AD4AEF88}" name="gap" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{49F16935-6843-B14A-9A06-1612AD4AEF88}" name="gap" dataDxfId="8">
       <calculatedColumnFormula>ABS(A3-Table24[[#This Row],[LB]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{771981F4-9B94-204A-BE09-F313AE83ABCD}" name="est_ub" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{771981F4-9B94-204A-BE09-F313AE83ABCD}" name="est_ub" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8D37312-8839-0941-86C0-D9CE4CAF9E9F}" name="Table1" displayName="Table1" ref="A1:F33" totalsRowShown="0" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8D37312-8839-0941-86C0-D9CE4CAF9E9F}" name="Table1" displayName="Table1" ref="A1:F33" totalsRowShown="0" dataDxfId="6">
   <autoFilter ref="A1:F33" xr:uid="{C8D37312-8839-0941-86C0-D9CE4CAF9E9F}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B87A1C0B-7882-3E49-8D76-EC95789CACBF}" name="Square boundaries" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{BA36DE9F-39FC-8946-9F32-B2D7A653793A}" name="NormBounds" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{B87A1C0B-7882-3E49-8D76-EC95789CACBF}" name="Square boundaries" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{BA36DE9F-39FC-8946-9F32-B2D7A653793A}" name="NormBounds" dataDxfId="4">
       <calculatedColumnFormula>Table1[[#This Row],[Square boundaries]]/123</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F565D984-41B2-8542-8055-12DC8BBD0804}" name="Width" dataDxfId="4">
+    <tableColumn id="2" xr3:uid="{F565D984-41B2-8542-8055-12DC8BBD0804}" name="Width" dataDxfId="3">
       <calculatedColumnFormula>Table1[[#This Row],[NormBounds]]-A1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2ACC5A59-A55B-CB46-8F44-47411D1B0DD5}" name="Matthew" dataDxfId="3">
+    <tableColumn id="3" xr3:uid="{2ACC5A59-A55B-CB46-8F44-47411D1B0DD5}" name="Matthew" dataDxfId="2">
       <calculatedColumnFormula>(3.2206*POWER(Table1[[#This Row],[NormIndex]], 3) - 5.4091*POWER(Table1[[#This Row],[NormIndex]], 2) + 3.1979*Table1[[#This Row],[NormIndex]])/1.0094</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7C336364-6A4B-DE42-A11E-2B65FA70EB7A}" name="Index" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{ACD77800-9688-064B-A25F-49E175F39DAE}" name="NormIndex" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{7C336364-6A4B-DE42-A11E-2B65FA70EB7A}" name="Index" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{ACD77800-9688-064B-A25F-49E175F39DAE}" name="NormIndex" dataDxfId="0">
       <calculatedColumnFormula>Table1[[#This Row],[Index]]/31</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -21791,8 +21809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBD11D3-C52D-2E44-9DCD-36B6FFFDB589}">
   <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21803,13 +21821,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
         <v>87</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
@@ -21935,7 +21953,7 @@
         <v>5.6101522283700828E-2</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D9">
         <f>Table9[[#This Row],[x]]-B8</f>
@@ -21999,7 +22017,7 @@
         <v>8.2941063121094505E-2</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13">
         <f>Table9[[#This Row],[x]]-B12</f>
@@ -22127,7 +22145,7 @@
         <v>0.14039144438021306</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D21">
         <f>Table9[[#This Row],[x]]-B20</f>
@@ -22191,7 +22209,7 @@
         <v>0.16709334654664576</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25">
         <f>Table9[[#This Row],[x]]-B24</f>
@@ -22319,7 +22337,7 @@
         <v>0.22528697662895369</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D33">
         <f>Table9[[#This Row],[x]]-B32</f>
@@ -22383,7 +22401,7 @@
         <v>0.25300740496049773</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D37">
         <f>Table9[[#This Row],[x]]-B36</f>
@@ -22511,7 +22529,7 @@
         <v>0.31067800809315388</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D45">
         <f>Table9[[#This Row],[x]]-B44</f>
@@ -22575,7 +22593,7 @@
         <v>0.33765518760150853</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D49">
         <f>Table9[[#This Row],[x]]-B48</f>
@@ -22703,7 +22721,7 @@
         <v>0.39513309659481927</v>
       </c>
       <c r="C57" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D57">
         <f>Table9[[#This Row],[x]]-B56</f>
@@ -22767,7 +22785,7 @@
         <v>0.42211027610317398</v>
       </c>
       <c r="C61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D61">
         <f>Table9[[#This Row],[x]]-B60</f>
@@ -22895,7 +22913,7 @@
         <v>0.48019379524871308</v>
       </c>
       <c r="C69" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D69">
         <f>Table9[[#This Row],[x]]-B68</f>
@@ -22959,7 +22977,7 @@
         <v>0.5065928923390316</v>
       </c>
       <c r="C73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D73">
         <f>Table9[[#This Row],[x]]-B72</f>
@@ -23087,7 +23105,7 @@
         <v>0.56407080133234233</v>
       </c>
       <c r="C81" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D81">
         <f>Table9[[#This Row],[x]]-B80</f>
@@ -23151,7 +23169,7 @@
         <v>0.59115809177746581</v>
       </c>
       <c r="C85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D85">
         <f>Table9[[#This Row],[x]]-B84</f>
@@ -23279,7 +23297,7 @@
         <v>0.6487736394417376</v>
       </c>
       <c r="C93" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D93">
         <f>Table9[[#This Row],[x]]-B92</f>
@@ -23343,7 +23361,7 @@
         <v>0.67583340215266885</v>
       </c>
       <c r="C97" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D97">
         <f>Table9[[#This Row],[x]]-B96</f>
@@ -23407,7 +23425,7 @@
         <v>0.70181958323010429</v>
       </c>
       <c r="C101" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D101">
         <f>Table9[[#This Row],[x]]-B100</f>
@@ -23535,7 +23553,7 @@
         <v>0.76004074104660457</v>
       </c>
       <c r="C109" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D109">
         <f>Table9[[#This Row],[x]]-B108</f>
@@ -23599,7 +23617,7 @@
         <v>0.78624714399757756</v>
       </c>
       <c r="C113" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D113">
         <f>Table9[[#This Row],[x]]-B112</f>
@@ -23727,7 +23745,7 @@
         <v>0.8447160514218075</v>
       </c>
       <c r="C121" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D121">
         <f>Table9[[#This Row],[x]]-B120</f>
@@ -23791,7 +23809,7 @@
         <v>0.87083987117020412</v>
       </c>
       <c r="C125" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D125">
         <f>Table9[[#This Row],[x]]-B124</f>
@@ -23919,7 +23937,7 @@
         <v>0.92941888953120277</v>
       </c>
       <c r="C133" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D133">
         <f>Table9[[#This Row],[x]]-B132</f>
@@ -23983,7 +24001,7 @@
         <v>0.95570787568475246</v>
       </c>
       <c r="C137" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D137">
         <f>Table9[[#This Row],[x]]-B136</f>

--- a/analysis/op_art_analysis.xlsx
+++ b/analysis/op_art_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hettysymes/Documents/op_art_generator/analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hettysymes/PycharmProjects/op_art_generator/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E863989-69C7-8F49-8FA8-2B5CB0DE669B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B805EFB-6E77-0042-B999-FA8C5C8ED532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{F32E88F0-E047-FC4B-8F82-E7C145B1565C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="3" xr2:uid="{F32E88F0-E047-FC4B-8F82-E7C145B1565C}"/>
   </bookViews>
   <sheets>
     <sheet name="Cantus Firmus" sheetId="8" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="104">
   <si>
     <t>Index</t>
   </si>
@@ -53,13 +53,7 @@
     <t>N_index</t>
   </si>
   <si>
-    <t>N_x_coord</t>
-  </si>
-  <si>
     <t>y coord</t>
-  </si>
-  <si>
-    <t>N_y_coord</t>
   </si>
   <si>
     <t>Width</t>
@@ -257,13 +251,7 @@
     <t>Square boundaries</t>
   </si>
   <si>
-    <t>NormBounds</t>
-  </si>
-  <si>
     <t>Matthew</t>
-  </si>
-  <si>
-    <t>NormIndex</t>
   </si>
   <si>
     <t>123x123</t>
@@ -303,9 +291,6 @@
   </si>
   <si>
     <t>Note: black means looking at the BOTTOM of that coloured curve!</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>green</t>
@@ -349,12 +334,33 @@
   <si>
     <t>grey6</t>
   </si>
+  <si>
+    <t>Index2</t>
+  </si>
+  <si>
+    <t>Vertical Line X Position</t>
+  </si>
+  <si>
+    <t>X Position</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>&lt;- Piecewise</t>
+  </si>
+  <si>
+    <t>Y Position</t>
+  </si>
+  <si>
+    <t>Cell Height</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -387,6 +393,14 @@
       <color rgb="FFCE9178"/>
       <name val="Menlo"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -445,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -458,6 +472,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,6 +514,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -517,7 +533,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1562,6 +1577,373 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>Blaze!$K$2:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.47400207680397471</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47568834180456659</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49771096271229653</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.43110349518891733</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50964971891648703</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4785549923055728</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.62367495825650987</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56968075293755782</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.73702569159629594</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Blaze!$L$2:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.56333344912353001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5917301517334973</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66690384545988324</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72258431577942706</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72997015648201957</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78194084380026108</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80345758520781352</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90723033334423775</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.94490149345746022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-49C5-435F-9BA9-F1CCC0386959}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="677096967"/>
+        <c:axId val="677115399"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="677096967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="677115399"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="677115399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="677096967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
               <c:f>Blaze!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -1826,7 +2208,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -2161,7 +2543,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -3018,7 +3400,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -3560,7 +3942,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -4368,7 +4750,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -5260,7 +5642,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -6161,7 +6543,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -6175,6 +6557,36 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -6195,17 +6607,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:trendline>
             <c:name>Cubic trendline of true grid-line locations</c:name>
@@ -6262,7 +6664,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Movement In Squares'!$F$2:$F$33</c:f>
+              <c:f>'Movement In Squares'!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -6485,9 +6887,7 @@
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -6497,7 +6897,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Movement In Squares'!$F$2:$F$33</c:f>
+              <c:f>'Movement In Squares'!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -6602,107 +7002,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Movement In Squares'!$D$2:$D$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.6728308862953222E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.18294681665666887</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.25929812180660727</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3264248227382287</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.38496951787699335</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.4355748056483616</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.47888328447779355</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.51553755279074964</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.54618020901269015</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.57145385156907502</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.59200107888536502</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.60846448938702002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.62148668149950037</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.63171025364826661</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.6397778042587785</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.64633193175649717</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.65201523456688171</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.65747031111539345</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.66333975982749216</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.67026617912863762</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.67889216744429148</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.68986032319991253</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.70381324482096197</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.72139353073289947</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.74324377936118635</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.77000658913128106</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.80232455846864548</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.84084028579873971</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.88619636954702286</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.93903540813895647</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.0000000000000007</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>'Movement In Squares'!$E$2:$E$33</c:f>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
@@ -7062,62 +7362,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Width</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -7138,7 +7383,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="31750" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -7147,72 +7392,459 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="17"/>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Cantus Firmus'!$B$2:$B$144</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="143"/>
+                <c:pt idx="0">
+                  <c:v>2.0921077986070969E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7808241803617147E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1176260082032647E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9537258788229142E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4905166955707875E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8951743881961078E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3108431744983071E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.6101522283700828E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.998293280480084E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3699176920747655E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.9369890164340572E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.2941063121094505E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.8336499022765455E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.2795991961901622E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.6374597406887433E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1135243758086272</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.11801139648195556</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.12219561207916978</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.12786632532276271</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.14039144438021306</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.14650260137088117</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.15082445563905636</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.15456822748919538</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.16709334654664576</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.17158036721997413</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.17590222148814932</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.18140776832658906</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.19858507446252099</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.20351253888292459</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.20813719822721394</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.21229388609023594</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.22528697662895369</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.22974646956808983</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.23426101797561041</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.2395188152063204</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.25300740496049773</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.25812756352024663</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.26275222286453603</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.26627577284113746</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.28383846725576017</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.28821537699231981</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.29239959258953396</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.29762986208605174</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.31067800809315388</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.31615602719740138</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.32042282599719218</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.3246070415944064</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.33765518760150853</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.34117873757810996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.34514273130178658</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.35092355548214832</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.36911938778319159</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.37393674126682636</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.3784237619401547</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.38249786660060009</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.39513309659481927</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.39898697938172711</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.40325377818151792</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.40892449142511084</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.42211027610317398</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.42789110028353566</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.43146970572852156</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.43543369945219812</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.4535469485506648</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.45718060946403505</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.46150246373221027</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.46681531643130458</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.48019379524871308</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.48517631513750104</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.48982850221598262</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.49346216312935282</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.5065928923390316</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.51066699699947693</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.51509896220442097</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.52030170396674646</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.53775428744460041</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.54287444600434942</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.54727888347510123</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.5510226553252402</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.56407080133234233</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.56814490599278777</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.57210889971646439</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.57788972389682614</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.59115809177746581</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.59603050072948505</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.60032482726346803</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.60428882098714465</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.62220937594626591</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.62592562006221275</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.63035758526715668</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.63545021609271346</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.6487736394417376</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.65416907534340851</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.65862856828254468</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.6625925620062213</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.67583340215266885</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.67968728493957664</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.68356869546067667</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.68915682550169299</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.70181958323010429</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.70771051834723475</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.71194978941283349</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.71583119993393352</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.73353153301951723</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.73746799900900151</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.74195501968232991</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.74693753957111786</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.76004074104660457</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.76543617694827548</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.7700333085583726</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.77361191400335838</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.78624714399757756</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.79078922013929032</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.79489085253392799</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.80012112203044583</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.81790403831860603</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.82283150273900962</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.82767638395683663</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.83161284994632101</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.8447160514218075</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.84804690725906351</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.85250640019819968</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.8578192528972941</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.87083987117020412</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.87607014066672173</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.88108018828970192</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.88471384920307206</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.90233159908607929</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.90607537093621826</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.91031464200181689</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.9159853552454098</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.92941888953120277</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.93398849340710777</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.93844798634624393</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.94257714647507373</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.95570787568475246</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.9596993971426212</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.96413136234756525</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.96927904864150638</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.98678668758774479</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.99168662427395604</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.99625622814986114</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Cantus Firmus'!$D$2:$D$144</c:f>
@@ -7661,7 +8293,7 @@
         <c:dLbls>
           <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -7679,16 +8311,17 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -7700,11 +8333,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -7727,38 +8360,114 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="95000"/>
-                      <a:lumOff val="5000"/>
-                      <a:alpha val="42000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="75000"/>
-                      <a:alpha val="36000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Width</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="1048238784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -7783,30 +8492,14 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="39000">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="25000"/>
-          <a:lumOff val="75000"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -9006,37 +9699,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -9051,7 +9714,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>N_x_coord</c:v>
+                  <c:v>X Position</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9080,7 +9743,7 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -9335,6 +9998,7 @@
         <c:axId val="2061117960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -9545,36 +10209,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -9586,11 +10220,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Straight curve'!$I$1</c:f>
+              <c:f>'Straight curve'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>N_y_coord</c:v>
+                  <c:v>Cell Height</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9886,6 +10520,91 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Piecewise Linear fit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Straight curve'!$P$2:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Straight curve'!$Q$2:$Q$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8975-674D-9D07-00117982809F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -9901,6 +10620,7 @@
         <c:axId val="2061150728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -10120,6 +10840,628 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Straight curve'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Y Position</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Straight curve'!$H$2:$H$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4390243902439025E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.878048780487805E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3170731707317069E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.7560975609756101E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12195121951219512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14634146341463414</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17073170731707318</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1951219512195122</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21951219512195122</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.24390243902439024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.26829268292682928</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.29268292682926828</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.31707317073170732</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.34146341463414637</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.36585365853658536</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.3902439024390244</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.41463414634146339</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.43902439024390244</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.46341463414634149</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.48780487804878048</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.51219512195121952</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.53658536585365857</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.56097560975609762</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.58536585365853655</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.6097560975609756</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.63414634146341464</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.65853658536585369</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.68292682926829273</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.70731707317073167</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.73170731707317072</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.75609756097560976</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.78048780487804881</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.80487804878048785</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.82926829268292679</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.85365853658536583</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.87804878048780488</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.90243902439024393</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.92682926829268297</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.95121951219512191</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.97560975609756095</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Straight curve'!$I$2:$I$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2692912870977746E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.46299202420485E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5858266206956436E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12514960432835268</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1515118086376093</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.17692913107198219</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1987559023817968</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21765353987947181</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.23593700415847235</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25573227943728694</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.27779527121582248</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.30283464090024181</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.32914960111575431</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.35792125420596449</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.38933857654584914</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.42297637129171067</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.45845668569359549</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.49209448043945697</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.5242204641855045</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.55299211727571462</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.57987400661615729</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.60453542355062317</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.627165344454089</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.64804723388901986</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.66618896588678789</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.68319683963469546</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.69609447722685858</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.70691337469427751</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.71626770525562666</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.72822046097290605</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.74092912219009255</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.75718109043809312</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.77584250746704708</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.79582675912083833</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.81826770364932744</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.84387400245867705</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.87132282092405</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.90009447401426024</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.9329763632602146</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.96642518163109947</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.99949604725203067</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F7C8-DF41-A507-FE2B981F220C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2061150728"/>
+        <c:axId val="2061152776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2061150728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Index</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2061152776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2061152776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Y Position</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2061150728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:spPr>
             <a:ln w="38100" cap="rnd">
               <a:noFill/>
@@ -10656,373 +11998,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Blaze!$K$2:$K$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.47400207680397471</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.47568834180456659</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.49771096271229653</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.43110349518891733</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.50964971891648703</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.4785549923055728</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.62367495825650987</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.56968075293755782</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.73702569159629594</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Blaze!$L$2:$L$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.56333344912353001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5917301517334973</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.66690384545988324</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.72258431577942706</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.72997015648201957</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.78194084380026108</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.80345758520781352</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.90723033334423775</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.94490149345746022</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-49C5-435F-9BA9-F1CCC0386959}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="677096967"/>
-        <c:axId val="677115399"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="677096967"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="677115399"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="677115399"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="677096967"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -11418,6 +12393,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -16382,175 +17397,137 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
         <a:lumMod val="75000"/>
         <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="39000">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
             <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-          <a:alpha val="75000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:alpha val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -16559,21 +17536,25 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -16597,19 +17578,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -16619,55 +17602,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -16675,183 +17621,108 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-                <a:alpha val="42000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="75000"/>
-                <a:alpha val="36000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="95000"/>
-          <a:alpha val="39000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
@@ -16859,18 +17730,96 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:seriesLine>
   <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -16879,13 +17828,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -16894,12 +17844,540 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -16914,7 +18392,7 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -16927,14 +18405,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -20762,16 +22246,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>124278</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>124732</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>433937</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>46336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>564696</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>39737</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114213</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20798,16 +22282,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>259896</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>63046</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>71748</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98324</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>117022</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>63046</xdr:rowOff>
+      <xdr:colOff>599152</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>98324</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20830,6 +22314,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>657953</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>115455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>22291</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>115454</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8722773C-E697-E14D-A750-EAD2C58060AB}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2A4C1677-8FEE-4EF2-951E-7EFACD0F700A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -21241,12 +22766,12 @@
   <autoFilter ref="A1:D144" xr:uid="{1D7D9E80-8FAF-5141-8AC5-FB6F7F573140}"/>
   <tableColumns count="4">
     <tableColumn id="2" xr3:uid="{799F7FB1-EE95-C24B-ADED-2AB979F13372}" name="unnorm_x"/>
-    <tableColumn id="1" xr3:uid="{C2E477BD-1F78-3745-921B-6D8509540A13}" name="x" dataDxfId="47">
+    <tableColumn id="1" xr3:uid="{C2E477BD-1F78-3745-921B-6D8509540A13}" name="X" dataDxfId="47">
       <calculatedColumnFormula>Table9[[#This Row],[unnorm_x]]/$A$144</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{E5892D18-A190-FE46-99A6-CE2205838599}" name="Colour"/>
     <tableColumn id="5" xr3:uid="{0BEF3B22-D75A-DE42-9DBA-FCB0C1D2324D}" name="Width" dataDxfId="46">
-      <calculatedColumnFormula>Table9[[#This Row],[x]]-B1</calculatedColumnFormula>
+      <calculatedColumnFormula>Table9[[#This Row],[X]]-B1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -21312,7 +22837,7 @@
     <tableColumn id="4" xr3:uid="{32EC3548-475C-4C3E-83E6-D07D5C5D4800}" name="N_index" dataDxfId="40">
       <calculatedColumnFormula>Table5[[#This Row],[Index]]/$A$29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{11E47D72-2A9F-47C4-B9EC-A1EFEB97700F}" name="N_x_coord" dataDxfId="39">
+    <tableColumn id="5" xr3:uid="{11E47D72-2A9F-47C4-B9EC-A1EFEB97700F}" name="X Position" dataDxfId="39">
       <calculatedColumnFormula>Table5[[#This Row],[x coord]]/$N$1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -21329,11 +22854,11 @@
     <tableColumn id="3" xr3:uid="{E11A1173-A980-4EEE-BD80-93A840341053}" name="N_index" dataDxfId="36">
       <calculatedColumnFormula>Table6[[#This Row],[Index]]/$F$43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{34AD6BFB-8AC2-4601-8024-3404372E73AF}" name="N_y_coord" dataDxfId="35">
+    <tableColumn id="5" xr3:uid="{34AD6BFB-8AC2-4601-8024-3404372E73AF}" name="Y Position" dataDxfId="35">
       <calculatedColumnFormula>Table6[[#This Row],[y coord]]/$N$2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E906CC99-232D-6F4C-8B66-7A8A9EDF710F}" name="Diff" dataDxfId="34">
-      <calculatedColumnFormula>Table6[[#This Row],[N_y_coord]]-I1</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{E906CC99-232D-6F4C-8B66-7A8A9EDF710F}" name="Cell Height" dataDxfId="34">
+      <calculatedColumnFormula>Table6[[#This Row],[Y Position]]-I1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -21471,20 +22996,20 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8D37312-8839-0941-86C0-D9CE4CAF9E9F}" name="Table1" displayName="Table1" ref="A1:F33" totalsRowShown="0" dataDxfId="6">
   <autoFilter ref="A1:F33" xr:uid="{C8D37312-8839-0941-86C0-D9CE4CAF9E9F}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B87A1C0B-7882-3E49-8D76-EC95789CACBF}" name="Square boundaries" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{BA36DE9F-39FC-8946-9F32-B2D7A653793A}" name="NormBounds" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{ACD77800-9688-064B-A25F-49E175F39DAE}" name="Index" dataDxfId="1">
+      <calculatedColumnFormula>Table1[[#This Row],[Index2]]/31</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{BA36DE9F-39FC-8946-9F32-B2D7A653793A}" name="Vertical Line X Position" dataDxfId="0">
       <calculatedColumnFormula>Table1[[#This Row],[Square boundaries]]/123</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{F565D984-41B2-8542-8055-12DC8BBD0804}" name="Width" dataDxfId="3">
-      <calculatedColumnFormula>Table1[[#This Row],[NormBounds]]-A1</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{B87A1C0B-7882-3E49-8D76-EC95789CACBF}" name="Square boundaries" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{F565D984-41B2-8542-8055-12DC8BBD0804}" name="Width" dataDxfId="4">
+      <calculatedColumnFormula>Table1[[#This Row],[Vertical Line X Position]]-C1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2ACC5A59-A55B-CB46-8F44-47411D1B0DD5}" name="Matthew" dataDxfId="2">
-      <calculatedColumnFormula>(3.2206*POWER(Table1[[#This Row],[NormIndex]], 3) - 5.4091*POWER(Table1[[#This Row],[NormIndex]], 2) + 3.1979*Table1[[#This Row],[NormIndex]])/1.0094</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{2ACC5A59-A55B-CB46-8F44-47411D1B0DD5}" name="Matthew" dataDxfId="3">
+      <calculatedColumnFormula>(3.2206*POWER(Table1[[#This Row],[Index]], 3) - 5.4091*POWER(Table1[[#This Row],[Index]], 2) + 3.1979*Table1[[#This Row],[Index]])/1.0094</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7C336364-6A4B-DE42-A11E-2B65FA70EB7A}" name="Index" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{ACD77800-9688-064B-A25F-49E175F39DAE}" name="NormIndex" dataDxfId="0">
-      <calculatedColumnFormula>Table1[[#This Row],[Index]]/31</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="4" xr3:uid="{7C336364-6A4B-DE42-A11E-2B65FA70EB7A}" name="Index2" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -21809,8 +23334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBD11D3-C52D-2E44-9DCD-36B6FFFDB589}">
   <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+    <sheetView zoomScale="75" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J144" sqref="J144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21821,16 +23346,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -21842,7 +23367,7 @@
         <v>2.0921077986070969E-3</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D2">
         <v>2.0920000000000001E-3</v>
@@ -21857,10 +23382,10 @@
         <v>5.7808241803617147E-3</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D3">
-        <f>Table9[[#This Row],[x]]-B2</f>
+        <f>Table9[[#This Row],[X]]-B2</f>
         <v>3.6887163817546178E-3</v>
       </c>
     </row>
@@ -21873,10 +23398,10 @@
         <v>1.1176260082032647E-2</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D4">
-        <f>Table9[[#This Row],[x]]-B3</f>
+        <f>Table9[[#This Row],[X]]-B3</f>
         <v>5.395435901670932E-3</v>
       </c>
     </row>
@@ -21889,10 +23414,10 @@
         <v>2.9537258788229142E-2</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D5">
-        <f>Table9[[#This Row],[x]]-B4</f>
+        <f>Table9[[#This Row],[X]]-B4</f>
         <v>1.8360998706196494E-2</v>
       </c>
     </row>
@@ -21905,10 +23430,10 @@
         <v>3.4905166955707875E-2</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D6">
-        <f>Table9[[#This Row],[x]]-B5</f>
+        <f>Table9[[#This Row],[X]]-B5</f>
         <v>5.3679081674787334E-3</v>
       </c>
     </row>
@@ -21921,10 +23446,10 @@
         <v>3.8951743881961078E-2</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D7">
-        <f>Table9[[#This Row],[x]]-B6</f>
+        <f>Table9[[#This Row],[X]]-B6</f>
         <v>4.0465769262532023E-3</v>
       </c>
     </row>
@@ -21937,10 +23462,10 @@
         <v>4.3108431744983071E-2</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D8">
-        <f>Table9[[#This Row],[x]]-B7</f>
+        <f>Table9[[#This Row],[X]]-B7</f>
         <v>4.1566878630219933E-3</v>
       </c>
     </row>
@@ -21953,10 +23478,10 @@
         <v>5.6101522283700828E-2</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D9">
-        <f>Table9[[#This Row],[x]]-B8</f>
+        <f>Table9[[#This Row],[X]]-B8</f>
         <v>1.2993090538717757E-2</v>
       </c>
     </row>
@@ -21969,10 +23494,10 @@
         <v>5.998293280480084E-2</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D10">
-        <f>Table9[[#This Row],[x]]-B9</f>
+        <f>Table9[[#This Row],[X]]-B9</f>
         <v>3.8814105211000122E-3</v>
       </c>
     </row>
@@ -21985,10 +23510,10 @@
         <v>6.3699176920747655E-2</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D11">
-        <f>Table9[[#This Row],[x]]-B10</f>
+        <f>Table9[[#This Row],[X]]-B10</f>
         <v>3.7162441159468151E-3</v>
       </c>
     </row>
@@ -22001,10 +23526,10 @@
         <v>6.9369890164340572E-2</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D12">
-        <f>Table9[[#This Row],[x]]-B11</f>
+        <f>Table9[[#This Row],[X]]-B11</f>
         <v>5.6707132435929175E-3</v>
       </c>
     </row>
@@ -22017,10 +23542,10 @@
         <v>8.2941063121094505E-2</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D13">
-        <f>Table9[[#This Row],[x]]-B12</f>
+        <f>Table9[[#This Row],[X]]-B12</f>
         <v>1.3571172956753932E-2</v>
       </c>
     </row>
@@ -22033,10 +23558,10 @@
         <v>8.8336499022765455E-2</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D14">
-        <f>Table9[[#This Row],[x]]-B13</f>
+        <f>Table9[[#This Row],[X]]-B13</f>
         <v>5.3954359016709502E-3</v>
       </c>
     </row>
@@ -22049,10 +23574,10 @@
         <v>9.2795991961901622E-2</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D15">
-        <f>Table9[[#This Row],[x]]-B14</f>
+        <f>Table9[[#This Row],[X]]-B14</f>
         <v>4.4594929391361671E-3</v>
       </c>
     </row>
@@ -22065,10 +23590,10 @@
         <v>9.6374597406887433E-2</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D16">
-        <f>Table9[[#This Row],[x]]-B15</f>
+        <f>Table9[[#This Row],[X]]-B15</f>
         <v>3.5786054449858107E-3</v>
       </c>
     </row>
@@ -22081,10 +23606,10 @@
         <v>0.1135243758086272</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D17">
-        <f>Table9[[#This Row],[x]]-B16</f>
+        <f>Table9[[#This Row],[X]]-B16</f>
         <v>1.7149778401739771E-2</v>
       </c>
     </row>
@@ -22097,10 +23622,10 @@
         <v>0.11801139648195556</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D18">
-        <f>Table9[[#This Row],[x]]-B17</f>
+        <f>Table9[[#This Row],[X]]-B17</f>
         <v>4.4870206733283596E-3</v>
       </c>
     </row>
@@ -22113,10 +23638,10 @@
         <v>0.12219561207916978</v>
       </c>
       <c r="C19" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D19">
-        <f>Table9[[#This Row],[x]]-B18</f>
+        <f>Table9[[#This Row],[X]]-B18</f>
         <v>4.1842155972142137E-3</v>
       </c>
     </row>
@@ -22129,10 +23654,10 @@
         <v>0.12786632532276271</v>
       </c>
       <c r="C20" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D20">
-        <f>Table9[[#This Row],[x]]-B19</f>
+        <f>Table9[[#This Row],[X]]-B19</f>
         <v>5.6707132435929314E-3</v>
       </c>
     </row>
@@ -22145,10 +23670,10 @@
         <v>0.14039144438021306</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D21">
-        <f>Table9[[#This Row],[x]]-B20</f>
+        <f>Table9[[#This Row],[X]]-B20</f>
         <v>1.2525119057450351E-2</v>
       </c>
     </row>
@@ -22161,10 +23686,10 @@
         <v>0.14650260137088117</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D22">
-        <f>Table9[[#This Row],[x]]-B21</f>
+        <f>Table9[[#This Row],[X]]-B21</f>
         <v>6.1111569906681096E-3</v>
       </c>
     </row>
@@ -22177,10 +23702,10 @@
         <v>0.15082445563905636</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D23">
-        <f>Table9[[#This Row],[x]]-B22</f>
+        <f>Table9[[#This Row],[X]]-B22</f>
         <v>4.3218542681751904E-3</v>
       </c>
     </row>
@@ -22193,10 +23718,10 @@
         <v>0.15456822748919538</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D24">
-        <f>Table9[[#This Row],[x]]-B23</f>
+        <f>Table9[[#This Row],[X]]-B23</f>
         <v>3.7437718501390216E-3</v>
       </c>
     </row>
@@ -22209,10 +23734,10 @@
         <v>0.16709334654664576</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D25">
-        <f>Table9[[#This Row],[x]]-B24</f>
+        <f>Table9[[#This Row],[X]]-B24</f>
         <v>1.2525119057450379E-2</v>
       </c>
     </row>
@@ -22225,10 +23750,10 @@
         <v>0.17158036721997413</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D26">
-        <f>Table9[[#This Row],[x]]-B25</f>
+        <f>Table9[[#This Row],[X]]-B25</f>
         <v>4.4870206733283735E-3</v>
       </c>
     </row>
@@ -22241,10 +23766,10 @@
         <v>0.17590222148814932</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D27">
-        <f>Table9[[#This Row],[x]]-B26</f>
+        <f>Table9[[#This Row],[X]]-B26</f>
         <v>4.3218542681751904E-3</v>
       </c>
     </row>
@@ -22257,10 +23782,10 @@
         <v>0.18140776832658906</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D28">
-        <f>Table9[[#This Row],[x]]-B27</f>
+        <f>Table9[[#This Row],[X]]-B27</f>
         <v>5.5055468384397344E-3</v>
       </c>
     </row>
@@ -22273,10 +23798,10 @@
         <v>0.19858507446252099</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D29">
-        <f>Table9[[#This Row],[x]]-B28</f>
+        <f>Table9[[#This Row],[X]]-B28</f>
         <v>1.7177306135931936E-2</v>
       </c>
     </row>
@@ -22289,10 +23814,10 @@
         <v>0.20351253888292459</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D30">
-        <f>Table9[[#This Row],[x]]-B29</f>
+        <f>Table9[[#This Row],[X]]-B29</f>
         <v>4.9274644204035933E-3</v>
       </c>
     </row>
@@ -22305,10 +23830,10 @@
         <v>0.20813719822721394</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D31">
-        <f>Table9[[#This Row],[x]]-B30</f>
+        <f>Table9[[#This Row],[X]]-B30</f>
         <v>4.6246593442893502E-3</v>
       </c>
     </row>
@@ -22321,10 +23846,10 @@
         <v>0.21229388609023594</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D32">
-        <f>Table9[[#This Row],[x]]-B31</f>
+        <f>Table9[[#This Row],[X]]-B31</f>
         <v>4.1566878630220072E-3</v>
       </c>
     </row>
@@ -22337,10 +23862,10 @@
         <v>0.22528697662895369</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D33">
-        <f>Table9[[#This Row],[x]]-B32</f>
+        <f>Table9[[#This Row],[X]]-B32</f>
         <v>1.299309053871775E-2</v>
       </c>
     </row>
@@ -22353,10 +23878,10 @@
         <v>0.22974646956808983</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D34">
-        <f>Table9[[#This Row],[x]]-B33</f>
+        <f>Table9[[#This Row],[X]]-B33</f>
         <v>4.4594929391361393E-3</v>
       </c>
     </row>
@@ -22369,10 +23894,10 @@
         <v>0.23426101797561041</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D35">
-        <f>Table9[[#This Row],[x]]-B34</f>
+        <f>Table9[[#This Row],[X]]-B34</f>
         <v>4.51454840752058E-3</v>
       </c>
     </row>
@@ -22385,10 +23910,10 @@
         <v>0.2395188152063204</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D36">
-        <f>Table9[[#This Row],[x]]-B35</f>
+        <f>Table9[[#This Row],[X]]-B35</f>
         <v>5.2577972307099874E-3</v>
       </c>
     </row>
@@ -22401,10 +23926,10 @@
         <v>0.25300740496049773</v>
       </c>
       <c r="C37" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D37">
-        <f>Table9[[#This Row],[x]]-B36</f>
+        <f>Table9[[#This Row],[X]]-B36</f>
         <v>1.3488589754177327E-2</v>
       </c>
     </row>
@@ -22417,10 +23942,10 @@
         <v>0.25812756352024663</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D38">
-        <f>Table9[[#This Row],[x]]-B37</f>
+        <f>Table9[[#This Row],[X]]-B37</f>
         <v>5.1201585597488997E-3</v>
       </c>
     </row>
@@ -22433,10 +23958,10 @@
         <v>0.26275222286453603</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D39">
-        <f>Table9[[#This Row],[x]]-B38</f>
+        <f>Table9[[#This Row],[X]]-B38</f>
         <v>4.6246593442894057E-3</v>
       </c>
     </row>
@@ -22449,10 +23974,10 @@
         <v>0.26627577284113746</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D40">
-        <f>Table9[[#This Row],[x]]-B39</f>
+        <f>Table9[[#This Row],[X]]-B39</f>
         <v>3.5235499766014255E-3</v>
       </c>
     </row>
@@ -22465,10 +23990,10 @@
         <v>0.28383846725576017</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D41">
-        <f>Table9[[#This Row],[x]]-B40</f>
+        <f>Table9[[#This Row],[X]]-B40</f>
         <v>1.7562694414622715E-2</v>
       </c>
     </row>
@@ -22481,10 +24006,10 @@
         <v>0.28821537699231981</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D42">
-        <f>Table9[[#This Row],[x]]-B41</f>
+        <f>Table9[[#This Row],[X]]-B41</f>
         <v>4.376909736559631E-3</v>
       </c>
     </row>
@@ -22497,10 +24022,10 @@
         <v>0.29239959258953396</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D43">
-        <f>Table9[[#This Row],[x]]-B42</f>
+        <f>Table9[[#This Row],[X]]-B42</f>
         <v>4.1842155972141581E-3</v>
       </c>
     </row>
@@ -22513,10 +24038,10 @@
         <v>0.29762986208605174</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D44">
-        <f>Table9[[#This Row],[x]]-B43</f>
+        <f>Table9[[#This Row],[X]]-B43</f>
         <v>5.2302694965177809E-3</v>
       </c>
     </row>
@@ -22529,10 +24054,10 @@
         <v>0.31067800809315388</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D45">
-        <f>Table9[[#This Row],[x]]-B44</f>
+        <f>Table9[[#This Row],[X]]-B44</f>
         <v>1.3048146007102135E-2</v>
       </c>
     </row>
@@ -22545,10 +24070,10 @@
         <v>0.31615602719740138</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D46">
-        <f>Table9[[#This Row],[x]]-B45</f>
+        <f>Table9[[#This Row],[X]]-B45</f>
         <v>5.4780191042475002E-3</v>
       </c>
     </row>
@@ -22561,10 +24086,10 @@
         <v>0.32042282599719218</v>
       </c>
       <c r="C47" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D47">
-        <f>Table9[[#This Row],[x]]-B46</f>
+        <f>Table9[[#This Row],[X]]-B46</f>
         <v>4.2667987997908052E-3</v>
       </c>
     </row>
@@ -22577,10 +24102,10 @@
         <v>0.3246070415944064</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D48">
-        <f>Table9[[#This Row],[x]]-B47</f>
+        <f>Table9[[#This Row],[X]]-B47</f>
         <v>4.1842155972142137E-3</v>
       </c>
     </row>
@@ -22593,10 +24118,10 @@
         <v>0.33765518760150853</v>
       </c>
       <c r="C49" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D49">
-        <f>Table9[[#This Row],[x]]-B48</f>
+        <f>Table9[[#This Row],[X]]-B48</f>
         <v>1.3048146007102135E-2</v>
       </c>
     </row>
@@ -22609,10 +24134,10 @@
         <v>0.34117873757810996</v>
       </c>
       <c r="C50" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D50">
-        <f>Table9[[#This Row],[x]]-B49</f>
+        <f>Table9[[#This Row],[X]]-B49</f>
         <v>3.5235499766014255E-3</v>
       </c>
     </row>
@@ -22625,10 +24150,10 @@
         <v>0.34514273130178658</v>
       </c>
       <c r="C51" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D51">
-        <f>Table9[[#This Row],[x]]-B50</f>
+        <f>Table9[[#This Row],[X]]-B50</f>
         <v>3.9639937236766176E-3</v>
       </c>
     </row>
@@ -22641,10 +24166,10 @@
         <v>0.35092355548214832</v>
       </c>
       <c r="C52" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D52">
-        <f>Table9[[#This Row],[x]]-B51</f>
+        <f>Table9[[#This Row],[X]]-B51</f>
         <v>5.7808241803617433E-3</v>
       </c>
     </row>
@@ -22657,10 +24182,10 @@
         <v>0.36911938778319159</v>
       </c>
       <c r="C53" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D53">
-        <f>Table9[[#This Row],[x]]-B52</f>
+        <f>Table9[[#This Row],[X]]-B52</f>
         <v>1.8195832301043269E-2</v>
       </c>
     </row>
@@ -22673,10 +24198,10 @@
         <v>0.37393674126682636</v>
       </c>
       <c r="C54" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D54">
-        <f>Table9[[#This Row],[x]]-B53</f>
+        <f>Table9[[#This Row],[X]]-B53</f>
         <v>4.8173534836347676E-3</v>
       </c>
     </row>
@@ -22689,10 +24214,10 @@
         <v>0.3784237619401547</v>
       </c>
       <c r="C55" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D55">
-        <f>Table9[[#This Row],[x]]-B54</f>
+        <f>Table9[[#This Row],[X]]-B54</f>
         <v>4.4870206733283458E-3</v>
       </c>
     </row>
@@ -22705,10 +24230,10 @@
         <v>0.38249786660060009</v>
       </c>
       <c r="C56" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D56">
-        <f>Table9[[#This Row],[x]]-B55</f>
+        <f>Table9[[#This Row],[X]]-B55</f>
         <v>4.0741046604453879E-3</v>
       </c>
     </row>
@@ -22721,10 +24246,10 @@
         <v>0.39513309659481927</v>
       </c>
       <c r="C57" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D57">
-        <f>Table9[[#This Row],[x]]-B56</f>
+        <f>Table9[[#This Row],[X]]-B56</f>
         <v>1.2635229994219177E-2</v>
       </c>
     </row>
@@ -22737,10 +24262,10 @@
         <v>0.39898697938172711</v>
       </c>
       <c r="C58" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D58">
-        <f>Table9[[#This Row],[x]]-B57</f>
+        <f>Table9[[#This Row],[X]]-B57</f>
         <v>3.8538827869078474E-3</v>
       </c>
     </row>
@@ -22753,10 +24278,10 @@
         <v>0.40325377818151792</v>
       </c>
       <c r="C59" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D59">
-        <f>Table9[[#This Row],[x]]-B58</f>
+        <f>Table9[[#This Row],[X]]-B58</f>
         <v>4.2667987997908052E-3</v>
       </c>
     </row>
@@ -22769,10 +24294,10 @@
         <v>0.40892449142511084</v>
       </c>
       <c r="C60" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D60">
-        <f>Table9[[#This Row],[x]]-B59</f>
+        <f>Table9[[#This Row],[X]]-B59</f>
         <v>5.6707132435929175E-3</v>
       </c>
     </row>
@@ -22785,10 +24310,10 @@
         <v>0.42211027610317398</v>
       </c>
       <c r="C61" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D61">
-        <f>Table9[[#This Row],[x]]-B60</f>
+        <f>Table9[[#This Row],[X]]-B60</f>
         <v>1.3185784678063139E-2</v>
       </c>
     </row>
@@ -22801,10 +24326,10 @@
         <v>0.42789110028353566</v>
       </c>
       <c r="C62" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D62">
-        <f>Table9[[#This Row],[x]]-B61</f>
+        <f>Table9[[#This Row],[X]]-B61</f>
         <v>5.7808241803616878E-3</v>
       </c>
     </row>
@@ -22817,10 +24342,10 @@
         <v>0.43146970572852156</v>
       </c>
       <c r="C63" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D63">
-        <f>Table9[[#This Row],[x]]-B62</f>
+        <f>Table9[[#This Row],[X]]-B62</f>
         <v>3.5786054449858939E-3</v>
       </c>
     </row>
@@ -22833,10 +24358,10 @@
         <v>0.43543369945219812</v>
       </c>
       <c r="C64" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D64">
-        <f>Table9[[#This Row],[x]]-B63</f>
+        <f>Table9[[#This Row],[X]]-B63</f>
         <v>3.9639937236765621E-3</v>
       </c>
     </row>
@@ -22849,10 +24374,10 @@
         <v>0.4535469485506648</v>
       </c>
       <c r="C65" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D65">
-        <f>Table9[[#This Row],[x]]-B64</f>
+        <f>Table9[[#This Row],[X]]-B64</f>
         <v>1.8113249098466677E-2</v>
       </c>
     </row>
@@ -22865,10 +24390,10 @@
         <v>0.45718060946403505</v>
       </c>
       <c r="C66" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D66">
-        <f>Table9[[#This Row],[x]]-B65</f>
+        <f>Table9[[#This Row],[X]]-B65</f>
         <v>3.6336609133702513E-3</v>
       </c>
     </row>
@@ -22881,10 +24406,10 @@
         <v>0.46150246373221027</v>
       </c>
       <c r="C67" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D67">
-        <f>Table9[[#This Row],[x]]-B66</f>
+        <f>Table9[[#This Row],[X]]-B66</f>
         <v>4.3218542681752181E-3</v>
       </c>
     </row>
@@ -22897,10 +24422,10 @@
         <v>0.46681531643130458</v>
       </c>
       <c r="C68" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D68">
-        <f>Table9[[#This Row],[x]]-B67</f>
+        <f>Table9[[#This Row],[X]]-B67</f>
         <v>5.312852699094317E-3</v>
       </c>
     </row>
@@ -22913,10 +24438,10 @@
         <v>0.48019379524871308</v>
       </c>
       <c r="C69" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D69">
-        <f>Table9[[#This Row],[x]]-B68</f>
+        <f>Table9[[#This Row],[X]]-B68</f>
         <v>1.3378478817408501E-2</v>
       </c>
     </row>
@@ -22929,10 +24454,10 @@
         <v>0.48517631513750104</v>
       </c>
       <c r="C70" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D70">
-        <f>Table9[[#This Row],[x]]-B69</f>
+        <f>Table9[[#This Row],[X]]-B69</f>
         <v>4.9825198887879507E-3</v>
       </c>
     </row>
@@ -22945,10 +24470,10 @@
         <v>0.48982850221598262</v>
       </c>
       <c r="C71" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D71">
-        <f>Table9[[#This Row],[x]]-B70</f>
+        <f>Table9[[#This Row],[X]]-B70</f>
         <v>4.6521870784815844E-3</v>
       </c>
     </row>
@@ -22961,10 +24486,10 @@
         <v>0.49346216312935282</v>
       </c>
       <c r="C72" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D72">
-        <f>Table9[[#This Row],[x]]-B71</f>
+        <f>Table9[[#This Row],[X]]-B71</f>
         <v>3.6336609133701958E-3</v>
       </c>
     </row>
@@ -22977,10 +24502,10 @@
         <v>0.5065928923390316</v>
       </c>
       <c r="C73" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D73">
-        <f>Table9[[#This Row],[x]]-B72</f>
+        <f>Table9[[#This Row],[X]]-B72</f>
         <v>1.3130729209678782E-2</v>
       </c>
     </row>
@@ -22993,10 +24518,10 @@
         <v>0.51066699699947693</v>
       </c>
       <c r="C74" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D74">
-        <f>Table9[[#This Row],[x]]-B73</f>
+        <f>Table9[[#This Row],[X]]-B73</f>
         <v>4.0741046604453324E-3</v>
       </c>
     </row>
@@ -23009,10 +24534,10 @@
         <v>0.51509896220442097</v>
       </c>
       <c r="C75" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D75">
-        <f>Table9[[#This Row],[x]]-B74</f>
+        <f>Table9[[#This Row],[X]]-B74</f>
         <v>4.4319652049440439E-3</v>
       </c>
     </row>
@@ -23025,10 +24550,10 @@
         <v>0.52030170396674646</v>
       </c>
       <c r="C76" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D76">
-        <f>Table9[[#This Row],[x]]-B75</f>
+        <f>Table9[[#This Row],[X]]-B75</f>
         <v>5.2027417623254912E-3</v>
       </c>
     </row>
@@ -23041,10 +24566,10 @@
         <v>0.53775428744460041</v>
       </c>
       <c r="C77" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D77">
-        <f>Table9[[#This Row],[x]]-B76</f>
+        <f>Table9[[#This Row],[X]]-B76</f>
         <v>1.7452583477853945E-2</v>
       </c>
     </row>
@@ -23057,10 +24582,10 @@
         <v>0.54287444600434942</v>
       </c>
       <c r="C78" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D78">
-        <f>Table9[[#This Row],[x]]-B77</f>
+        <f>Table9[[#This Row],[X]]-B77</f>
         <v>5.1201585597490107E-3</v>
       </c>
     </row>
@@ -23073,10 +24598,10 @@
         <v>0.54727888347510123</v>
       </c>
       <c r="C79" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D79">
-        <f>Table9[[#This Row],[x]]-B78</f>
+        <f>Table9[[#This Row],[X]]-B78</f>
         <v>4.4044374707518097E-3</v>
       </c>
     </row>
@@ -23089,10 +24614,10 @@
         <v>0.5510226553252402</v>
       </c>
       <c r="C80" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D80">
-        <f>Table9[[#This Row],[x]]-B79</f>
+        <f>Table9[[#This Row],[X]]-B79</f>
         <v>3.7437718501389661E-3</v>
       </c>
     </row>
@@ -23105,10 +24630,10 @@
         <v>0.56407080133234233</v>
       </c>
       <c r="C81" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D81">
-        <f>Table9[[#This Row],[x]]-B80</f>
+        <f>Table9[[#This Row],[X]]-B80</f>
         <v>1.3048146007102135E-2</v>
       </c>
     </row>
@@ -23121,10 +24646,10 @@
         <v>0.56814490599278777</v>
       </c>
       <c r="C82" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D82">
-        <f>Table9[[#This Row],[x]]-B81</f>
+        <f>Table9[[#This Row],[X]]-B81</f>
         <v>4.0741046604454434E-3</v>
       </c>
     </row>
@@ -23137,10 +24662,10 @@
         <v>0.57210889971646439</v>
       </c>
       <c r="C83" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D83">
-        <f>Table9[[#This Row],[x]]-B82</f>
+        <f>Table9[[#This Row],[X]]-B82</f>
         <v>3.9639937236766176E-3</v>
       </c>
     </row>
@@ -23153,10 +24678,10 @@
         <v>0.57788972389682614</v>
       </c>
       <c r="C84" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D84">
-        <f>Table9[[#This Row],[x]]-B83</f>
+        <f>Table9[[#This Row],[X]]-B83</f>
         <v>5.7808241803617433E-3</v>
       </c>
     </row>
@@ -23169,10 +24694,10 @@
         <v>0.59115809177746581</v>
       </c>
       <c r="C85" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D85">
-        <f>Table9[[#This Row],[x]]-B84</f>
+        <f>Table9[[#This Row],[X]]-B84</f>
         <v>1.3268367880639675E-2</v>
       </c>
     </row>
@@ -23185,10 +24710,10 @@
         <v>0.59603050072948505</v>
       </c>
       <c r="C86" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D86">
-        <f>Table9[[#This Row],[x]]-B85</f>
+        <f>Table9[[#This Row],[X]]-B85</f>
         <v>4.872408952019236E-3</v>
       </c>
     </row>
@@ -23201,10 +24726,10 @@
         <v>0.60032482726346803</v>
       </c>
       <c r="C87" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D87">
-        <f>Table9[[#This Row],[x]]-B86</f>
+        <f>Table9[[#This Row],[X]]-B86</f>
         <v>4.2943265339829839E-3</v>
       </c>
     </row>
@@ -23217,10 +24742,10 @@
         <v>0.60428882098714465</v>
       </c>
       <c r="C88" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D88">
-        <f>Table9[[#This Row],[x]]-B87</f>
+        <f>Table9[[#This Row],[X]]-B87</f>
         <v>3.9639937236766176E-3</v>
       </c>
     </row>
@@ -23233,10 +24758,10 @@
         <v>0.62220937594626591</v>
       </c>
       <c r="C89" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D89">
-        <f>Table9[[#This Row],[x]]-B88</f>
+        <f>Table9[[#This Row],[X]]-B88</f>
         <v>1.792055495912126E-2</v>
       </c>
     </row>
@@ -23249,10 +24774,10 @@
         <v>0.62592562006221275</v>
       </c>
       <c r="C90" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D90">
-        <f>Table9[[#This Row],[x]]-B89</f>
+        <f>Table9[[#This Row],[X]]-B89</f>
         <v>3.7162441159468429E-3</v>
       </c>
     </row>
@@ -23265,10 +24790,10 @@
         <v>0.63035758526715668</v>
       </c>
       <c r="C91" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D91">
-        <f>Table9[[#This Row],[x]]-B90</f>
+        <f>Table9[[#This Row],[X]]-B90</f>
         <v>4.4319652049439329E-3</v>
       </c>
     </row>
@@ -23281,10 +24806,10 @@
         <v>0.63545021609271346</v>
       </c>
       <c r="C92" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D92">
-        <f>Table9[[#This Row],[x]]-B91</f>
+        <f>Table9[[#This Row],[X]]-B91</f>
         <v>5.0926308255567765E-3</v>
       </c>
     </row>
@@ -23297,10 +24822,10 @@
         <v>0.6487736394417376</v>
       </c>
       <c r="C93" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D93">
-        <f>Table9[[#This Row],[x]]-B92</f>
+        <f>Table9[[#This Row],[X]]-B92</f>
         <v>1.3323423349024144E-2</v>
       </c>
     </row>
@@ -23313,10 +24838,10 @@
         <v>0.65416907534340851</v>
       </c>
       <c r="C94" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D94">
-        <f>Table9[[#This Row],[x]]-B93</f>
+        <f>Table9[[#This Row],[X]]-B93</f>
         <v>5.3954359016709086E-3</v>
       </c>
     </row>
@@ -23329,10 +24854,10 @@
         <v>0.65862856828254468</v>
       </c>
       <c r="C95" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D95">
-        <f>Table9[[#This Row],[x]]-B94</f>
+        <f>Table9[[#This Row],[X]]-B94</f>
         <v>4.4594929391361671E-3</v>
       </c>
     </row>
@@ -23345,10 +24870,10 @@
         <v>0.6625925620062213</v>
       </c>
       <c r="C96" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D96">
-        <f>Table9[[#This Row],[x]]-B95</f>
+        <f>Table9[[#This Row],[X]]-B95</f>
         <v>3.9639937236766176E-3</v>
       </c>
     </row>
@@ -23361,10 +24886,10 @@
         <v>0.67583340215266885</v>
       </c>
       <c r="C97" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D97">
-        <f>Table9[[#This Row],[x]]-B96</f>
+        <f>Table9[[#This Row],[X]]-B96</f>
         <v>1.3240840146447552E-2</v>
       </c>
     </row>
@@ -23377,10 +24902,10 @@
         <v>0.67968728493957664</v>
       </c>
       <c r="C98" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D98">
-        <f>Table9[[#This Row],[x]]-B97</f>
+        <f>Table9[[#This Row],[X]]-B97</f>
         <v>3.8538827869077918E-3</v>
       </c>
     </row>
@@ -23393,10 +24918,10 @@
         <v>0.68356869546067667</v>
       </c>
       <c r="C99" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D99">
-        <f>Table9[[#This Row],[x]]-B98</f>
+        <f>Table9[[#This Row],[X]]-B98</f>
         <v>3.881410521100026E-3</v>
       </c>
     </row>
@@ -23409,10 +24934,10 @@
         <v>0.68915682550169299</v>
       </c>
       <c r="C100" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D100">
-        <f>Table9[[#This Row],[x]]-B99</f>
+        <f>Table9[[#This Row],[X]]-B99</f>
         <v>5.5881300410163259E-3</v>
       </c>
     </row>
@@ -23425,10 +24950,10 @@
         <v>0.70181958323010429</v>
       </c>
       <c r="C101" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D101">
-        <f>Table9[[#This Row],[x]]-B100</f>
+        <f>Table9[[#This Row],[X]]-B100</f>
         <v>1.26627577284113E-2</v>
       </c>
     </row>
@@ -23441,10 +24966,10 @@
         <v>0.70771051834723475</v>
       </c>
       <c r="C102" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D102">
-        <f>Table9[[#This Row],[x]]-B101</f>
+        <f>Table9[[#This Row],[X]]-B101</f>
         <v>5.890935117130458E-3</v>
       </c>
     </row>
@@ -23457,10 +24982,10 @@
         <v>0.71194978941283349</v>
       </c>
       <c r="C103" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D103">
-        <f>Table9[[#This Row],[x]]-B102</f>
+        <f>Table9[[#This Row],[X]]-B102</f>
         <v>4.2392710655987376E-3</v>
       </c>
     </row>
@@ -23473,10 +24998,10 @@
         <v>0.71583119993393352</v>
       </c>
       <c r="C104" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D104">
-        <f>Table9[[#This Row],[x]]-B103</f>
+        <f>Table9[[#This Row],[X]]-B103</f>
         <v>3.881410521100026E-3</v>
       </c>
     </row>
@@ -23489,10 +25014,10 @@
         <v>0.73353153301951723</v>
       </c>
       <c r="C105" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D105">
-        <f>Table9[[#This Row],[x]]-B104</f>
+        <f>Table9[[#This Row],[X]]-B104</f>
         <v>1.7700333085583719E-2</v>
       </c>
     </row>
@@ -23505,10 +25030,10 @@
         <v>0.73746799900900151</v>
       </c>
       <c r="C106" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D106">
-        <f>Table9[[#This Row],[x]]-B105</f>
+        <f>Table9[[#This Row],[X]]-B105</f>
         <v>3.9364659894842724E-3</v>
       </c>
     </row>
@@ -23521,10 +25046,10 @@
         <v>0.74195501968232991</v>
       </c>
       <c r="C107" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D107">
-        <f>Table9[[#This Row],[x]]-B106</f>
+        <f>Table9[[#This Row],[X]]-B106</f>
         <v>4.4870206733284013E-3</v>
       </c>
     </row>
@@ -23537,10 +25062,10 @@
         <v>0.74693753957111786</v>
       </c>
       <c r="C108" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D108">
-        <f>Table9[[#This Row],[x]]-B107</f>
+        <f>Table9[[#This Row],[X]]-B107</f>
         <v>4.9825198887879507E-3</v>
       </c>
     </row>
@@ -23553,10 +25078,10 @@
         <v>0.76004074104660457</v>
       </c>
       <c r="C109" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D109">
-        <f>Table9[[#This Row],[x]]-B108</f>
+        <f>Table9[[#This Row],[X]]-B108</f>
         <v>1.3103201475486714E-2</v>
       </c>
     </row>
@@ -23569,10 +25094,10 @@
         <v>0.76543617694827548</v>
       </c>
       <c r="C110" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D110">
-        <f>Table9[[#This Row],[x]]-B109</f>
+        <f>Table9[[#This Row],[X]]-B109</f>
         <v>5.3954359016709086E-3</v>
       </c>
     </row>
@@ -23585,10 +25110,10 @@
         <v>0.7700333085583726</v>
       </c>
       <c r="C111" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D111">
-        <f>Table9[[#This Row],[x]]-B110</f>
+        <f>Table9[[#This Row],[X]]-B110</f>
         <v>4.597131610097116E-3</v>
       </c>
     </row>
@@ -23601,10 +25126,10 @@
         <v>0.77361191400335838</v>
       </c>
       <c r="C112" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D112">
-        <f>Table9[[#This Row],[x]]-B111</f>
+        <f>Table9[[#This Row],[X]]-B111</f>
         <v>3.5786054449857829E-3</v>
       </c>
     </row>
@@ -23617,10 +25142,10 @@
         <v>0.78624714399757756</v>
       </c>
       <c r="C113" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D113">
-        <f>Table9[[#This Row],[x]]-B112</f>
+        <f>Table9[[#This Row],[X]]-B112</f>
         <v>1.2635229994219177E-2</v>
       </c>
     </row>
@@ -23633,10 +25158,10 @@
         <v>0.79078922013929032</v>
       </c>
       <c r="C114" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D114">
-        <f>Table9[[#This Row],[x]]-B113</f>
+        <f>Table9[[#This Row],[X]]-B113</f>
         <v>4.5420761417127586E-3</v>
       </c>
     </row>
@@ -23649,10 +25174,10 @@
         <v>0.79489085253392799</v>
       </c>
       <c r="C115" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D115">
-        <f>Table9[[#This Row],[x]]-B114</f>
+        <f>Table9[[#This Row],[X]]-B114</f>
         <v>4.1016323946376776E-3</v>
       </c>
     </row>
@@ -23665,10 +25190,10 @@
         <v>0.80012112203044583</v>
       </c>
       <c r="C116" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D116">
-        <f>Table9[[#This Row],[x]]-B115</f>
+        <f>Table9[[#This Row],[X]]-B115</f>
         <v>5.2302694965178365E-3</v>
       </c>
     </row>
@@ -23681,10 +25206,10 @@
         <v>0.81790403831860603</v>
       </c>
       <c r="C117" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D117">
-        <f>Table9[[#This Row],[x]]-B116</f>
+        <f>Table9[[#This Row],[X]]-B116</f>
         <v>1.77829162881602E-2</v>
       </c>
     </row>
@@ -23697,10 +25222,10 @@
         <v>0.82283150273900962</v>
       </c>
       <c r="C118" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D118">
-        <f>Table9[[#This Row],[x]]-B117</f>
+        <f>Table9[[#This Row],[X]]-B117</f>
         <v>4.9274644204035933E-3</v>
       </c>
     </row>
@@ -23713,10 +25238,10 @@
         <v>0.82767638395683663</v>
       </c>
       <c r="C119" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D119">
-        <f>Table9[[#This Row],[x]]-B118</f>
+        <f>Table9[[#This Row],[X]]-B118</f>
         <v>4.8448812178270018E-3</v>
       </c>
     </row>
@@ -23729,10 +25254,10 @@
         <v>0.83161284994632101</v>
       </c>
       <c r="C120" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D120">
-        <f>Table9[[#This Row],[x]]-B119</f>
+        <f>Table9[[#This Row],[X]]-B119</f>
         <v>3.9364659894843834E-3</v>
       </c>
     </row>
@@ -23745,10 +25270,10 @@
         <v>0.8447160514218075</v>
       </c>
       <c r="C121" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D121">
-        <f>Table9[[#This Row],[x]]-B120</f>
+        <f>Table9[[#This Row],[X]]-B120</f>
         <v>1.3103201475486492E-2</v>
       </c>
     </row>
@@ -23761,10 +25286,10 @@
         <v>0.84804690725906351</v>
       </c>
       <c r="C122" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D122">
-        <f>Table9[[#This Row],[x]]-B121</f>
+        <f>Table9[[#This Row],[X]]-B121</f>
         <v>3.3308558372560082E-3</v>
       </c>
     </row>
@@ -23777,10 +25302,10 @@
         <v>0.85250640019819968</v>
       </c>
       <c r="C123" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D123">
-        <f>Table9[[#This Row],[x]]-B122</f>
+        <f>Table9[[#This Row],[X]]-B122</f>
         <v>4.4594929391361671E-3</v>
       </c>
     </row>
@@ -23793,10 +25318,10 @@
         <v>0.8578192528972941</v>
       </c>
       <c r="C124" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D124">
-        <f>Table9[[#This Row],[x]]-B123</f>
+        <f>Table9[[#This Row],[X]]-B123</f>
         <v>5.312852699094428E-3</v>
       </c>
     </row>
@@ -23809,10 +25334,10 @@
         <v>0.87083987117020412</v>
       </c>
       <c r="C125" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D125">
-        <f>Table9[[#This Row],[x]]-B124</f>
+        <f>Table9[[#This Row],[X]]-B124</f>
         <v>1.3020618272910012E-2</v>
       </c>
     </row>
@@ -23825,10 +25350,10 @@
         <v>0.87607014066672173</v>
       </c>
       <c r="C126" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D126">
-        <f>Table9[[#This Row],[x]]-B125</f>
+        <f>Table9[[#This Row],[X]]-B125</f>
         <v>5.2302694965176144E-3</v>
       </c>
     </row>
@@ -23841,10 +25366,10 @@
         <v>0.88108018828970192</v>
       </c>
       <c r="C127" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D127">
-        <f>Table9[[#This Row],[x]]-B126</f>
+        <f>Table9[[#This Row],[X]]-B126</f>
         <v>5.0100476229801849E-3</v>
       </c>
     </row>
@@ -23857,10 +25382,10 @@
         <v>0.88471384920307206</v>
       </c>
       <c r="C128" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D128">
-        <f>Table9[[#This Row],[x]]-B127</f>
+        <f>Table9[[#This Row],[X]]-B127</f>
         <v>3.6336609133701403E-3</v>
       </c>
     </row>
@@ -23873,10 +25398,10 @@
         <v>0.90233159908607929</v>
       </c>
       <c r="C129" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D129">
-        <f>Table9[[#This Row],[x]]-B128</f>
+        <f>Table9[[#This Row],[X]]-B128</f>
         <v>1.7617749883007239E-2</v>
       </c>
     </row>
@@ -23889,10 +25414,10 @@
         <v>0.90607537093621826</v>
       </c>
       <c r="C130" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D130">
-        <f>Table9[[#This Row],[x]]-B129</f>
+        <f>Table9[[#This Row],[X]]-B129</f>
         <v>3.7437718501389661E-3</v>
       </c>
     </row>
@@ -23905,10 +25430,10 @@
         <v>0.91031464200181689</v>
       </c>
       <c r="C131" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D131">
-        <f>Table9[[#This Row],[x]]-B130</f>
+        <f>Table9[[#This Row],[X]]-B130</f>
         <v>4.2392710655986265E-3</v>
       </c>
     </row>
@@ -23921,10 +25446,10 @@
         <v>0.9159853552454098</v>
       </c>
       <c r="C132" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D132">
-        <f>Table9[[#This Row],[x]]-B131</f>
+        <f>Table9[[#This Row],[X]]-B131</f>
         <v>5.6707132435929175E-3</v>
       </c>
     </row>
@@ -23937,10 +25462,10 @@
         <v>0.92941888953120277</v>
       </c>
       <c r="C133" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D133">
-        <f>Table9[[#This Row],[x]]-B132</f>
+        <f>Table9[[#This Row],[X]]-B132</f>
         <v>1.343353428579297E-2</v>
       </c>
     </row>
@@ -23953,10 +25478,10 @@
         <v>0.93398849340710777</v>
       </c>
       <c r="C134" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D134">
-        <f>Table9[[#This Row],[x]]-B133</f>
+        <f>Table9[[#This Row],[X]]-B133</f>
         <v>4.5696038759049928E-3</v>
       </c>
     </row>
@@ -23969,10 +25494,10 @@
         <v>0.93844798634624393</v>
       </c>
       <c r="C135" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D135">
-        <f>Table9[[#This Row],[x]]-B134</f>
+        <f>Table9[[#This Row],[X]]-B134</f>
         <v>4.4594929391361671E-3</v>
       </c>
     </row>
@@ -23985,10 +25510,10 @@
         <v>0.94257714647507373</v>
       </c>
       <c r="C136" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D136">
-        <f>Table9[[#This Row],[x]]-B135</f>
+        <f>Table9[[#This Row],[X]]-B135</f>
         <v>4.1291601288298008E-3</v>
       </c>
     </row>
@@ -24001,10 +25526,10 @@
         <v>0.95570787568475246</v>
       </c>
       <c r="C137" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D137">
-        <f>Table9[[#This Row],[x]]-B136</f>
+        <f>Table9[[#This Row],[X]]-B136</f>
         <v>1.3130729209678726E-2</v>
       </c>
     </row>
@@ -24017,10 +25542,10 @@
         <v>0.9596993971426212</v>
       </c>
       <c r="C138" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D138">
-        <f>Table9[[#This Row],[x]]-B137</f>
+        <f>Table9[[#This Row],[X]]-B137</f>
         <v>3.9915214578687408E-3</v>
       </c>
     </row>
@@ -24033,10 +25558,10 @@
         <v>0.96413136234756525</v>
       </c>
       <c r="C139" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D139">
-        <f>Table9[[#This Row],[x]]-B138</f>
+        <f>Table9[[#This Row],[X]]-B138</f>
         <v>4.4319652049440439E-3</v>
       </c>
     </row>
@@ -24049,10 +25574,10 @@
         <v>0.96927904864150638</v>
       </c>
       <c r="C140" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D140">
-        <f>Table9[[#This Row],[x]]-B139</f>
+        <f>Table9[[#This Row],[X]]-B139</f>
         <v>5.1476862939411339E-3</v>
       </c>
     </row>
@@ -24065,10 +25590,10 @@
         <v>0.98678668758774479</v>
       </c>
       <c r="C141" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D141">
-        <f>Table9[[#This Row],[x]]-B140</f>
+        <f>Table9[[#This Row],[X]]-B140</f>
         <v>1.7507638946238413E-2</v>
       </c>
     </row>
@@ -24081,10 +25606,10 @@
         <v>0.99168662427395604</v>
       </c>
       <c r="C142" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D142">
-        <f>Table9[[#This Row],[x]]-B141</f>
+        <f>Table9[[#This Row],[X]]-B141</f>
         <v>4.8999366862112481E-3</v>
       </c>
     </row>
@@ -24097,10 +25622,10 @@
         <v>0.99625622814986114</v>
       </c>
       <c r="C143" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D143">
-        <f>Table9[[#This Row],[x]]-B142</f>
+        <f>Table9[[#This Row],[X]]-B142</f>
         <v>4.5696038759051039E-3</v>
       </c>
     </row>
@@ -24113,10 +25638,10 @@
         <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D144">
-        <f>Table9[[#This Row],[x]]-B143</f>
+        <f>Table9[[#This Row],[X]]-B143</f>
         <v>3.7437718501388551E-3</v>
       </c>
     </row>
@@ -24133,7 +25658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4CE515-5062-5E42-9CB5-5EEF12730F3F}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView zoomScale="83" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -24148,19 +25673,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1" s="8">
         <v>380.33834999999999</v>
@@ -24187,7 +25712,7 @@
         <v>159.04</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H2" s="8">
         <v>507.11779999999999</v>
@@ -24249,19 +25774,19 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="C7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -24434,7 +25959,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -24442,28 +25967,28 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" t="s">
         <v>77</v>
       </c>
-      <c r="C19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="G19" t="s">
         <v>79</v>
       </c>
-      <c r="E19" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" t="s">
         <v>81</v>
-      </c>
-      <c r="G19" t="s">
-        <v>83</v>
-      </c>
-      <c r="H19" t="s">
-        <v>84</v>
-      </c>
-      <c r="I19" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -24538,7 +26063,7 @@
         <v>1.0516951551164944E-4</v>
       </c>
       <c r="K21" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -24781,10 +26306,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8630FE-D14C-48E2-A242-2E524D676ECC}">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView topLeftCell="E21" zoomScale="83" zoomScaleNormal="259" workbookViewId="0">
+      <selection activeCell="AA56" sqref="AA56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24795,7 +26320,7 @@
     <col min="9" max="9" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -24806,31 +26331,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="M1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N1">
         <v>186.79584</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="S1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -24860,17 +26394,23 @@
         <v>0</v>
       </c>
       <c r="J2" t="e">
-        <f>Table6[[#This Row],[N_y_coord]]-I1</f>
+        <f>Table6[[#This Row],[Y Position]]-I1</f>
         <v>#VALUE!</v>
       </c>
       <c r="M2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N2">
         <v>211.66667000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="Q2">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
@@ -24902,11 +26442,17 @@
         <v>3.2692912870977746E-2</v>
       </c>
       <c r="J3">
-        <f>Table6[[#This Row],[N_y_coord]]-I2</f>
+        <f>Table6[[#This Row],[Y Position]]-I2</f>
         <v>3.2692912870977746E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P3">
+        <v>0.22</v>
+      </c>
+      <c r="Q3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A29" si="0">A3+1</f>
         <v>2</v>
@@ -24938,11 +26484,17 @@
         <v>6.46299202420485E-2</v>
       </c>
       <c r="J4">
-        <f>Table6[[#This Row],[N_y_coord]]-I3</f>
+        <f>Table6[[#This Row],[Y Position]]-I3</f>
         <v>3.1937007371070754E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P4">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="Q4">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -24974,11 +26526,17 @@
         <v>9.5858266206956436E-2</v>
       </c>
       <c r="J5">
-        <f>Table6[[#This Row],[N_y_coord]]-I4</f>
+        <f>Table6[[#This Row],[Y Position]]-I4</f>
         <v>3.1228345964907936E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P5">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="Q5">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -25010,11 +26568,17 @@
         <v>0.12514960432835268</v>
       </c>
       <c r="J6">
-        <f>Table6[[#This Row],[N_y_coord]]-I5</f>
+        <f>Table6[[#This Row],[Y Position]]-I5</f>
         <v>2.929133812139624E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -25046,11 +26610,11 @@
         <v>0.1515118086376093</v>
       </c>
       <c r="J7">
-        <f>Table6[[#This Row],[N_y_coord]]-I6</f>
+        <f>Table6[[#This Row],[Y Position]]-I6</f>
         <v>2.6362204309256621E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -25082,11 +26646,11 @@
         <v>0.17692913107198219</v>
       </c>
       <c r="J8">
-        <f>Table6[[#This Row],[N_y_coord]]-I7</f>
+        <f>Table6[[#This Row],[Y Position]]-I7</f>
         <v>2.5417322434372891E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -25118,11 +26682,11 @@
         <v>0.1987559023817968</v>
       </c>
       <c r="J9">
-        <f>Table6[[#This Row],[N_y_coord]]-I8</f>
+        <f>Table6[[#This Row],[Y Position]]-I8</f>
         <v>2.1826771309814613E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -25154,11 +26718,11 @@
         <v>0.21765353987947181</v>
       </c>
       <c r="J10">
-        <f>Table6[[#This Row],[N_y_coord]]-I9</f>
+        <f>Table6[[#This Row],[Y Position]]-I9</f>
         <v>1.8897637497675007E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -25190,11 +26754,11 @@
         <v>0.23593700415847235</v>
       </c>
       <c r="J11">
-        <f>Table6[[#This Row],[N_y_coord]]-I10</f>
+        <f>Table6[[#This Row],[Y Position]]-I10</f>
         <v>1.8283464279000544E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -25226,11 +26790,11 @@
         <v>0.25573227943728694</v>
       </c>
       <c r="J12">
-        <f>Table6[[#This Row],[N_y_coord]]-I11</f>
+        <f>Table6[[#This Row],[Y Position]]-I11</f>
         <v>1.9795275278814584E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -25262,11 +26826,11 @@
         <v>0.27779527121582248</v>
       </c>
       <c r="J13">
-        <f>Table6[[#This Row],[N_y_coord]]-I12</f>
+        <f>Table6[[#This Row],[Y Position]]-I12</f>
         <v>2.2062991778535546E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -25298,11 +26862,11 @@
         <v>0.30283464090024181</v>
       </c>
       <c r="J14">
-        <f>Table6[[#This Row],[N_y_coord]]-I13</f>
+        <f>Table6[[#This Row],[Y Position]]-I13</f>
         <v>2.5039369684419333E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -25334,11 +26898,11 @@
         <v>0.32914960111575431</v>
       </c>
       <c r="J15">
-        <f>Table6[[#This Row],[N_y_coord]]-I14</f>
+        <f>Table6[[#This Row],[Y Position]]-I14</f>
         <v>2.6314960215512495E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -25370,11 +26934,11 @@
         <v>0.35792125420596449</v>
       </c>
       <c r="J16">
-        <f>Table6[[#This Row],[N_y_coord]]-I15</f>
+        <f>Table6[[#This Row],[Y Position]]-I15</f>
         <v>2.8771653090210181E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -25406,11 +26970,11 @@
         <v>0.38933857654584914</v>
       </c>
       <c r="J17">
-        <f>Table6[[#This Row],[N_y_coord]]-I16</f>
+        <f>Table6[[#This Row],[Y Position]]-I16</f>
         <v>3.1417322339884646E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -25442,11 +27006,11 @@
         <v>0.42297637129171067</v>
       </c>
       <c r="J18">
-        <f>Table6[[#This Row],[N_y_coord]]-I17</f>
+        <f>Table6[[#This Row],[Y Position]]-I17</f>
         <v>3.3637794745861538E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -25478,14 +27042,11 @@
         <v>0.45845668569359549</v>
       </c>
       <c r="J19">
-        <f>Table6[[#This Row],[N_y_coord]]-I18</f>
+        <f>Table6[[#This Row],[Y Position]]-I18</f>
         <v>3.5480314401884816E-2</v>
       </c>
-      <c r="M19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -25517,11 +27078,11 @@
         <v>0.49209448043945697</v>
       </c>
       <c r="J20">
-        <f>Table6[[#This Row],[N_y_coord]]-I19</f>
+        <f>Table6[[#This Row],[Y Position]]-I19</f>
         <v>3.3637794745861482E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -25553,11 +27114,11 @@
         <v>0.5242204641855045</v>
       </c>
       <c r="J21">
-        <f>Table6[[#This Row],[N_y_coord]]-I20</f>
+        <f>Table6[[#This Row],[Y Position]]-I20</f>
         <v>3.2125983746047526E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -25589,11 +27150,11 @@
         <v>0.55299211727571462</v>
       </c>
       <c r="J22">
-        <f>Table6[[#This Row],[N_y_coord]]-I21</f>
+        <f>Table6[[#This Row],[Y Position]]-I21</f>
         <v>2.8771653090210125E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -25625,11 +27186,11 @@
         <v>0.57987400661615729</v>
       </c>
       <c r="J23">
-        <f>Table6[[#This Row],[N_y_coord]]-I22</f>
+        <f>Table6[[#This Row],[Y Position]]-I22</f>
         <v>2.6881889340442666E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -25661,11 +27222,11 @@
         <v>0.60453542355062317</v>
       </c>
       <c r="J24">
-        <f>Table6[[#This Row],[N_y_coord]]-I23</f>
+        <f>Table6[[#This Row],[Y Position]]-I23</f>
         <v>2.4661416934465885E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -25697,11 +27258,11 @@
         <v>0.627165344454089</v>
       </c>
       <c r="J25">
-        <f>Table6[[#This Row],[N_y_coord]]-I24</f>
+        <f>Table6[[#This Row],[Y Position]]-I24</f>
         <v>2.2629920903465828E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -25733,11 +27294,11 @@
         <v>0.64804723388901986</v>
       </c>
       <c r="J26">
-        <f>Table6[[#This Row],[N_y_coord]]-I25</f>
+        <f>Table6[[#This Row],[Y Position]]-I25</f>
         <v>2.0881889434930856E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -25769,11 +27330,11 @@
         <v>0.66618896588678789</v>
       </c>
       <c r="J27">
-        <f>Table6[[#This Row],[N_y_coord]]-I26</f>
+        <f>Table6[[#This Row],[Y Position]]-I26</f>
         <v>1.8141731997768029E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -25805,11 +27366,11 @@
         <v>0.68319683963469546</v>
       </c>
       <c r="J28">
-        <f>Table6[[#This Row],[N_y_coord]]-I27</f>
+        <f>Table6[[#This Row],[Y Position]]-I27</f>
         <v>1.7007873747907576E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -25841,11 +27402,11 @@
         <v>0.69609447722685858</v>
       </c>
       <c r="J29">
-        <f>Table6[[#This Row],[N_y_coord]]-I28</f>
+        <f>Table6[[#This Row],[Y Position]]-I28</f>
         <v>1.2897637592163114E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F30">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -25862,11 +27423,11 @@
         <v>0.70691337469427751</v>
       </c>
       <c r="J30">
-        <f>Table6[[#This Row],[N_y_coord]]-I29</f>
+        <f>Table6[[#This Row],[Y Position]]-I29</f>
         <v>1.0818897467418931E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F31">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -25883,11 +27444,11 @@
         <v>0.71626770525562666</v>
       </c>
       <c r="J31">
-        <f>Table6[[#This Row],[N_y_coord]]-I30</f>
+        <f>Table6[[#This Row],[Y Position]]-I30</f>
         <v>9.3543305613491556E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F32">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -25904,7 +27465,7 @@
         <v>0.72822046097290605</v>
       </c>
       <c r="J32">
-        <f>Table6[[#This Row],[N_y_coord]]-I31</f>
+        <f>Table6[[#This Row],[Y Position]]-I31</f>
         <v>1.1952755717279384E-2</v>
       </c>
     </row>
@@ -25925,7 +27486,7 @@
         <v>0.74092912219009255</v>
       </c>
       <c r="J33">
-        <f>Table6[[#This Row],[N_y_coord]]-I32</f>
+        <f>Table6[[#This Row],[Y Position]]-I32</f>
         <v>1.2708661217186501E-2</v>
       </c>
     </row>
@@ -25946,7 +27507,7 @@
         <v>0.75718109043809312</v>
       </c>
       <c r="J34">
-        <f>Table6[[#This Row],[N_y_coord]]-I33</f>
+        <f>Table6[[#This Row],[Y Position]]-I33</f>
         <v>1.625196824800057E-2</v>
       </c>
     </row>
@@ -25967,7 +27528,7 @@
         <v>0.77584250746704708</v>
       </c>
       <c r="J35">
-        <f>Table6[[#This Row],[N_y_coord]]-I34</f>
+        <f>Table6[[#This Row],[Y Position]]-I34</f>
         <v>1.8661417028953964E-2</v>
       </c>
     </row>
@@ -25988,7 +27549,7 @@
         <v>0.79582675912083833</v>
       </c>
       <c r="J36">
-        <f>Table6[[#This Row],[N_y_coord]]-I35</f>
+        <f>Table6[[#This Row],[Y Position]]-I35</f>
         <v>1.9984251653791252E-2</v>
       </c>
     </row>
@@ -26009,7 +27570,7 @@
         <v>0.81826770364932744</v>
       </c>
       <c r="J37">
-        <f>Table6[[#This Row],[N_y_coord]]-I36</f>
+        <f>Table6[[#This Row],[Y Position]]-I36</f>
         <v>2.2440944528489104E-2</v>
       </c>
     </row>
@@ -26030,7 +27591,7 @@
         <v>0.84387400245867705</v>
       </c>
       <c r="J38">
-        <f>Table6[[#This Row],[N_y_coord]]-I37</f>
+        <f>Table6[[#This Row],[Y Position]]-I37</f>
         <v>2.5606298809349615E-2</v>
       </c>
     </row>
@@ -26051,7 +27612,7 @@
         <v>0.87132282092405</v>
       </c>
       <c r="J39">
-        <f>Table6[[#This Row],[N_y_coord]]-I38</f>
+        <f>Table6[[#This Row],[Y Position]]-I38</f>
         <v>2.7448818465372948E-2</v>
       </c>
     </row>
@@ -26072,7 +27633,7 @@
         <v>0.90009447401426024</v>
       </c>
       <c r="J40">
-        <f>Table6[[#This Row],[N_y_coord]]-I39</f>
+        <f>Table6[[#This Row],[Y Position]]-I39</f>
         <v>2.8771653090210236E-2</v>
       </c>
     </row>
@@ -26093,7 +27654,7 @@
         <v>0.9329763632602146</v>
       </c>
       <c r="J41">
-        <f>Table6[[#This Row],[N_y_coord]]-I40</f>
+        <f>Table6[[#This Row],[Y Position]]-I40</f>
         <v>3.2881889245954365E-2</v>
       </c>
     </row>
@@ -26114,7 +27675,7 @@
         <v>0.96642518163109947</v>
       </c>
       <c r="J42">
-        <f>Table6[[#This Row],[N_y_coord]]-I41</f>
+        <f>Table6[[#This Row],[Y Position]]-I41</f>
         <v>3.344881837088487E-2</v>
       </c>
     </row>
@@ -26135,7 +27696,7 @@
         <v>0.99949604725203067</v>
       </c>
       <c r="J43">
-        <f>Table6[[#This Row],[N_y_coord]]-I42</f>
+        <f>Table6[[#This Row],[Y Position]]-I42</f>
         <v>3.30708656209312E-2</v>
       </c>
     </row>
@@ -26154,7 +27715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1CA6B5-9F4B-4B3C-AF3D-2D5DE869C1B5}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
@@ -26171,52 +27732,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -26769,19 +28330,19 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <f>2*E10</f>
         <v>296.51330000000002</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <f>72*2</f>
@@ -26790,7 +28351,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <f>2*E10</f>
@@ -26799,7 +28360,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <f>C10-E10</f>
@@ -26808,7 +28369,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <f>D10-E10</f>
@@ -26850,52 +28411,52 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" t="s">
+      <c r="V1" t="s">
         <v>42</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Z1" t="s">
         <v>43</v>
-      </c>
-      <c r="V1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -27019,7 +28580,7 @@
         <v>61.84</v>
       </c>
       <c r="X3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="16" x14ac:dyDescent="0.2">
@@ -27209,7 +28770,7 @@
         <v>3.3103448275862064</v>
       </c>
       <c r="R6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="V6">
         <f>AVERAGE(V2:V5)</f>
@@ -27696,7 +29257,7 @@
         <v>8.2689655172413783</v>
       </c>
       <c r="V14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W14">
         <v>9.1</v>
@@ -27760,7 +29321,7 @@
         <v>7.4413793103448267</v>
       </c>
       <c r="V15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="W15">
         <v>24</v>
@@ -28731,7 +30292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AEBCAFF-488C-994E-8346-52160BA29112}">
   <dimension ref="A1:X38"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C26" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -28742,43 +30303,43 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>55</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>56</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>57</v>
       </c>
-      <c r="J1" t="s">
+      <c r="Q1" t="s">
         <v>58</v>
       </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
         <v>59</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S1" t="s">
-        <v>61</v>
       </c>
       <c r="T1">
         <f>0.02</f>
@@ -28827,7 +30388,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="S2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="T2">
         <v>58.4</v>
@@ -28873,7 +30434,7 @@
         <v>0.20999999999999908</v>
       </c>
       <c r="M3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -28916,10 +30477,10 @@
         <v>0.41000000000000014</v>
       </c>
       <c r="Q4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -29688,7 +31249,7 @@
         <v>0.40999999999999659</v>
       </c>
       <c r="W23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="X23">
         <v>1</v>
@@ -29734,7 +31295,7 @@
         <v>0.21999999999999886</v>
       </c>
       <c r="W24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="X24">
         <v>1</v>
@@ -29780,7 +31341,7 @@
         <v>0.35000000000000853</v>
       </c>
       <c r="W25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="X25">
         <v>1</v>
@@ -29826,7 +31387,7 @@
         <v>0.36000000000001364</v>
       </c>
       <c r="W26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="X26">
         <v>1</v>
@@ -30322,93 +31883,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9013C6E8-C59E-9143-A100-78C007170A2A}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView zoomScale="91" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="F1" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J1">
         <f>9.52</f>
         <v>9.52</v>
       </c>
       <c r="L1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2">
+        <f>Table1[[#This Row],[Index2]]/31</f>
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <f>Table1[[#This Row],[Square boundaries]]/123</f>
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="e">
-        <f>Table1[[#This Row],[NormBounds]]-A1</f>
-        <v>#VALUE!</v>
+      <c r="C2" s="1">
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <f>(3.2206*POWER(Table1[[#This Row],[NormIndex]], 3) - 5.4091*POWER(Table1[[#This Row],[NormIndex]], 2) + 3.1979*Table1[[#This Row],[NormIndex]])/1.0094</f>
         <v>0</v>
       </c>
       <c r="E2" s="1">
+        <f>(3.2206*POWER(Table1[[#This Row],[Index]], 3) - 5.4091*POWER(Table1[[#This Row],[Index]], 2) + 3.1979*Table1[[#This Row],[Index]])/1.0094</f>
         <v>0</v>
       </c>
-      <c r="F2">
-        <f>Table1[[#This Row],[Index]]/31</f>
+      <c r="F2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>9.9499999999999993</v>
+      <c r="A3">
+        <f>Table1[[#This Row],[Index2]]/31</f>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="B3" s="1">
         <f>Table1[[#This Row],[Square boundaries]]/123</f>
         <v>8.0894308943089424E-2</v>
       </c>
       <c r="C3" s="1">
-        <f>Table1[[#This Row],[NormBounds]]-B2</f>
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="D3" s="1">
+        <f>Table1[[#This Row],[Vertical Line X Position]]-B2</f>
         <v>8.0894308943089424E-2</v>
       </c>
-      <c r="D3" s="1">
-        <f>(3.2206*POWER(Table1[[#This Row],[NormIndex]], 3) - 5.4091*POWER(Table1[[#This Row],[NormIndex]], 2) + 3.1979*Table1[[#This Row],[NormIndex]])/1.0094</f>
+      <c r="E3" s="1">
+        <f>(3.2206*POWER(Table1[[#This Row],[Index]], 3) - 5.4091*POWER(Table1[[#This Row],[Index]], 2) + 3.1979*Table1[[#This Row],[Index]])/1.0094</f>
         <v>9.6728308862953222E-2</v>
       </c>
-      <c r="E3" s="1">
-        <f>E2+1</f>
+      <c r="F3" s="1">
+        <f>F2+1</f>
         <v>1</v>
-      </c>
-      <c r="F3">
-        <f>Table1[[#This Row],[Index]]/31</f>
-        <v>3.2258064516129031E-2</v>
       </c>
       <c r="L3">
         <f>9.52/123</f>
@@ -30416,753 +31977,753 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>20.25</v>
+      <c r="A4">
+        <f>Table1[[#This Row],[Index2]]/31</f>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="B4" s="1">
         <f>Table1[[#This Row],[Square boundaries]]/123</f>
         <v>0.16463414634146342</v>
       </c>
       <c r="C4" s="1">
-        <f>Table1[[#This Row],[NormBounds]]-B3</f>
+        <v>20.25</v>
+      </c>
+      <c r="D4" s="1">
+        <f>Table1[[#This Row],[Vertical Line X Position]]-B3</f>
         <v>8.3739837398373998E-2</v>
       </c>
-      <c r="D4" s="1">
-        <f>(3.2206*POWER(Table1[[#This Row],[NormIndex]], 3) - 5.4091*POWER(Table1[[#This Row],[NormIndex]], 2) + 3.1979*Table1[[#This Row],[NormIndex]])/1.0094</f>
+      <c r="E4" s="1">
+        <f>(3.2206*POWER(Table1[[#This Row],[Index]], 3) - 5.4091*POWER(Table1[[#This Row],[Index]], 2) + 3.1979*Table1[[#This Row],[Index]])/1.0094</f>
         <v>0.18294681665666887</v>
       </c>
-      <c r="E4" s="1">
-        <f t="shared" ref="E4:E33" si="0">E3+1</f>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F33" si="0">F3+1</f>
         <v>2</v>
       </c>
-      <c r="F4">
-        <f>Table1[[#This Row],[Index]]/31</f>
-        <v>6.4516129032258063E-2</v>
-      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>30.55</v>
+      <c r="A5">
+        <f>Table1[[#This Row],[Index2]]/31</f>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="B5" s="1">
         <f>Table1[[#This Row],[Square boundaries]]/123</f>
         <v>0.24837398373983741</v>
       </c>
       <c r="C5" s="1">
-        <f>Table1[[#This Row],[NormBounds]]-B4</f>
+        <v>30.55</v>
+      </c>
+      <c r="D5" s="1">
+        <f>Table1[[#This Row],[Vertical Line X Position]]-B4</f>
         <v>8.3739837398373984E-2</v>
       </c>
-      <c r="D5" s="1">
-        <f>(3.2206*POWER(Table1[[#This Row],[NormIndex]], 3) - 5.4091*POWER(Table1[[#This Row],[NormIndex]], 2) + 3.1979*Table1[[#This Row],[NormIndex]])/1.0094</f>
+      <c r="E5" s="1">
+        <f>(3.2206*POWER(Table1[[#This Row],[Index]], 3) - 5.4091*POWER(Table1[[#This Row],[Index]], 2) + 3.1979*Table1[[#This Row],[Index]])/1.0094</f>
         <v>0.25929812180660727</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F5">
-        <f>Table1[[#This Row],[Index]]/31</f>
-        <v>9.6774193548387094E-2</v>
-      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>39.56</v>
+      <c r="A6">
+        <f>Table1[[#This Row],[Index2]]/31</f>
+        <v>0.12903225806451613</v>
       </c>
       <c r="B6" s="1">
         <f>Table1[[#This Row],[Square boundaries]]/123</f>
         <v>0.32162601626016263</v>
       </c>
       <c r="C6" s="1">
-        <f>Table1[[#This Row],[NormBounds]]-B5</f>
+        <v>39.56</v>
+      </c>
+      <c r="D6" s="1">
+        <f>Table1[[#This Row],[Vertical Line X Position]]-B5</f>
         <v>7.3252032520325222E-2</v>
       </c>
-      <c r="D6" s="1">
-        <f>(3.2206*POWER(Table1[[#This Row],[NormIndex]], 3) - 5.4091*POWER(Table1[[#This Row],[NormIndex]], 2) + 3.1979*Table1[[#This Row],[NormIndex]])/1.0094</f>
+      <c r="E6" s="1">
+        <f>(3.2206*POWER(Table1[[#This Row],[Index]], 3) - 5.4091*POWER(Table1[[#This Row],[Index]], 2) + 3.1979*Table1[[#This Row],[Index]])/1.0094</f>
         <v>0.3264248227382287</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F6" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F6">
-        <f>Table1[[#This Row],[Index]]/31</f>
-        <v>0.12903225806451613</v>
-      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>47.98</v>
+      <c r="A7">
+        <f>Table1[[#This Row],[Index2]]/31</f>
+        <v>0.16129032258064516</v>
       </c>
       <c r="B7" s="1">
         <f>Table1[[#This Row],[Square boundaries]]/123</f>
         <v>0.39008130081300812</v>
       </c>
       <c r="C7" s="1">
-        <f>Table1[[#This Row],[NormBounds]]-B6</f>
+        <v>47.98</v>
+      </c>
+      <c r="D7" s="1">
+        <f>Table1[[#This Row],[Vertical Line X Position]]-B6</f>
         <v>6.8455284552845497E-2</v>
       </c>
-      <c r="D7" s="1">
-        <f>(3.2206*POWER(Table1[[#This Row],[NormIndex]], 3) - 5.4091*POWER(Table1[[#This Row],[NormIndex]], 2) + 3.1979*Table1[[#This Row],[NormIndex]])/1.0094</f>
+      <c r="E7" s="1">
+        <f>(3.2206*POWER(Table1[[#This Row],[Index]], 3) - 5.4091*POWER(Table1[[#This Row],[Index]], 2) + 3.1979*Table1[[#This Row],[Index]])/1.0094</f>
         <v>0.38496951787699335</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F7">
-        <f>Table1[[#This Row],[Index]]/31</f>
-        <v>0.16129032258064516</v>
-      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>55.16</v>
+      <c r="A8">
+        <f>Table1[[#This Row],[Index2]]/31</f>
+        <v>0.19354838709677419</v>
       </c>
       <c r="B8" s="1">
         <f>Table1[[#This Row],[Square boundaries]]/123</f>
         <v>0.4484552845528455</v>
       </c>
       <c r="C8" s="1">
-        <f>Table1[[#This Row],[NormBounds]]-B7</f>
+        <v>55.16</v>
+      </c>
+      <c r="D8" s="1">
+        <f>Table1[[#This Row],[Vertical Line X Position]]-B7</f>
         <v>5.8373983739837376E-2</v>
       </c>
-      <c r="D8" s="1">
-        <f>(3.2206*POWER(Table1[[#This Row],[NormIndex]], 3) - 5.4091*POWER(Table1[[#This Row],[NormIndex]], 2) + 3.1979*Table1[[#This Row],[NormIndex]])/1.0094</f>
+      <c r="E8" s="1">
+        <f>(3.2206*POWER(Table1[[#This Row],[Index]], 3) - 5.4091*POWER(Table1[[#This Row],[Index]], 2) + 3.1979*Table1[[#This Row],[Index]])/1.0094</f>
         <v>0.4355748056483616</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F8">
-        <f>Table1[[#This Row],[Index]]/31</f>
-        <v>0.19354838709677419</v>
-      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>60.22</v>
+      <c r="A9">
+        <f>Table1[[#This Row],[Index2]]/31</f>
+        <v>0.22580645161290322</v>
       </c>
       <c r="B9" s="1">
         <f>Table1[[#This Row],[Square boundaries]]/123</f>
         <v>0.48959349593495932</v>
       </c>
       <c r="C9" s="1">
-        <f>Table1[[#This Row],[NormBounds]]-B8</f>
+        <v>60.22</v>
+      </c>
+      <c r="D9" s="1">
+        <f>Table1[[#This Row],[Vertical Line X Position]]-B8</f>
         <v>4.1138211382113821E-2</v>
       </c>
-      <c r="D9" s="1">
-        <f>(3.2206*POWER(Table1[[#This Row],[NormIndex]], 3) - 5.4091*POWER(Table1[[#This Row],[NormIndex]], 2) + 3.1979*Table1[[#This Row],[NormIndex]])/1.0094</f>
+      <c r="E9" s="1">
+        <f>(3.2206*POWER(Table1[[#This Row],[Index]], 3) - 5.4091*POWER(Table1[[#This Row],[Index]], 2) + 3.1979*Table1[[#This Row],[Index]])/1.0094</f>
         <v>0.47888328447779355</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F9">
-        <f>Table1[[#This Row],[Index]]/31</f>
-        <v>0.22580645161290322</v>
-      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>63.99</v>
+      <c r="A10">
+        <f>Table1[[#This Row],[Index2]]/31</f>
+        <v>0.25806451612903225</v>
       </c>
       <c r="B10" s="1">
         <f>Table1[[#This Row],[Square boundaries]]/123</f>
         <v>0.52024390243902441</v>
       </c>
       <c r="C10" s="1">
-        <f>Table1[[#This Row],[NormBounds]]-B9</f>
+        <v>63.99</v>
+      </c>
+      <c r="D10" s="1">
+        <f>Table1[[#This Row],[Vertical Line X Position]]-B9</f>
         <v>3.0650406504065086E-2</v>
       </c>
-      <c r="D10" s="1">
-        <f>(3.2206*POWER(Table1[[#This Row],[NormIndex]], 3) - 5.4091*POWER(Table1[[#This Row],[NormIndex]], 2) + 3.1979*Table1[[#This Row],[NormIndex]])/1.0094</f>
+      <c r="E10" s="1">
+        <f>(3.2206*POWER(Table1[[#This Row],[Index]], 3) - 5.4091*POWER(Table1[[#This Row],[Index]], 2) + 3.1979*Table1[[#This Row],[Index]])/1.0094</f>
         <v>0.51553755279074964</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F10">
-        <f>Table1[[#This Row],[Index]]/31</f>
-        <v>0.25806451612903225</v>
-      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>67.34</v>
+      <c r="A11">
+        <f>Table1[[#This Row],[Index2]]/31</f>
+        <v>0.29032258064516131</v>
       </c>
       <c r="B11" s="1">
         <f>Table1[[#This Row],[Square boundaries]]/123</f>
         <v>0.54747967479674797</v>
       </c>
       <c r="C11" s="1">
-        <f>Table1[[#This Row],[NormBounds]]-B10</f>
+        <v>67.34</v>
+      </c>
+      <c r="D11" s="1">
+        <f>Table1[[#This Row],[Vertical Line X Position]]-B10</f>
         <v>2.7235772357723564E-2</v>
       </c>
-      <c r="D11" s="1">
-        <f>(3.2206*POWER(Table1[[#This Row],[NormIndex]], 3) - 5.4091*POWER(Table1[[#This Row],[NormIndex]], 2) + 3.1979*Table1[[#This Row],[NormIndex]])/1.0094</f>
+      <c r="E11" s="1">
+        <f>(3.2206*POWER(Table1[[#This Row],[Index]], 3) - 5.4091*POWER(Table1[[#This Row],[Index]], 2) + 3.1979*Table1[[#This Row],[Index]])/1.0094</f>
         <v>0.54618020901269015</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F11">
-        <f>Table1[[#This Row],[Index]]/31</f>
-        <v>0.29032258064516131</v>
-      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>69.989999999999995</v>
+      <c r="A12">
+        <f>Table1[[#This Row],[Index2]]/31</f>
+        <v>0.32258064516129031</v>
       </c>
       <c r="B12" s="1">
         <f>Table1[[#This Row],[Square boundaries]]/123</f>
         <v>0.56902439024390239</v>
       </c>
       <c r="C12" s="1">
-        <f>Table1[[#This Row],[NormBounds]]-B11</f>
+        <v>69.989999999999995</v>
+      </c>
+      <c r="D12" s="1">
+        <f>Table1[[#This Row],[Vertical Line X Position]]-B11</f>
         <v>2.1544715447154417E-2</v>
       </c>
-      <c r="D12" s="1">
-        <f>(3.2206*POWER(Table1[[#This Row],[NormIndex]], 3) - 5.4091*POWER(Table1[[#This Row],[NormIndex]], 2) + 3.1979*Table1[[#This Row],[NormIndex]])/1.0094</f>
+      <c r="E12" s="1">
+        <f>(3.2206*POWER(Table1[[#This Row],[Index]], 3) - 5.4091*POWER(Table1[[#This Row],[Index]], 2) + 3.1979*Table1[[#This Row],[Index]])/1.0094</f>
         <v>0.57145385156907502</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F12">
-        <f>Table1[[#This Row],[Index]]/31</f>
-        <v>0.32258064516129031</v>
-      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>72.11</v>
+      <c r="A13">
+        <f>Table1[[#This Row],[Index2]]/31</f>
+        <v>0.35483870967741937</v>
       </c>
       <c r="B13" s="1">
         <f>Table1[[#This Row],[Square boundaries]]/123</f>
         <v>0.58626016260162606</v>
       </c>
       <c r="C13" s="1">
-        <f>Table1[[#This Row],[NormBounds]]-B12</f>
+        <v>72.11</v>
+      </c>
+      <c r="D13" s="1">
+        <f>Table1[[#This Row],[Vertical Line X Position]]-B12</f>
         <v>1.7235772357723667E-2</v>
       </c>
-      <c r="D13" s="1">
-        <f>(3.2206*POWER(Table1[[#This Row],[NormIndex]], 3) - 5.4091*POWER(Table1[[#This Row],[NormIndex]], 2) + 3.1979*Table1[[#This Row],[NormIndex]])/1.0094</f>
+      <c r="E13" s="1">
+        <f>(3.2206*POWER(Table1[[#This Row],[Index]], 3) - 5.4091*POWER(Table1[[#This Row],[Index]], 2) + 3.1979*Table1[[#This Row],[Index]])/1.0094</f>
         <v>0.59200107888536502</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F13">
-        <f>Table1[[#This Row],[Index]]/31</f>
-        <v>0.35483870967741937</v>
-      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>74.290000000000006</v>
+      <c r="A14">
+        <f>Table1[[#This Row],[Index2]]/31</f>
+        <v>0.38709677419354838</v>
       </c>
       <c r="B14" s="1">
         <f>Table1[[#This Row],[Square boundaries]]/123</f>
         <v>0.60398373983739839</v>
       </c>
       <c r="C14" s="1">
-        <f>Table1[[#This Row],[NormBounds]]-B13</f>
+        <v>74.290000000000006</v>
+      </c>
+      <c r="D14" s="1">
+        <f>Table1[[#This Row],[Vertical Line X Position]]-B13</f>
         <v>1.7723577235772336E-2</v>
       </c>
-      <c r="D14" s="1">
-        <f>(3.2206*POWER(Table1[[#This Row],[NormIndex]], 3) - 5.4091*POWER(Table1[[#This Row],[NormIndex]], 2) + 3.1979*Table1[[#This Row],[NormIndex]])/1.0094</f>
+      <c r="E14" s="1">
+        <f>(3.2206*POWER(Table1[[#This Row],[Index]], 3) - 5.4091*POWER(Table1[[#This Row],[Index]], 2) + 3.1979*Table1[[#This Row],[Index]])/1.0094</f>
         <v>0.60846448938702002</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F14">
-        <f>Table1[[#This Row],[Index]]/31</f>
-        <v>0.38709677419354838</v>
-      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>75.819999999999993</v>
+      <c r="A15">
+        <f>Table1[[#This Row],[Index2]]/31</f>
+        <v>0.41935483870967744</v>
       </c>
       <c r="B15" s="1">
         <f>Table1[[#This Row],[Square boundaries]]/123</f>
         <v>0.61642276422764219</v>
       </c>
       <c r="C15" s="1">
-        <f>Table1[[#This Row],[NormBounds]]-B14</f>
+        <v>75.819999999999993</v>
+      </c>
+      <c r="D15" s="1">
+        <f>Table1[[#This Row],[Vertical Line X Position]]-B14</f>
         <v>1.2439024390243802E-2</v>
       </c>
-      <c r="D15" s="1">
-        <f>(3.2206*POWER(Table1[[#This Row],[NormIndex]], 3) - 5.4091*POWER(Table1[[#This Row],[NormIndex]], 2) + 3.1979*Table1[[#This Row],[NormIndex]])/1.0094</f>
+      <c r="E15" s="1">
+        <f>(3.2206*POWER(Table1[[#This Row],[Index]], 3) - 5.4091*POWER(Table1[[#This Row],[Index]], 2) + 3.1979*Table1[[#This Row],[Index]])/1.0094</f>
         <v>0.62148668149950037</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F15">
-        <f>Table1[[#This Row],[Index]]/31</f>
-        <v>0.41935483870967744</v>
-      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>77.12</v>
+      <c r="A16">
+        <f>Table1[[#This Row],[Index2]]/31</f>
+        <v>0.45161290322580644</v>
       </c>
       <c r="B16" s="1">
         <f>Table1[[#This Row],[Square boundaries]]/123</f>
         <v>0.62699186991869926</v>
       </c>
       <c r="C16" s="1">
-        <f>Table1[[#This Row],[NormBounds]]-B15</f>
+        <v>77.12</v>
+      </c>
+      <c r="D16" s="1">
+        <f>Table1[[#This Row],[Vertical Line X Position]]-B15</f>
         <v>1.0569105691057068E-2</v>
       </c>
-      <c r="D16" s="1">
-        <f>(3.2206*POWER(Table1[[#This Row],[NormIndex]], 3) - 5.4091*POWER(Table1[[#This Row],[NormIndex]], 2) + 3.1979*Table1[[#This Row],[NormIndex]])/1.0094</f>
+      <c r="E16" s="1">
+        <f>(3.2206*POWER(Table1[[#This Row],[Index]], 3) - 5.4091*POWER(Table1[[#This Row],[Index]], 2) + 3.1979*Table1[[#This Row],[Index]])/1.0094</f>
         <v>0.63171025364826661</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F16">
-        <f>Table1[[#This Row],[Index]]/31</f>
-        <v>0.45161290322580644</v>
-      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>78.23</v>
+      <c r="A17">
+        <f>Table1[[#This Row],[Index2]]/31</f>
+        <v>0.4838709677419355</v>
       </c>
       <c r="B17" s="1">
         <f>Table1[[#This Row],[Square boundaries]]/123</f>
         <v>0.63601626016260171</v>
       </c>
       <c r="C17" s="1">
-        <f>Table1[[#This Row],[NormBounds]]-B16</f>
+        <v>78.23</v>
+      </c>
+      <c r="D17" s="1">
+        <f>Table1[[#This Row],[Vertical Line X Position]]-B16</f>
         <v>9.024390243902447E-3</v>
       </c>
-      <c r="D17" s="1">
-        <f>(3.2206*POWER(Table1[[#This Row],[NormIndex]], 3) - 5.4091*POWER(Table1[[#This Row],[NormIndex]], 2) + 3.1979*Table1[[#This Row],[NormIndex]])/1.0094</f>
+      <c r="E17" s="1">
+        <f>(3.2206*POWER(Table1[[#This Row],[Index]], 3) - 5.4091*POWER(Table1[[#This Row],[Index]], 2) + 3.1979*Table1[[#This Row],[Index]])/1.0094</f>
         <v>0.6397778042587785</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F17">
-        <f>Table1[[#This Row],[Index]]/31</f>
-        <v>0.4838709677419355</v>
-      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>79.06</v>
+      <c r="A18">
+        <f>Table1[[#This Row],[Index2]]/31</f>
+        <v>0.5161290322580645</v>
       </c>
       <c r="B18" s="1">
         <f>Table1[[#This Row],[Square boundaries]]/123</f>
         <v>0.64276422764227648</v>
       </c>
       <c r="C18" s="1">
-        <f>Table1[[#This Row],[NormBounds]]-B17</f>
+        <v>79.06</v>
+      </c>
+      <c r="D18" s="1">
+        <f>Table1[[#This Row],[Vertical Line X Position]]-B17</f>
         <v>6.7479674796747657E-3</v>
       </c>
-      <c r="D18" s="1">
-        <f>(3.2206*POWER(Table1[[#This Row],[NormIndex]], 3) - 5.4091*POWER(Table1[[#This Row],[NormIndex]], 2) + 3.1979*Table1[[#This Row],[NormIndex]])/1.0094</f>
+      <c r="E18" s="1">
+        <f>(3.2206*POWER(Table1[[#This Row],[Index]], 3) - 5.4091*POWER(Table1[[#This Row],[Index]], 2) + 3.1979*Table1[[#This Row],[Index]])/1.0094</f>
         <v>0.64633193175649717</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F18">
-        <f>Table1[[#This Row],[Index]]/31</f>
-        <v>0.5161290322580645</v>
-      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>79.760000000000005</v>
+      <c r="A19">
+        <f>Table1[[#This Row],[Index2]]/31</f>
+        <v>0.54838709677419351</v>
       </c>
       <c r="B19" s="1">
         <f>Table1[[#This Row],[Square boundaries]]/123</f>
         <v>0.64845528455284562</v>
       </c>
       <c r="C19" s="1">
-        <f>Table1[[#This Row],[NormBounds]]-B18</f>
+        <v>79.760000000000005</v>
+      </c>
+      <c r="D19" s="1">
+        <f>Table1[[#This Row],[Vertical Line X Position]]-B18</f>
         <v>5.6910569105691478E-3</v>
       </c>
-      <c r="D19" s="1">
-        <f>(3.2206*POWER(Table1[[#This Row],[NormIndex]], 3) - 5.4091*POWER(Table1[[#This Row],[NormIndex]], 2) + 3.1979*Table1[[#This Row],[NormIndex]])/1.0094</f>
+      <c r="E19" s="1">
+        <f>(3.2206*POWER(Table1[[#This Row],[Index]], 3) - 5.4091*POWER(Table1[[#This Row],[Index]], 2) + 3.1979*Table1[[#This Row],[Index]])/1.0094</f>
         <v>0.65201523456688171</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="F19">
-        <f>Table1[[#This Row],[Index]]/31</f>
-        <v>0.54838709677419351</v>
-      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>80.290000000000006</v>
+      <c r="A20">
+        <f>Table1[[#This Row],[Index2]]/31</f>
+        <v>0.58064516129032262</v>
       </c>
       <c r="B20" s="1">
         <f>Table1[[#This Row],[Square boundaries]]/123</f>
         <v>0.65276422764227648</v>
       </c>
       <c r="C20" s="1">
-        <f>Table1[[#This Row],[NormBounds]]-B19</f>
+        <v>80.290000000000006</v>
+      </c>
+      <c r="D20" s="1">
+        <f>Table1[[#This Row],[Vertical Line X Position]]-B19</f>
         <v>4.3089430894308611E-3</v>
       </c>
-      <c r="D20" s="1">
-        <f>(3.2206*POWER(Table1[[#This Row],[NormIndex]], 3) - 5.4091*POWER(Table1[[#This Row],[NormIndex]], 2) + 3.1979*Table1[[#This Row],[NormIndex]])/1.0094</f>
+      <c r="E20" s="1">
+        <f>(3.2206*POWER(Table1[[#This Row],[Index]], 3) - 5.4091*POWER(Table1[[#This Row],[Index]], 2) + 3.1979*Table1[[#This Row],[Index]])/1.0094</f>
         <v>0.65747031111539345</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F20">
-        <f>Table1[[#This Row],[Index]]/31</f>
-        <v>0.58064516129032262</v>
-      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>81.12</v>
+      <c r="A21">
+        <f>Table1[[#This Row],[Index2]]/31</f>
+        <v>0.61290322580645162</v>
       </c>
       <c r="B21" s="1">
         <f>Table1[[#This Row],[Square boundaries]]/123</f>
         <v>0.65951219512195125</v>
       </c>
       <c r="C21" s="1">
-        <f>Table1[[#This Row],[NormBounds]]-B20</f>
+        <v>81.12</v>
+      </c>
+      <c r="D21" s="1">
+        <f>Table1[[#This Row],[Vertical Line X Position]]-B20</f>
         <v>6.7479674796747657E-3</v>
       </c>
-      <c r="D21" s="1">
-        <f>(3.2206*POWER(Table1[[#This Row],[NormIndex]], 3) - 5.4091*POWER(Table1[[#This Row],[NormIndex]], 2) + 3.1979*Table1[[#This Row],[NormIndex]])/1.0094</f>
+      <c r="E21" s="1">
+        <f>(3.2206*POWER(Table1[[#This Row],[Index]], 3) - 5.4091*POWER(Table1[[#This Row],[Index]], 2) + 3.1979*Table1[[#This Row],[Index]])/1.0094</f>
         <v>0.66333975982749216</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="F21">
-        <f>Table1[[#This Row],[Index]]/31</f>
-        <v>0.61290322580645162</v>
-      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>82.24</v>
+      <c r="A22">
+        <f>Table1[[#This Row],[Index2]]/31</f>
+        <v>0.64516129032258063</v>
       </c>
       <c r="B22" s="1">
         <f>Table1[[#This Row],[Square boundaries]]/123</f>
         <v>0.66861788617886175</v>
       </c>
       <c r="C22" s="1">
-        <f>Table1[[#This Row],[NormBounds]]-B21</f>
+        <v>82.24</v>
+      </c>
+      <c r="D22" s="1">
+        <f>Table1[[#This Row],[Vertical Line X Position]]-B21</f>
         <v>9.1056910569105032E-3</v>
       </c>
-      <c r="D22" s="1">
-        <f>(3.2206*POWER(Table1[[#This Row],[NormIndex]], 3) - 5.4091*POWER(Table1[[#This Row],[NormIndex]], 2) + 3.1979*Table1[[#This Row],[NormIndex]])/1.0094</f>
+      <c r="E22" s="1">
+        <f>(3.2206*POWER(Table1[[#This Row],[Index]], 3) - 5.4091*POWER(Table1[[#This Row],[Index]], 2) + 3.1979*Table1[[#This Row],[Index]])/1.0094</f>
         <v>0.67026617912863762</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F22">
-        <f>Table1[[#This Row],[Index]]/31</f>
-        <v>0.64516129032258063</v>
-      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>83.71</v>
+      <c r="A23">
+        <f>Table1[[#This Row],[Index2]]/31</f>
+        <v>0.67741935483870963</v>
       </c>
       <c r="B23" s="1">
         <f>Table1[[#This Row],[Square boundaries]]/123</f>
         <v>0.68056910569105689</v>
       </c>
       <c r="C23" s="1">
-        <f>Table1[[#This Row],[NormBounds]]-B22</f>
+        <v>83.71</v>
+      </c>
+      <c r="D23" s="1">
+        <f>Table1[[#This Row],[Vertical Line X Position]]-B22</f>
         <v>1.1951219512195133E-2</v>
       </c>
-      <c r="D23" s="1">
-        <f>(3.2206*POWER(Table1[[#This Row],[NormIndex]], 3) - 5.4091*POWER(Table1[[#This Row],[NormIndex]], 2) + 3.1979*Table1[[#This Row],[NormIndex]])/1.0094</f>
+      <c r="E23" s="1">
+        <f>(3.2206*POWER(Table1[[#This Row],[Index]], 3) - 5.4091*POWER(Table1[[#This Row],[Index]], 2) + 3.1979*Table1[[#This Row],[Index]])/1.0094</f>
         <v>0.67889216744429148</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="F23">
-        <f>Table1[[#This Row],[Index]]/31</f>
-        <v>0.67741935483870963</v>
-      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>85.18</v>
+      <c r="A24">
+        <f>Table1[[#This Row],[Index2]]/31</f>
+        <v>0.70967741935483875</v>
       </c>
       <c r="B24" s="1">
         <f>Table1[[#This Row],[Square boundaries]]/123</f>
         <v>0.69252032520325213</v>
       </c>
       <c r="C24" s="1">
-        <f>Table1[[#This Row],[NormBounds]]-B23</f>
+        <v>85.18</v>
+      </c>
+      <c r="D24" s="1">
+        <f>Table1[[#This Row],[Vertical Line X Position]]-B23</f>
         <v>1.1951219512195244E-2</v>
       </c>
-      <c r="D24" s="1">
-        <f>(3.2206*POWER(Table1[[#This Row],[NormIndex]], 3) - 5.4091*POWER(Table1[[#This Row],[NormIndex]], 2) + 3.1979*Table1[[#This Row],[NormIndex]])/1.0094</f>
+      <c r="E24" s="1">
+        <f>(3.2206*POWER(Table1[[#This Row],[Index]], 3) - 5.4091*POWER(Table1[[#This Row],[Index]], 2) + 3.1979*Table1[[#This Row],[Index]])/1.0094</f>
         <v>0.68986032319991253</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="F24">
-        <f>Table1[[#This Row],[Index]]/31</f>
-        <v>0.70967741935483875</v>
-      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>87.18</v>
+      <c r="A25">
+        <f>Table1[[#This Row],[Index2]]/31</f>
+        <v>0.74193548387096775</v>
       </c>
       <c r="B25" s="1">
         <f>Table1[[#This Row],[Square boundaries]]/123</f>
         <v>0.70878048780487812</v>
       </c>
       <c r="C25" s="1">
-        <f>Table1[[#This Row],[NormBounds]]-B24</f>
+        <v>87.18</v>
+      </c>
+      <c r="D25" s="1">
+        <f>Table1[[#This Row],[Vertical Line X Position]]-B24</f>
         <v>1.6260162601625994E-2</v>
       </c>
-      <c r="D25" s="1">
-        <f>(3.2206*POWER(Table1[[#This Row],[NormIndex]], 3) - 5.4091*POWER(Table1[[#This Row],[NormIndex]], 2) + 3.1979*Table1[[#This Row],[NormIndex]])/1.0094</f>
+      <c r="E25" s="1">
+        <f>(3.2206*POWER(Table1[[#This Row],[Index]], 3) - 5.4091*POWER(Table1[[#This Row],[Index]], 2) + 3.1979*Table1[[#This Row],[Index]])/1.0094</f>
         <v>0.70381324482096197</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="F25">
-        <f>Table1[[#This Row],[Index]]/31</f>
-        <v>0.74193548387096775</v>
-      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>89.42</v>
+      <c r="A26">
+        <f>Table1[[#This Row],[Index2]]/31</f>
+        <v>0.77419354838709675</v>
       </c>
       <c r="B26" s="1">
         <f>Table1[[#This Row],[Square boundaries]]/123</f>
         <v>0.72699186991869924</v>
       </c>
       <c r="C26" s="1">
-        <f>Table1[[#This Row],[NormBounds]]-B25</f>
+        <v>89.42</v>
+      </c>
+      <c r="D26" s="1">
+        <f>Table1[[#This Row],[Vertical Line X Position]]-B25</f>
         <v>1.8211382113821117E-2</v>
       </c>
-      <c r="D26" s="1">
-        <f>(3.2206*POWER(Table1[[#This Row],[NormIndex]], 3) - 5.4091*POWER(Table1[[#This Row],[NormIndex]], 2) + 3.1979*Table1[[#This Row],[NormIndex]])/1.0094</f>
+      <c r="E26" s="1">
+        <f>(3.2206*POWER(Table1[[#This Row],[Index]], 3) - 5.4091*POWER(Table1[[#This Row],[Index]], 2) + 3.1979*Table1[[#This Row],[Index]])/1.0094</f>
         <v>0.72139353073289947</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="F26">
-        <f>Table1[[#This Row],[Index]]/31</f>
-        <v>0.77419354838709675</v>
-      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>91.95</v>
+      <c r="A27">
+        <f>Table1[[#This Row],[Index2]]/31</f>
+        <v>0.80645161290322576</v>
       </c>
       <c r="B27" s="1">
         <f>Table1[[#This Row],[Square boundaries]]/123</f>
         <v>0.7475609756097561</v>
       </c>
       <c r="C27" s="1">
-        <f>Table1[[#This Row],[NormBounds]]-B26</f>
+        <v>91.95</v>
+      </c>
+      <c r="D27" s="1">
+        <f>Table1[[#This Row],[Vertical Line X Position]]-B26</f>
         <v>2.0569105691056855E-2</v>
       </c>
-      <c r="D27" s="1">
-        <f>(3.2206*POWER(Table1[[#This Row],[NormIndex]], 3) - 5.4091*POWER(Table1[[#This Row],[NormIndex]], 2) + 3.1979*Table1[[#This Row],[NormIndex]])/1.0094</f>
+      <c r="E27" s="1">
+        <f>(3.2206*POWER(Table1[[#This Row],[Index]], 3) - 5.4091*POWER(Table1[[#This Row],[Index]], 2) + 3.1979*Table1[[#This Row],[Index]])/1.0094</f>
         <v>0.74324377936118635</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F27">
-        <f>Table1[[#This Row],[Index]]/31</f>
-        <v>0.80645161290322576</v>
-      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>95.13</v>
+      <c r="A28">
+        <f>Table1[[#This Row],[Index2]]/31</f>
+        <v>0.83870967741935487</v>
       </c>
       <c r="B28" s="1">
         <f>Table1[[#This Row],[Square boundaries]]/123</f>
         <v>0.77341463414634137</v>
       </c>
       <c r="C28" s="1">
-        <f>Table1[[#This Row],[NormBounds]]-B27</f>
+        <v>95.13</v>
+      </c>
+      <c r="D28" s="1">
+        <f>Table1[[#This Row],[Vertical Line X Position]]-B27</f>
         <v>2.5853658536585278E-2</v>
       </c>
-      <c r="D28" s="1">
-        <f>(3.2206*POWER(Table1[[#This Row],[NormIndex]], 3) - 5.4091*POWER(Table1[[#This Row],[NormIndex]], 2) + 3.1979*Table1[[#This Row],[NormIndex]])/1.0094</f>
+      <c r="E28" s="1">
+        <f>(3.2206*POWER(Table1[[#This Row],[Index]], 3) - 5.4091*POWER(Table1[[#This Row],[Index]], 2) + 3.1979*Table1[[#This Row],[Index]])/1.0094</f>
         <v>0.77000658913128106</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="F28">
-        <f>Table1[[#This Row],[Index]]/31</f>
-        <v>0.83870967741935487</v>
-      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>99.13</v>
+      <c r="A29">
+        <f>Table1[[#This Row],[Index2]]/31</f>
+        <v>0.87096774193548387</v>
       </c>
       <c r="B29" s="1">
         <f>Table1[[#This Row],[Square boundaries]]/123</f>
         <v>0.80593495934959347</v>
       </c>
       <c r="C29" s="1">
-        <f>Table1[[#This Row],[NormBounds]]-B28</f>
+        <v>99.13</v>
+      </c>
+      <c r="D29" s="1">
+        <f>Table1[[#This Row],[Vertical Line X Position]]-B28</f>
         <v>3.2520325203252098E-2</v>
       </c>
-      <c r="D29" s="1">
-        <f>(3.2206*POWER(Table1[[#This Row],[NormIndex]], 3) - 5.4091*POWER(Table1[[#This Row],[NormIndex]], 2) + 3.1979*Table1[[#This Row],[NormIndex]])/1.0094</f>
+      <c r="E29" s="1">
+        <f>(3.2206*POWER(Table1[[#This Row],[Index]], 3) - 5.4091*POWER(Table1[[#This Row],[Index]], 2) + 3.1979*Table1[[#This Row],[Index]])/1.0094</f>
         <v>0.80232455846864548</v>
       </c>
-      <c r="E29" s="1">
+      <c r="F29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="F29">
-        <f>Table1[[#This Row],[Index]]/31</f>
-        <v>0.87096774193548387</v>
-      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>103.61</v>
+      <c r="A30">
+        <f>Table1[[#This Row],[Index2]]/31</f>
+        <v>0.90322580645161288</v>
       </c>
       <c r="B30" s="1">
         <f>Table1[[#This Row],[Square boundaries]]/123</f>
         <v>0.84235772357723582</v>
       </c>
       <c r="C30" s="1">
-        <f>Table1[[#This Row],[NormBounds]]-B29</f>
+        <v>103.61</v>
+      </c>
+      <c r="D30" s="1">
+        <f>Table1[[#This Row],[Vertical Line X Position]]-B29</f>
         <v>3.6422764227642346E-2</v>
       </c>
-      <c r="D30" s="1">
-        <f>(3.2206*POWER(Table1[[#This Row],[NormIndex]], 3) - 5.4091*POWER(Table1[[#This Row],[NormIndex]], 2) + 3.1979*Table1[[#This Row],[NormIndex]])/1.0094</f>
+      <c r="E30" s="1">
+        <f>(3.2206*POWER(Table1[[#This Row],[Index]], 3) - 5.4091*POWER(Table1[[#This Row],[Index]], 2) + 3.1979*Table1[[#This Row],[Index]])/1.0094</f>
         <v>0.84084028579873971</v>
       </c>
-      <c r="E30" s="1">
+      <c r="F30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="F30">
-        <f>Table1[[#This Row],[Index]]/31</f>
-        <v>0.90322580645161288</v>
-      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
-        <v>108.67</v>
+      <c r="A31">
+        <f>Table1[[#This Row],[Index2]]/31</f>
+        <v>0.93548387096774188</v>
       </c>
       <c r="B31" s="1">
         <f>Table1[[#This Row],[Square boundaries]]/123</f>
         <v>0.88349593495934964</v>
       </c>
       <c r="C31" s="1">
-        <f>Table1[[#This Row],[NormBounds]]-B30</f>
+        <v>108.67</v>
+      </c>
+      <c r="D31" s="1">
+        <f>Table1[[#This Row],[Vertical Line X Position]]-B30</f>
         <v>4.1138211382113821E-2</v>
       </c>
-      <c r="D31" s="1">
-        <f>(3.2206*POWER(Table1[[#This Row],[NormIndex]], 3) - 5.4091*POWER(Table1[[#This Row],[NormIndex]], 2) + 3.1979*Table1[[#This Row],[NormIndex]])/1.0094</f>
+      <c r="E31" s="1">
+        <f>(3.2206*POWER(Table1[[#This Row],[Index]], 3) - 5.4091*POWER(Table1[[#This Row],[Index]], 2) + 3.1979*Table1[[#This Row],[Index]])/1.0094</f>
         <v>0.88619636954702286</v>
       </c>
-      <c r="E31" s="1">
+      <c r="F31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="F31">
-        <f>Table1[[#This Row],[Index]]/31</f>
-        <v>0.93548387096774188</v>
-      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>115.2</v>
+      <c r="A32">
+        <f>Table1[[#This Row],[Index2]]/31</f>
+        <v>0.967741935483871</v>
       </c>
       <c r="B32" s="1">
         <f>Table1[[#This Row],[Square boundaries]]/123</f>
         <v>0.93658536585365859</v>
       </c>
       <c r="C32" s="1">
-        <f>Table1[[#This Row],[NormBounds]]-B31</f>
+        <v>115.2</v>
+      </c>
+      <c r="D32" s="1">
+        <f>Table1[[#This Row],[Vertical Line X Position]]-B31</f>
         <v>5.3089430894308953E-2</v>
       </c>
-      <c r="D32" s="1">
-        <f>(3.2206*POWER(Table1[[#This Row],[NormIndex]], 3) - 5.4091*POWER(Table1[[#This Row],[NormIndex]], 2) + 3.1979*Table1[[#This Row],[NormIndex]])/1.0094</f>
+      <c r="E32" s="1">
+        <f>(3.2206*POWER(Table1[[#This Row],[Index]], 3) - 5.4091*POWER(Table1[[#This Row],[Index]], 2) + 3.1979*Table1[[#This Row],[Index]])/1.0094</f>
         <v>0.93903540813895647</v>
       </c>
-      <c r="E32" s="1">
+      <c r="F32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F32">
-        <f>Table1[[#This Row],[Index]]/31</f>
-        <v>0.967741935483871</v>
-      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>123</v>
+      <c r="A33">
+        <f>Table1[[#This Row],[Index2]]/31</f>
+        <v>1</v>
       </c>
       <c r="B33" s="1">
         <f>Table1[[#This Row],[Square boundaries]]/123</f>
         <v>1</v>
       </c>
       <c r="C33" s="1">
-        <f>Table1[[#This Row],[NormBounds]]-B32</f>
+        <v>123</v>
+      </c>
+      <c r="D33" s="1">
+        <f>Table1[[#This Row],[Vertical Line X Position]]-B32</f>
         <v>6.3414634146341409E-2</v>
       </c>
-      <c r="D33" s="1">
-        <f>(3.2206*POWER(Table1[[#This Row],[NormIndex]], 3) - 5.4091*POWER(Table1[[#This Row],[NormIndex]], 2) + 3.1979*Table1[[#This Row],[NormIndex]])/1.0094</f>
+      <c r="E33" s="1">
+        <f>(3.2206*POWER(Table1[[#This Row],[Index]], 3) - 5.4091*POWER(Table1[[#This Row],[Index]], 2) + 3.1979*Table1[[#This Row],[Index]])/1.0094</f>
         <v>1.0000000000000007</v>
       </c>
-      <c r="E33" s="1">
+      <c r="F33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
-      </c>
-      <c r="F33">
-        <f>Table1[[#This Row],[Index]]/31</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/op_art_analysis.xlsx
+++ b/analysis/op_art_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hettysymes/PycharmProjects/op_art_generator/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B805EFB-6E77-0042-B999-FA8C5C8ED532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52CA9F3-A592-414C-A136-F3FA2AF24FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="3" xr2:uid="{F32E88F0-E047-FC4B-8F82-E7C145B1565C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="1" xr2:uid="{F32E88F0-E047-FC4B-8F82-E7C145B1565C}"/>
   </bookViews>
   <sheets>
     <sheet name="Cantus Firmus" sheetId="8" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="106">
   <si>
     <t>Index</t>
   </si>
@@ -355,6 +355,12 @@
   <si>
     <t>Cell Height</t>
   </si>
+  <si>
+    <t>Angle deg</t>
+  </si>
+  <si>
+    <t>abs</t>
+  </si>
 </sst>
 </file>
 
@@ -477,7 +483,25 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="59">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -591,22 +615,37 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1879,37 +1918,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1985,31 +1994,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.5638899579425294</c:v>
+                  <c:v>89.604294212998752</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5140364028165025</c:v>
+                  <c:v>86.747895910554618</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1650836328092158</c:v>
+                  <c:v>66.754374939737787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5162463490987104</c:v>
+                  <c:v>86.874516505475754</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1919793178916549</c:v>
+                  <c:v>68.295384182074528</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4380829749877067</c:v>
+                  <c:v>82.396085056413128</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1321948036186784</c:v>
+                  <c:v>64.869983833993345</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4069961574906855</c:v>
+                  <c:v>80.614941615340385</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0812855227050124</c:v>
+                  <c:v>61.953096899594364</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2036,6 +2045,7 @@
         <c:axId val="1654878528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2053,8 +2063,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Circle Index</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2115,6 +2180,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Central</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> angle of point on the circle (°)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-GB"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2318,33 +2443,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Blaze!$P$3:$P$10</c:f>
+              <c:f>Blaze!$Q$3:$Q$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>-4.9853555126026849E-2</c:v>
+                  <c:v>-2.8563983024441342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.34895277000728675</c:v>
+                  <c:v>-19.993520970816832</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35116271628949458</c:v>
+                  <c:v>20.120141565737967</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.32426703120705547</c:v>
+                  <c:v>-18.579132323401225</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.24610365709605175</c:v>
+                  <c:v>14.1007008743386</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.30588817136902824</c:v>
+                  <c:v>-17.526101222419783</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2748013538720071</c:v>
+                  <c:v>15.74495778134704</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.32571063478567308</c:v>
+                  <c:v>-18.661844715746021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8291,7 +8416,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -8538,37 +8662,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -8577,6 +8671,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Peak Y Position</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="38100" cap="rnd">
               <a:noFill/>
@@ -8585,12 +8682,10 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="x"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
@@ -8603,7 +8698,7 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -8732,6 +8827,7 @@
         <c:axId val="1557319215"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -8749,6 +8845,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Wave Index</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8860,6 +9011,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -8918,37 +9100,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -8965,12 +9117,10 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="x"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
@@ -9057,12 +9207,10 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="x"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
@@ -11462,6 +11610,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Centre X Position</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="38100" cap="rnd">
               <a:noFill/>
@@ -11564,6 +11715,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Centre Y Position</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="38100" cap="rnd">
               <a:noFill/>
@@ -11666,6 +11820,9 @@
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>Radius</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="38100" cap="rnd">
               <a:noFill/>
@@ -11830,6 +11987,7 @@
         <c:axId val="1576124208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -11847,6 +12005,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Circle</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Index</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-GB"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -22367,16 +22585,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>168855</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>159058</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>586618</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>75506</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>753875</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>111433</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>52032</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>27881</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22448,7 +22666,7 @@
       <xdr:rowOff>72134</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>371744</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>79658</xdr:rowOff>
@@ -22481,16 +22699,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>329596</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>125186</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>513412</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>58343</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>139096</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>116720</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>322912</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>49878</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22766,11 +22984,11 @@
   <autoFilter ref="A1:D144" xr:uid="{1D7D9E80-8FAF-5141-8AC5-FB6F7F573140}"/>
   <tableColumns count="4">
     <tableColumn id="2" xr3:uid="{799F7FB1-EE95-C24B-ADED-2AB979F13372}" name="unnorm_x"/>
-    <tableColumn id="1" xr3:uid="{C2E477BD-1F78-3745-921B-6D8509540A13}" name="X" dataDxfId="47">
+    <tableColumn id="1" xr3:uid="{C2E477BD-1F78-3745-921B-6D8509540A13}" name="X" dataDxfId="58">
       <calculatedColumnFormula>Table9[[#This Row],[unnorm_x]]/$A$144</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{E5892D18-A190-FE46-99A6-CE2205838599}" name="Colour"/>
-    <tableColumn id="5" xr3:uid="{0BEF3B22-D75A-DE42-9DBA-FCB0C1D2324D}" name="Width" dataDxfId="46">
+    <tableColumn id="5" xr3:uid="{0BEF3B22-D75A-DE42-9DBA-FCB0C1D2324D}" name="Width" dataDxfId="57">
       <calculatedColumnFormula>Table9[[#This Row],[X]]-B1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -22808,19 +23026,19 @@
     <tableColumn id="4" xr3:uid="{C1C8414F-B74C-9649-A1E0-5FFF7148BF09}" name="diff">
       <calculatedColumnFormula>C20-C19</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{14900C00-7693-AE41-B20A-3D15A262E9C6}" name="black x" dataDxfId="45">
+    <tableColumn id="5" xr3:uid="{14900C00-7693-AE41-B20A-3D15A262E9C6}" name="black x" dataDxfId="56">
       <calculatedColumnFormula>E8/$H$1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{65CE1D17-FACA-9F4C-B034-89DB0F2E7085}" name="white x" dataDxfId="44">
+    <tableColumn id="6" xr3:uid="{65CE1D17-FACA-9F4C-B034-89DB0F2E7085}" name="white x" dataDxfId="55">
       <calculatedColumnFormula>F8/$H$1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{67FD90AA-CA65-E845-A028-3A5EC1236255}" name="black diff" dataDxfId="43">
+    <tableColumn id="7" xr3:uid="{67FD90AA-CA65-E845-A028-3A5EC1236255}" name="black diff" dataDxfId="54">
       <calculatedColumnFormula>ABS(Table8[[#This Row],[black x]]-E19)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{E5C86B23-7B30-8346-9099-D87BE2E12F36}" name="white diff" dataDxfId="42">
+    <tableColumn id="8" xr3:uid="{E5C86B23-7B30-8346-9099-D87BE2E12F36}" name="white diff" dataDxfId="53">
       <calculatedColumnFormula>ABS(Table8[[#This Row],[white x]]-F19)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{02C24204-45A8-5B41-A8B9-C8395A95F06E}" name="diff diff" dataDxfId="41">
+    <tableColumn id="9" xr3:uid="{02C24204-45A8-5B41-A8B9-C8395A95F06E}" name="diff diff" dataDxfId="52">
       <calculatedColumnFormula>Table8[[#This Row],[white diff]]-Table8[[#This Row],[black diff]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -22834,10 +23052,10 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0AE83E98-B580-4DD8-8F27-E8E2E03D1C01}" name="Index"/>
     <tableColumn id="2" xr3:uid="{F9D49BEA-B225-47C2-BECB-F61B19BF4F06}" name="x coord"/>
-    <tableColumn id="4" xr3:uid="{32EC3548-475C-4C3E-83E6-D07D5C5D4800}" name="N_index" dataDxfId="40">
+    <tableColumn id="4" xr3:uid="{32EC3548-475C-4C3E-83E6-D07D5C5D4800}" name="N_index" dataDxfId="51">
       <calculatedColumnFormula>Table5[[#This Row],[Index]]/$A$29</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{11E47D72-2A9F-47C4-B9EC-A1EFEB97700F}" name="X Position" dataDxfId="39">
+    <tableColumn id="5" xr3:uid="{11E47D72-2A9F-47C4-B9EC-A1EFEB97700F}" name="X Position" dataDxfId="50">
       <calculatedColumnFormula>Table5[[#This Row],[x coord]]/$N$1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -22846,18 +23064,18 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{FC587121-58E8-4093-A7EB-DAB7062D1EB3}" name="Table6" displayName="Table6" ref="F1:J43" totalsRowShown="0" tableBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{FC587121-58E8-4093-A7EB-DAB7062D1EB3}" name="Table6" displayName="Table6" ref="F1:J43" totalsRowShown="0" tableBorderDxfId="49">
   <autoFilter ref="F1:J43" xr:uid="{FC587121-58E8-4093-A7EB-DAB7062D1EB3}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7F5E0AB4-362A-464B-8581-323DD4AC0F33}" name="Index"/>
-    <tableColumn id="2" xr3:uid="{B65CDFF2-48E0-4B4C-BE8B-126D6E4DA403}" name="y coord" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{E11A1173-A980-4EEE-BD80-93A840341053}" name="N_index" dataDxfId="36">
+    <tableColumn id="2" xr3:uid="{B65CDFF2-48E0-4B4C-BE8B-126D6E4DA403}" name="y coord" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{E11A1173-A980-4EEE-BD80-93A840341053}" name="N_index" dataDxfId="47">
       <calculatedColumnFormula>Table6[[#This Row],[Index]]/$F$43</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{34AD6BFB-8AC2-4601-8024-3404372E73AF}" name="Y Position" dataDxfId="35">
+    <tableColumn id="5" xr3:uid="{34AD6BFB-8AC2-4601-8024-3404372E73AF}" name="Y Position" dataDxfId="46">
       <calculatedColumnFormula>Table6[[#This Row],[y coord]]/$N$2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E906CC99-232D-6F4C-8B66-7A8A9EDF710F}" name="Cell Height" dataDxfId="34">
+    <tableColumn id="4" xr3:uid="{E906CC99-232D-6F4C-8B66-7A8A9EDF710F}" name="Cell Height" dataDxfId="45">
       <calculatedColumnFormula>Table6[[#This Row],[Y Position]]-I1</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -22866,9 +23084,9 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3EC76306-CD34-D647-B5BA-84D0A8C20003}" name="Table4" displayName="Table4" ref="A1:P10" totalsRowShown="0">
-  <autoFilter ref="A1:P10" xr:uid="{3EC76306-CD34-D647-B5BA-84D0A8C20003}"/>
-  <tableColumns count="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{3EC76306-CD34-D647-B5BA-84D0A8C20003}" name="Table4" displayName="Table4" ref="A1:R11" totalsRowCount="1">
+  <autoFilter ref="A1:R10" xr:uid="{3EC76306-CD34-D647-B5BA-84D0A8C20003}"/>
+  <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{480BDFE2-B5A4-404A-A258-C15F430EFFD4}" name="Circle index">
       <calculatedColumnFormula>A1+1</calculatedColumnFormula>
     </tableColumn>
@@ -22886,26 +23104,33 @@
     <tableColumn id="7" xr3:uid="{E26E6331-D34F-3145-8E97-0A648A1F2B8F}" name="Normalised cy">
       <calculatedColumnFormula>(D2-$B$17)/$B$15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{DFED5905-F988-8F4C-B699-BDDBC0FA0152}" name="Normalised r" dataDxfId="33">
+    <tableColumn id="8" xr3:uid="{DFED5905-F988-8F4C-B699-BDDBC0FA0152}" name="Normalised r" dataDxfId="44" totalsRowDxfId="43">
       <calculatedColumnFormula>Table4[[#This Row],[r]]/$B$14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{21842F81-7318-4F2F-A987-99DB911BB622}" name="Normalised point x" dataDxfId="32">
+    <tableColumn id="11" xr3:uid="{21842F81-7318-4F2F-A987-99DB911BB622}" name="Normalised point x" dataDxfId="42" totalsRowDxfId="41">
       <calculatedColumnFormula>(F2-$B$16)/$B$14</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{2F0C8D18-AC21-4BFA-8634-0EF83E1B31C4}" name="Normalised point y" dataDxfId="31">
+    <tableColumn id="12" xr3:uid="{2F0C8D18-AC21-4BFA-8634-0EF83E1B31C4}" name="Normalised point y" dataDxfId="40" totalsRowDxfId="39">
       <calculatedColumnFormula>(G2-$B$17)/$B$15</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{CF3DAEC9-B770-E04B-9BA2-DF1956F330F2}" name="Vector x" dataDxfId="30">
+    <tableColumn id="13" xr3:uid="{CF3DAEC9-B770-E04B-9BA2-DF1956F330F2}" name="Vector x" dataDxfId="38" totalsRowDxfId="37">
       <calculatedColumnFormula>Table4[[#This Row],[Point x]]-Table4[[#This Row],[cx]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{B437D90B-3874-5B40-B826-B04344334107}" name="Vector y" dataDxfId="29">
+    <tableColumn id="14" xr3:uid="{B437D90B-3874-5B40-B826-B04344334107}" name="Vector y" dataDxfId="36" totalsRowDxfId="35">
       <calculatedColumnFormula>Table4[[#This Row],[Point y]]-Table4[[#This Row],[cy]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{4BAAE237-808A-EC40-BC29-D90C3BB6DB7E}" name="Angle" dataDxfId="28">
+    <tableColumn id="17" xr3:uid="{B38B0FBD-3BAE-9D45-B8C7-4198D67855E7}" name="Angle deg" dataDxfId="34" totalsRowDxfId="33">
+      <calculatedColumnFormula>Table4[[#This Row],[Angle]]*(180/PI())</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{4BAAE237-808A-EC40-BC29-D90C3BB6DB7E}" name="Angle" dataDxfId="32" totalsRowDxfId="31">
       <calculatedColumnFormula>ATAN2(Table4[[#This Row],[Vector x]], Table4[[#This Row],[Vector y]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{6F748C24-4614-F74E-B4AF-493832427E92}" name="Diff" dataDxfId="27">
-      <calculatedColumnFormula>Table4[[#This Row],[Angle]]-O1</calculatedColumnFormula>
+    <tableColumn id="16" xr3:uid="{6F748C24-4614-F74E-B4AF-493832427E92}" name="Diff" dataDxfId="30" totalsRowDxfId="29">
+      <calculatedColumnFormula>Table4[[#This Row],[Angle deg]]-O1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{02383645-2774-A846-A29C-B198A241FB4C}" name="abs" totalsRowFunction="custom" dataDxfId="28" totalsRowDxfId="27">
+      <calculatedColumnFormula>ABS(Table4[[#This Row],[Diff]])</calculatedColumnFormula>
+      <totalsRowFormula>AVERAGE(R4:R10)</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -22996,20 +23221,20 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C8D37312-8839-0941-86C0-D9CE4CAF9E9F}" name="Table1" displayName="Table1" ref="A1:F33" totalsRowShown="0" dataDxfId="6">
   <autoFilter ref="A1:F33" xr:uid="{C8D37312-8839-0941-86C0-D9CE4CAF9E9F}"/>
   <tableColumns count="6">
-    <tableColumn id="6" xr3:uid="{ACD77800-9688-064B-A25F-49E175F39DAE}" name="Index" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{ACD77800-9688-064B-A25F-49E175F39DAE}" name="Index" dataDxfId="5">
       <calculatedColumnFormula>Table1[[#This Row],[Index2]]/31</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{BA36DE9F-39FC-8946-9F32-B2D7A653793A}" name="Vertical Line X Position" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{BA36DE9F-39FC-8946-9F32-B2D7A653793A}" name="Vertical Line X Position" dataDxfId="4">
       <calculatedColumnFormula>Table1[[#This Row],[Square boundaries]]/123</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{B87A1C0B-7882-3E49-8D76-EC95789CACBF}" name="Square boundaries" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{F565D984-41B2-8542-8055-12DC8BBD0804}" name="Width" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{B87A1C0B-7882-3E49-8D76-EC95789CACBF}" name="Square boundaries" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{F565D984-41B2-8542-8055-12DC8BBD0804}" name="Width" dataDxfId="2">
       <calculatedColumnFormula>Table1[[#This Row],[Vertical Line X Position]]-C1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{2ACC5A59-A55B-CB46-8F44-47411D1B0DD5}" name="Matthew" dataDxfId="3">
+    <tableColumn id="3" xr3:uid="{2ACC5A59-A55B-CB46-8F44-47411D1B0DD5}" name="Matthew" dataDxfId="1">
       <calculatedColumnFormula>(3.2206*POWER(Table1[[#This Row],[Index]], 3) - 5.4091*POWER(Table1[[#This Row],[Index]], 2) + 3.1979*Table1[[#This Row],[Index]])/1.0094</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7C336364-6A4B-DE42-A11E-2B65FA70EB7A}" name="Index2" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{7C336364-6A4B-DE42-A11E-2B65FA70EB7A}" name="Index2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -25658,8 +25883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4CE515-5062-5E42-9CB5-5EEF12730F3F}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView zoomScale="83" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26308,8 +26533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8630FE-D14C-48E2-A242-2E524D676ECC}">
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView topLeftCell="E21" zoomScale="83" zoomScaleNormal="259" workbookViewId="0">
-      <selection activeCell="AA56" sqref="AA56"/>
+    <sheetView topLeftCell="C1" zoomScale="83" zoomScaleNormal="259" workbookViewId="0">
+      <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27713,10 +27938,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1CA6B5-9F4B-4B3C-AF3D-2D5DE869C1B5}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView topLeftCell="B1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27730,7 +27955,7 @@
     <col min="11" max="12" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -27774,13 +27999,19 @@
         <v>19</v>
       </c>
       <c r="O1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -27832,15 +28063,23 @@
         <v>9.7401299999999935</v>
       </c>
       <c r="O2">
+        <f>Table4[[#This Row],[Angle]]*(180/PI())</f>
+        <v>89.604294212998752</v>
+      </c>
+      <c r="P2">
         <f>ATAN2(Table4[[#This Row],[Vector x]], Table4[[#This Row],[Vector y]])</f>
         <v>1.5638899579425294</v>
       </c>
-      <c r="P2" t="e">
-        <f>Table4[[#This Row],[Angle]]-O1</f>
+      <c r="Q2" t="e">
+        <f>Table4[[#This Row],[Angle deg]]-O1</f>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R2" t="e">
+        <f>ABS(Table4[[#This Row],[Diff]])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
@@ -27893,15 +28132,23 @@
         <v>18.508840000000021</v>
       </c>
       <c r="O3">
+        <f>Table4[[#This Row],[Angle]]*(180/PI())</f>
+        <v>86.747895910554618</v>
+      </c>
+      <c r="P3">
         <f>ATAN2(Table4[[#This Row],[Vector x]], Table4[[#This Row],[Vector y]])</f>
         <v>1.5140364028165025</v>
       </c>
-      <c r="P3">
-        <f>Table4[[#This Row],[Angle]]-O2</f>
-        <v>-4.9853555126026849E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3">
+        <f>Table4[[#This Row],[Angle deg]]-O2</f>
+        <v>-2.8563983024441342</v>
+      </c>
+      <c r="R3">
+        <f>ABS(Table4[[#This Row],[Diff]])</f>
+        <v>2.8563983024441342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A10" si="5">A3+1</f>
         <v>2</v>
@@ -27954,15 +28201,23 @@
         <v>35.278199999999998</v>
       </c>
       <c r="O4">
+        <f>Table4[[#This Row],[Angle]]*(180/PI())</f>
+        <v>66.754374939737787</v>
+      </c>
+      <c r="P4">
         <f>ATAN2(Table4[[#This Row],[Vector x]], Table4[[#This Row],[Vector y]])</f>
         <v>1.1650836328092158</v>
       </c>
-      <c r="P4">
-        <f>Table4[[#This Row],[Angle]]-O3</f>
-        <v>-0.34895277000728675</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4">
+        <f>Table4[[#This Row],[Angle deg]]-O3</f>
+        <v>-19.993520970816832</v>
+      </c>
+      <c r="R4">
+        <f>ABS(Table4[[#This Row],[Diff]])</f>
+        <v>19.993520970816832</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -28015,15 +28270,23 @@
         <v>56.841650000000016</v>
       </c>
       <c r="O5">
+        <f>Table4[[#This Row],[Angle]]*(180/PI())</f>
+        <v>86.874516505475754</v>
+      </c>
+      <c r="P5">
         <f>ATAN2(Table4[[#This Row],[Vector x]], Table4[[#This Row],[Vector y]])</f>
         <v>1.5162463490987104</v>
       </c>
-      <c r="P5">
-        <f>Table4[[#This Row],[Angle]]-O4</f>
-        <v>0.35116271628949458</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5">
+        <f>Table4[[#This Row],[Angle deg]]-O4</f>
+        <v>20.120141565737967</v>
+      </c>
+      <c r="R5">
+        <f>ABS(Table4[[#This Row],[Diff]])</f>
+        <v>20.120141565737967</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -28076,15 +28339,23 @@
         <v>69.718030000000027</v>
       </c>
       <c r="O6">
+        <f>Table4[[#This Row],[Angle]]*(180/PI())</f>
+        <v>68.295384182074528</v>
+      </c>
+      <c r="P6">
         <f>ATAN2(Table4[[#This Row],[Vector x]], Table4[[#This Row],[Vector y]])</f>
         <v>1.1919793178916549</v>
       </c>
-      <c r="P6">
-        <f>Table4[[#This Row],[Angle]]-O5</f>
-        <v>-0.32426703120705547</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6">
+        <f>Table4[[#This Row],[Angle deg]]-O5</f>
+        <v>-18.579132323401225</v>
+      </c>
+      <c r="R6">
+        <f>ABS(Table4[[#This Row],[Diff]])</f>
+        <v>18.579132323401225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -28137,15 +28408,23 @@
         <v>92.924589999999995</v>
       </c>
       <c r="O7">
+        <f>Table4[[#This Row],[Angle]]*(180/PI())</f>
+        <v>82.396085056413128</v>
+      </c>
+      <c r="P7">
         <f>ATAN2(Table4[[#This Row],[Vector x]], Table4[[#This Row],[Vector y]])</f>
         <v>1.4380829749877067</v>
       </c>
-      <c r="P7">
-        <f>Table4[[#This Row],[Angle]]-O6</f>
-        <v>0.24610365709605175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7">
+        <f>Table4[[#This Row],[Angle deg]]-O6</f>
+        <v>14.1007008743386</v>
+      </c>
+      <c r="R7">
+        <f>ABS(Table4[[#This Row],[Diff]])</f>
+        <v>14.1007008743386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -28198,15 +28477,23 @@
         <v>101.33871999999997</v>
       </c>
       <c r="O8">
+        <f>Table4[[#This Row],[Angle]]*(180/PI())</f>
+        <v>64.869983833993345</v>
+      </c>
+      <c r="P8">
         <f>ATAN2(Table4[[#This Row],[Vector x]], Table4[[#This Row],[Vector y]])</f>
         <v>1.1321948036186784</v>
       </c>
-      <c r="P8">
-        <f>Table4[[#This Row],[Angle]]-O7</f>
-        <v>-0.30588817136902824</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8">
+        <f>Table4[[#This Row],[Angle deg]]-O7</f>
+        <v>-17.526101222419783</v>
+      </c>
+      <c r="R8">
+        <f>ABS(Table4[[#This Row],[Diff]])</f>
+        <v>17.526101222419783</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -28259,15 +28546,23 @@
         <v>128.36278000000001</v>
       </c>
       <c r="O9">
+        <f>Table4[[#This Row],[Angle]]*(180/PI())</f>
+        <v>80.614941615340385</v>
+      </c>
+      <c r="P9">
         <f>ATAN2(Table4[[#This Row],[Vector x]], Table4[[#This Row],[Vector y]])</f>
-        <v>1.4069961574906855</v>
-      </c>
-      <c r="P9">
-        <f>Table4[[#This Row],[Angle]]-O8</f>
-        <v>0.2748013538720071</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1.4069961574906857</v>
+      </c>
+      <c r="Q9">
+        <f>Table4[[#This Row],[Angle deg]]-O8</f>
+        <v>15.74495778134704</v>
+      </c>
+      <c r="R9">
+        <f>ABS(Table4[[#This Row],[Diff]])</f>
+        <v>15.74495778134704</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="5"/>
         <v>8</v>
@@ -28320,20 +28615,34 @@
         <v>131.91920999999996</v>
       </c>
       <c r="O10">
+        <f>Table4[[#This Row],[Angle]]*(180/PI())</f>
+        <v>61.953096899594364</v>
+      </c>
+      <c r="P10">
         <f>ATAN2(Table4[[#This Row],[Vector x]], Table4[[#This Row],[Vector y]])</f>
         <v>1.0812855227050124</v>
       </c>
-      <c r="P10">
-        <f>Table4[[#This Row],[Angle]]-O9</f>
-        <v>-0.32571063478567308</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10">
+        <f>Table4[[#This Row],[Angle deg]]-O9</f>
+        <v>-18.661844715746021</v>
+      </c>
+      <c r="R10">
+        <f>ABS(Table4[[#This Row],[Diff]])</f>
+        <v>18.661844715746021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R11">
+        <f>AVERAGE(R4:R10)</f>
+        <v>17.818057064829638</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -28349,7 +28658,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -28358,7 +28667,7 @@
         <v>296.51330000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>

--- a/analysis/op_art_analysis.xlsx
+++ b/analysis/op_art_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hettysymes/PycharmProjects/op_art_generator/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA95823-FE08-4A48-9BCF-FFBB5BD3B30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B7556D-A90E-A342-8B36-B40713366A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F32E88F0-E047-FC4B-8F82-E7C145B1565C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" activeTab="2" xr2:uid="{F32E88F0-E047-FC4B-8F82-E7C145B1565C}"/>
   </bookViews>
   <sheets>
     <sheet name="Conversation" sheetId="9" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -21859,7 +21859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B437E10-D46C-2342-A317-29EC7EEE8105}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="62" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -21940,7 +21940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBD11D3-C52D-2E44-9DCD-36B6FFFDB589}">
   <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
@@ -24264,8 +24264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4CE515-5062-5E42-9CB5-5EEF12730F3F}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24914,7 +24914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8630FE-D14C-48E2-A242-2E524D676ECC}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="64" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -26285,7 +26285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1CA6B5-9F4B-4B3C-AF3D-2D5DE869C1B5}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="75" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="75" workbookViewId="0">
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>

--- a/analysis/op_art_analysis.xlsx
+++ b/analysis/op_art_analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hettysymes/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hettysymes/PycharmProjects/op_art_generator/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E82A00A-E6F5-7E43-925C-9837E4AC9E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13E25F3-FF47-9C45-8CFE-DF42E2F42AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" activeTab="2" xr2:uid="{F32E88F0-E047-FC4B-8F82-E7C145B1565C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="3" xr2:uid="{F32E88F0-E047-FC4B-8F82-E7C145B1565C}"/>
   </bookViews>
   <sheets>
     <sheet name="Carnival " sheetId="10" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="155">
   <si>
     <t>Index</t>
   </si>
@@ -323,9 +323,6 @@
     <t>black</t>
   </si>
   <si>
-    <t>grey</t>
-  </si>
-  <si>
     <t>white</t>
   </si>
   <si>
@@ -495,6 +492,24 @@
   </si>
   <si>
     <t>curvature_abs</t>
+  </si>
+  <si>
+    <t>grey1</t>
+  </si>
+  <si>
+    <t>grey2</t>
+  </si>
+  <si>
+    <t>grey3</t>
+  </si>
+  <si>
+    <t>grey4</t>
+  </si>
+  <si>
+    <t>grey5</t>
+  </si>
+  <si>
+    <t>grey6</t>
   </si>
 </sst>
 </file>
@@ -27167,10 +27182,10 @@
         <v>94.72</v>
       </c>
       <c r="G1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J1" t="s">
         <v>25</v>
@@ -27187,10 +27202,10 @@
         <v>252.45</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J2" t="s">
         <v>27</v>
@@ -27201,10 +27216,10 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" t="s">
         <v>121</v>
-      </c>
-      <c r="H3" t="s">
-        <v>122</v>
       </c>
       <c r="K3">
         <f>K1/K2</f>
@@ -27229,12 +27244,12 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F8">
         <v>48.49</v>
@@ -27243,7 +27258,7 @@
         <v>45.55</v>
       </c>
       <c r="I8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J8">
         <f>(G9-G8)/2</f>
@@ -27263,7 +27278,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F9">
         <v>191.03</v>
@@ -27272,7 +27287,7 @@
         <v>89.64</v>
       </c>
       <c r="I9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J9">
         <f>(F9-F8)*2</f>
@@ -27298,7 +27313,7 @@
         <v>78.58</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J11">
         <f>F8-F11</f>
@@ -27325,7 +27340,7 @@
         <v>124.47</v>
       </c>
       <c r="I12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J12">
         <f>G11-G8</f>
@@ -27346,7 +27361,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B15">
         <v>194.18</v>
@@ -28262,25 +28277,25 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" t="s">
         <v>133</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>134</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>135</v>
-      </c>
-      <c r="E1" t="s">
-        <v>136</v>
       </c>
       <c r="F1" t="s">
         <v>57</v>
       </c>
       <c r="G1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M1" t="s">
         <v>25</v>
@@ -28560,46 +28575,46 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" t="s">
         <v>137</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>138</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>139</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>140</v>
-      </c>
-      <c r="E16" t="s">
-        <v>141</v>
       </c>
       <c r="F16" t="s">
         <v>27</v>
       </c>
       <c r="G16" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" t="s">
         <v>142</v>
-      </c>
-      <c r="H16" t="s">
-        <v>143</v>
       </c>
       <c r="I16" t="s">
         <v>57</v>
       </c>
       <c r="J16" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" t="s">
         <v>144</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>145</v>
       </c>
-      <c r="L16" t="s">
-        <v>146</v>
-      </c>
       <c r="M16" t="s">
+        <v>147</v>
+      </c>
+      <c r="N16" t="s">
         <v>148</v>
-      </c>
-      <c r="N16" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -29254,7 +29269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0732F100-BA00-6B40-9214-8DA7980541D2}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -29265,21 +29280,21 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
         <v>87</v>
       </c>
       <c r="D1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2">
         <v>30</v>
@@ -29298,10 +29313,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3">
         <v>30</v>
@@ -29324,10 +29339,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -29350,10 +29365,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -29368,18 +29383,18 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7">
         <v>70.42</v>
@@ -29395,10 +29410,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D8">
         <v>141.63999999999999</v>
@@ -29406,18 +29421,18 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D10">
         <v>37.42</v>
@@ -29436,7 +29451,7 @@
         <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D11">
         <v>177.31</v>
@@ -29447,23 +29462,23 @@
         <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F14" t="s">
         <v>27</v>
@@ -29499,8 +29514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBD11D3-C52D-2E44-9DCD-36B6FFFDB589}">
   <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -29511,13 +29526,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
         <v>87</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
@@ -29644,7 +29659,7 @@
         <v>5.6101522283700828E-2</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="D9">
         <f>Table9[[#This Row],[unnorm_x]]-A8</f>
@@ -29708,7 +29723,7 @@
         <v>8.2941063121094505E-2</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13">
         <f>Table9[[#This Row],[unnorm_x]]-A12</f>
@@ -29836,7 +29851,7 @@
         <v>0.14039144438021306</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="D21">
         <f>Table9[[#This Row],[unnorm_x]]-A20</f>
@@ -29900,7 +29915,7 @@
         <v>0.16709334654664576</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25">
         <f>Table9[[#This Row],[unnorm_x]]-A24</f>
@@ -30028,7 +30043,7 @@
         <v>0.22528697662895369</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="D33">
         <f>Table9[[#This Row],[unnorm_x]]-A32</f>
@@ -30092,7 +30107,7 @@
         <v>0.25300740496049773</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D37">
         <f>Table9[[#This Row],[unnorm_x]]-A36</f>
@@ -30220,7 +30235,7 @@
         <v>0.31067800809315388</v>
       </c>
       <c r="C45" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="D45">
         <f>Table9[[#This Row],[unnorm_x]]-A44</f>
@@ -30284,7 +30299,7 @@
         <v>0.33765518760150853</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D49">
         <f>Table9[[#This Row],[unnorm_x]]-A48</f>
@@ -30412,7 +30427,7 @@
         <v>0.39513309659481927</v>
       </c>
       <c r="C57" t="s">
-        <v>92</v>
+        <v>153</v>
       </c>
       <c r="D57">
         <f>Table9[[#This Row],[unnorm_x]]-A56</f>
@@ -30476,7 +30491,7 @@
         <v>0.42211027610317398</v>
       </c>
       <c r="C61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D61">
         <f>Table9[[#This Row],[unnorm_x]]-A60</f>
@@ -30604,7 +30619,7 @@
         <v>0.48019379524871308</v>
       </c>
       <c r="C69" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="D69">
         <f>Table9[[#This Row],[unnorm_x]]-A68</f>
@@ -30668,7 +30683,7 @@
         <v>0.5065928923390316</v>
       </c>
       <c r="C73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D73">
         <f>Table9[[#This Row],[unnorm_x]]-A72</f>
@@ -30796,7 +30811,7 @@
         <v>0.56407080133234233</v>
       </c>
       <c r="C81" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="D81">
         <f>Table9[[#This Row],[unnorm_x]]-A80</f>
@@ -30860,7 +30875,7 @@
         <v>0.59115809177746581</v>
       </c>
       <c r="C85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D85">
         <f>Table9[[#This Row],[unnorm_x]]-A84</f>
@@ -30988,7 +31003,7 @@
         <v>0.6487736394417376</v>
       </c>
       <c r="C93" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="D93">
         <f>Table9[[#This Row],[unnorm_x]]-A92</f>
@@ -31052,7 +31067,7 @@
         <v>0.67583340215266885</v>
       </c>
       <c r="C97" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D97">
         <f>Table9[[#This Row],[unnorm_x]]-A96</f>
@@ -31116,7 +31131,7 @@
         <v>0.70181958323010429</v>
       </c>
       <c r="C101" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="D101">
         <f>Table9[[#This Row],[unnorm_x]]-A100</f>
@@ -31244,7 +31259,7 @@
         <v>0.76004074104660457</v>
       </c>
       <c r="C109" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D109">
         <f>Table9[[#This Row],[unnorm_x]]-A108</f>
@@ -31308,7 +31323,7 @@
         <v>0.78624714399757756</v>
       </c>
       <c r="C113" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="D113">
         <f>Table9[[#This Row],[unnorm_x]]-A112</f>
@@ -31436,7 +31451,7 @@
         <v>0.8447160514218075</v>
       </c>
       <c r="C121" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D121">
         <f>Table9[[#This Row],[unnorm_x]]-A120</f>
@@ -31500,7 +31515,7 @@
         <v>0.87083987117020412</v>
       </c>
       <c r="C125" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="D125">
         <f>Table9[[#This Row],[unnorm_x]]-A124</f>
@@ -31628,7 +31643,7 @@
         <v>0.92941888953120277</v>
       </c>
       <c r="C133" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D133">
         <f>Table9[[#This Row],[unnorm_x]]-A132</f>
@@ -31692,7 +31707,7 @@
         <v>0.95570787568475246</v>
       </c>
       <c r="C137" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="D137">
         <f>Table9[[#This Row],[unnorm_x]]-A136</f>
